--- a/VT_SHR_RCI_V01.xlsx
+++ b/VT_SHR_RCI_V01.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mikkel Simonsen\TIMES-DK\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stpet\Git models\TIMES-SHIRE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -798,7 +798,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="214">
   <si>
     <t>CommName</t>
   </si>
@@ -1229,30 +1229,6 @@
     <t>RCM</t>
   </si>
   <si>
-    <t>CHH</t>
-  </si>
-  <si>
-    <t>CCH</t>
-  </si>
-  <si>
-    <t>Commercial heating Demand - Hotels, Cafes, Restaurants</t>
-  </si>
-  <si>
-    <t>Commercial cooling Demand - Hotels, Cafes, Restaurants</t>
-  </si>
-  <si>
-    <t>Commercial heating Demand Health and Education</t>
-  </si>
-  <si>
-    <t>CHR</t>
-  </si>
-  <si>
-    <t>CCR</t>
-  </si>
-  <si>
-    <t>Commercial cooling Demand Health and Education</t>
-  </si>
-  <si>
     <t>RED</t>
   </si>
   <si>
@@ -1262,33 +1238,12 @@
     <t>Residential electricity Demand - Multistorey</t>
   </si>
   <si>
-    <t>IGL</t>
-  </si>
-  <si>
-    <t>Demand for glass</t>
-  </si>
-  <si>
     <t>RESELCA</t>
   </si>
   <si>
     <t>Applances Electricity RES</t>
   </si>
   <si>
-    <t>COMELCA</t>
-  </si>
-  <si>
-    <t>CER</t>
-  </si>
-  <si>
-    <t>Commercial electricity Demand - Hotels, Cafes, Restaurants</t>
-  </si>
-  <si>
-    <t>Commercial electricity Demand Health and Education</t>
-  </si>
-  <si>
-    <t>CEH</t>
-  </si>
-  <si>
     <t>RESHDBX</t>
   </si>
   <si>
@@ -1364,36 +1319,12 @@
     <t>CCDRB</t>
   </si>
   <si>
-    <t>CEDRB</t>
-  </si>
-  <si>
-    <t>CHDHB</t>
-  </si>
-  <si>
-    <t>CCDHB</t>
-  </si>
-  <si>
-    <t>CEDHB</t>
-  </si>
-  <si>
     <t>Fuel Technology for Appliacnes Electricity RES</t>
   </si>
   <si>
     <t>FT-RESELCA</t>
   </si>
   <si>
-    <t>FT-COMELCA</t>
-  </si>
-  <si>
-    <t>Fuel Technology for Appliances Electricity COM</t>
-  </si>
-  <si>
-    <t>IGLT</t>
-  </si>
-  <si>
-    <t>Industry Glass Technology</t>
-  </si>
-  <si>
     <t>RHTDBWPEBE1</t>
   </si>
   <si>
@@ -1436,24 +1367,6 @@
     <t>REM</t>
   </si>
   <si>
-    <t>Commercial heating demand technology Hotels, Cafes, Restaurants buildings</t>
-  </si>
-  <si>
-    <t>Commercial cooling demand technology Hotels, Cafes, Restaurants buildings</t>
-  </si>
-  <si>
-    <t>Commercial electricity demand technology Hotels, Cafes, Restaurants buildings</t>
-  </si>
-  <si>
-    <t>Commercial heating demand technology Health, Education buildings</t>
-  </si>
-  <si>
-    <t>Commercial cooling demand technology Health, Education buildings</t>
-  </si>
-  <si>
-    <t>Commercial electricity demand technology Health, Education buildings</t>
-  </si>
-  <si>
     <t>RCTDBAC</t>
   </si>
   <si>
@@ -1469,15 +1382,6 @@
     <t>CCTRBAC</t>
   </si>
   <si>
-    <t>CCTHBAC</t>
-  </si>
-  <si>
-    <t>Commercial cooling technology Health, education- AC</t>
-  </si>
-  <si>
-    <t>Commercial cooling technology Restaurants buildings- AC</t>
-  </si>
-  <si>
     <t>Comm-OUT-A</t>
   </si>
   <si>
@@ -1487,21 +1391,6 @@
     <t>Output coefficient per unit of output</t>
   </si>
   <si>
-    <t>FX</t>
-  </si>
-  <si>
-    <t>RESHSDB</t>
-  </si>
-  <si>
-    <t>Residential Heat Saving Detached Buildings</t>
-  </si>
-  <si>
-    <t>Residential Heat Saving Multistorey Buildings</t>
-  </si>
-  <si>
-    <t>RESHSMB</t>
-  </si>
-  <si>
     <t>~COMEMI</t>
   </si>
   <si>
@@ -1520,28 +1409,37 @@
     <t>VDA_FLOP</t>
   </si>
   <si>
-    <t>INDGL</t>
-  </si>
-  <si>
-    <t>Industry glass</t>
-  </si>
-  <si>
     <t>INDPP</t>
   </si>
   <si>
     <t>Industry pulp and paper</t>
   </si>
   <si>
-    <t>IGLDT</t>
-  </si>
-  <si>
-    <t>Industry glass demand technology</t>
-  </si>
-  <si>
     <t>IPPDT</t>
   </si>
   <si>
     <t>Industry pulp and paper demand technology</t>
+  </si>
+  <si>
+    <t>Commercial heating Demand</t>
+  </si>
+  <si>
+    <t>Commercial cooling Demand</t>
+  </si>
+  <si>
+    <t>CH</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>Commercial heating demand technology</t>
+  </si>
+  <si>
+    <t>Commercial cooling demand technology</t>
+  </si>
+  <si>
+    <t>Commercial cooling technology - AC</t>
   </si>
 </sst>
 </file>
@@ -1549,9 +1447,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="192" formatCode="0.0;\-0.0;0"/>
+    <numFmt numFmtId="164" formatCode="0.0;\-0.0;0"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1615,12 +1513,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color indexed="53"/>
       <name val="Arial"/>
@@ -1635,28 +1527,8 @@
     </font>
     <font>
       <b/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="14"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
@@ -1824,12 +1696,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1846,7 +1718,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1861,7 +1733,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1902,7 +1774,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1912,27 +1784,27 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="5" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="18" fillId="7" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="7" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
-    <xf numFmtId="192" fontId="18" fillId="8" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="192" fontId="18" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -2442,10 +2314,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="B1:S48"/>
+  <dimension ref="B1:S39"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2599,10 +2471,10 @@
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
       <c r="D12" s="17" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="F12" s="17" t="s">
         <v>59</v>
@@ -2650,10 +2522,10 @@
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="F15" s="17" t="s">
         <v>59</v>
@@ -2667,10 +2539,10 @@
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17" t="s">
-        <v>148</v>
+        <v>209</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>145</v>
+        <v>207</v>
       </c>
       <c r="F16" s="17" t="s">
         <v>59</v>
@@ -2684,10 +2556,10 @@
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17" t="s">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>146</v>
+        <v>208</v>
       </c>
       <c r="F17" s="17" t="s">
         <v>59</v>
@@ -2699,34 +2571,35 @@
       <c r="M17" s="3"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="M18" s="3"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B19" s="17"/>
+      <c r="B19" s="17" t="s">
+        <v>63</v>
+      </c>
       <c r="C19" s="17"/>
-      <c r="D19" s="17" t="s">
-        <v>143</v>
+      <c r="D19" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>147</v>
+        <v>65</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
@@ -2736,14 +2609,14 @@
     <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
-      <c r="D20" s="17" t="s">
-        <v>144</v>
+      <c r="D20" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>150</v>
+        <v>68</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -2753,70 +2626,80 @@
     <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
-      <c r="D21" s="17" t="s">
-        <v>162</v>
+      <c r="D21" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>161</v>
+        <v>70</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
+      <c r="H21" s="17" t="s">
+        <v>71</v>
+      </c>
       <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
+      <c r="J21" s="17" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
-      <c r="D22" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="E22" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="F22" s="38" t="s">
-        <v>62</v>
+      <c r="D22" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>66</v>
       </c>
       <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
+      <c r="H22" s="17" t="s">
+        <v>71</v>
+      </c>
       <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
+      <c r="J22" s="17" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="E23" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="F23" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B24" s="17" t="s">
-        <v>63</v>
-      </c>
+      <c r="B24" s="17"/>
       <c r="C24" s="17"/>
       <c r="D24" s="2" t="s">
-        <v>64</v>
+        <v>149</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>65</v>
+        <v>151</v>
       </c>
       <c r="F24" s="17" t="s">
         <v>66</v>
       </c>
       <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
+      <c r="H24" s="17" t="s">
+        <v>71</v>
+      </c>
       <c r="I24" s="17"/>
       <c r="J24" s="17"/>
     </row>
@@ -2824,16 +2707,18 @@
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
       <c r="D25" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F25" s="17" t="s">
         <v>66</v>
       </c>
       <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
+      <c r="H25" s="17" t="s">
+        <v>71</v>
+      </c>
       <c r="I25" s="17"/>
       <c r="J25" s="17"/>
     </row>
@@ -2841,10 +2726,10 @@
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
       <c r="D26" s="2" t="s">
-        <v>69</v>
+        <v>152</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>70</v>
+        <v>154</v>
       </c>
       <c r="F26" s="17" t="s">
         <v>66</v>
@@ -2854,18 +2739,16 @@
         <v>71</v>
       </c>
       <c r="I26" s="17"/>
-      <c r="J26" s="17" t="s">
-        <v>72</v>
-      </c>
+      <c r="J26" s="17"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
       <c r="D27" s="17" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F27" s="17" t="s">
         <v>66</v>
@@ -2875,18 +2758,16 @@
         <v>71</v>
       </c>
       <c r="I27" s="17"/>
-      <c r="J27" s="17" t="s">
-        <v>72</v>
-      </c>
+      <c r="J27" s="17"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
       <c r="D28" s="17" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F28" s="17" t="s">
         <v>66</v>
@@ -2902,10 +2783,10 @@
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
       <c r="D29" s="17" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="F29" s="17" t="s">
         <v>66</v>
@@ -2921,10 +2802,10 @@
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
       <c r="D30" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F30" s="17" t="s">
         <v>66</v>
@@ -2934,16 +2815,18 @@
         <v>71</v>
       </c>
       <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
+      <c r="J30" s="17" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
-      <c r="D31" s="17" t="s">
-        <v>167</v>
+      <c r="D31" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>169</v>
+        <v>78</v>
       </c>
       <c r="F31" s="17" t="s">
         <v>66</v>
@@ -2958,11 +2841,11 @@
     <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
-      <c r="D32" s="17" t="s">
-        <v>168</v>
+      <c r="D32" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="F32" s="17" t="s">
         <v>66</v>
@@ -2977,11 +2860,11 @@
     <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
-      <c r="D33" s="17" t="s">
-        <v>171</v>
+      <c r="D33" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>172</v>
+        <v>82</v>
       </c>
       <c r="F33" s="17" t="s">
         <v>66</v>
@@ -2996,11 +2879,11 @@
     <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
-      <c r="D34" s="17" t="s">
-        <v>210</v>
+      <c r="D34" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>173</v>
+        <v>84</v>
       </c>
       <c r="F34" s="17" t="s">
         <v>66</v>
@@ -3011,15 +2894,23 @@
       </c>
       <c r="I34" s="17"/>
       <c r="J34" s="17"/>
+      <c r="L34" s="65"/>
+      <c r="M34" s="65"/>
+      <c r="N34" s="65"/>
+      <c r="O34" s="65"/>
+      <c r="P34" s="65"/>
+      <c r="Q34" s="65"/>
+      <c r="R34" s="65"/>
+      <c r="S34" s="65"/>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
       <c r="D35" s="2" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F35" s="17" t="s">
         <v>66</v>
@@ -3032,15 +2923,23 @@
       <c r="J35" s="17" t="s">
         <v>72</v>
       </c>
+      <c r="L35" s="65"/>
+      <c r="M35" s="65"/>
+      <c r="N35" s="65"/>
+      <c r="O35" s="65"/>
+      <c r="P35" s="65"/>
+      <c r="Q35" s="65"/>
+      <c r="R35" s="65"/>
+      <c r="S35" s="65"/>
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
       <c r="D36" s="17" t="s">
-        <v>158</v>
+        <v>203</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>76</v>
+        <v>204</v>
       </c>
       <c r="F36" s="17" t="s">
         <v>66</v>
@@ -3050,45 +2949,49 @@
         <v>71</v>
       </c>
       <c r="I36" s="17"/>
-      <c r="J36" s="17" t="s">
-        <v>72</v>
-      </c>
+      <c r="J36" s="17"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="39"/>
+      <c r="O36" s="39"/>
+      <c r="P36" s="39"/>
+      <c r="Q36" s="65"/>
+      <c r="R36" s="65"/>
+      <c r="S36" s="65"/>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E37" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="F37" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
+      <c r="B37" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="52"/>
+      <c r="D37" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="E37" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="F37" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="G37" s="52"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="52"/>
+      <c r="J37" s="52"/>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
       <c r="D38" s="2" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G38" s="17"/>
-      <c r="H38" s="17" t="s">
-        <v>71</v>
-      </c>
+      <c r="H38" s="17"/>
       <c r="I38" s="17"/>
       <c r="J38" s="17"/>
     </row>
@@ -3096,226 +2999,18 @@
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
       <c r="D39" s="2" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G39" s="17"/>
-      <c r="H39" s="17" t="s">
-        <v>71</v>
-      </c>
+      <c r="H39" s="17"/>
       <c r="I39" s="17"/>
       <c r="J39" s="17"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E40" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="F40" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="L40" s="65"/>
-      <c r="M40" s="65"/>
-      <c r="N40" s="65"/>
-      <c r="O40" s="65"/>
-      <c r="P40" s="65"/>
-      <c r="Q40" s="65"/>
-      <c r="R40" s="65"/>
-      <c r="S40" s="65"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E41" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="F41" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="L41" s="65"/>
-      <c r="M41" s="65"/>
-      <c r="N41" s="65"/>
-      <c r="O41" s="65"/>
-      <c r="P41" s="65"/>
-      <c r="Q41" s="65"/>
-      <c r="R41" s="65"/>
-      <c r="S41" s="65"/>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17" t="s">
-        <v>240</v>
-      </c>
-      <c r="E42" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="F42" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-      <c r="L42" s="39"/>
-      <c r="M42" s="39"/>
-      <c r="N42" s="39"/>
-      <c r="O42" s="39"/>
-      <c r="P42" s="39"/>
-      <c r="Q42" s="65"/>
-      <c r="R42" s="65"/>
-      <c r="S42" s="65"/>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="E43" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="F43" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-      <c r="L43" s="39"/>
-      <c r="M43" s="39"/>
-      <c r="N43" s="39"/>
-      <c r="O43" s="39"/>
-      <c r="P43" s="39"/>
-      <c r="Q43" s="65"/>
-      <c r="R43" s="65"/>
-      <c r="S43" s="65"/>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="E44" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="F44" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="G44" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="H44" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="41"/>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B45" s="38"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="E45" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="F45" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="G45" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="H45" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="I45" s="38"/>
-      <c r="J45" s="38"/>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B46" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="C46" s="52"/>
-      <c r="D46" s="53" t="s">
-        <v>88</v>
-      </c>
-      <c r="E46" s="52" t="s">
-        <v>89</v>
-      </c>
-      <c r="F46" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="G46" s="52"/>
-      <c r="H46" s="52"/>
-      <c r="I46" s="52"/>
-      <c r="J46" s="52"/>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E47" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="F47" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E48" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="F48" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -3328,10 +3023,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E36" sqref="E35:E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3435,10 +3130,10 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="17" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>59</v>
@@ -3454,10 +3149,10 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="17" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>59</v>
@@ -3473,10 +3168,10 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="17" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>59</v>
@@ -3492,10 +3187,10 @@
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="17" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>59</v>
@@ -3511,10 +3206,10 @@
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="17" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>59</v>
@@ -3530,10 +3225,10 @@
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="17" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>59</v>
@@ -3549,10 +3244,10 @@
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="17" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>59</v>
@@ -3568,10 +3263,10 @@
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="17" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>59</v>
@@ -3587,147 +3282,157 @@
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="17" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>59</v>
+        <v>206</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>62</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
+      <c r="B18" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="53"/>
+      <c r="D18" s="52" t="s">
+        <v>175</v>
+      </c>
+      <c r="E18" s="52" t="s">
+        <v>178</v>
+      </c>
+      <c r="F18" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="H18" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="17" t="s">
-        <v>190</v>
+      <c r="D19" s="2" t="s">
+        <v>176</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>216</v>
+        <v>177</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H19" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>217</v>
+      <c r="D20" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>181</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H20" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="H21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>247</v>
-      </c>
-      <c r="F22" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="G22" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="H22" s="2"/>
+      <c r="D22" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="C23" s="53"/>
-      <c r="D23" s="52" t="s">
-        <v>198</v>
-      </c>
-      <c r="E23" s="52" t="s">
-        <v>201</v>
-      </c>
-      <c r="F23" s="53" t="s">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G23" s="53" t="s">
+      <c r="G23" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="H23" s="53" t="s">
+      <c r="H23" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="17" t="s">
-        <v>199</v>
+      <c r="D24" s="2" t="s">
+        <v>189</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>66</v>
@@ -3745,10 +3450,10 @@
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>204</v>
+        <v>190</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>192</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>66</v>
@@ -3766,10 +3471,10 @@
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>203</v>
+        <v>100</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>205</v>
+        <v>101</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>66</v>
@@ -3787,10 +3492,10 @@
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
-        <v>208</v>
+        <v>102</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>206</v>
+        <v>103</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>66</v>
@@ -3807,11 +3512,11 @@
     <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>207</v>
+      <c r="D28" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>213</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>66</v>
@@ -3828,11 +3533,11 @@
     <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>220</v>
+      <c r="D29" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>66</v>
@@ -3840,47 +3545,45 @@
       <c r="G29" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="H29" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="F30" s="2" t="s">
+      <c r="B30" s="53"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53" t="s">
+        <v>199</v>
+      </c>
+      <c r="E30" s="52" t="s">
+        <v>200</v>
+      </c>
+      <c r="F30" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H30" s="2" t="s">
+      <c r="G30" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="H30" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="53"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>66</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>71</v>
@@ -3892,16 +3595,16 @@
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>66</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>71</v>
@@ -3912,17 +3615,17 @@
     <row r="33" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
-      <c r="D33" s="17" t="s">
-        <v>222</v>
+      <c r="D33" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>225</v>
+        <v>173</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>66</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>71</v>
@@ -3933,17 +3636,17 @@
     <row r="34" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="E34" s="17" t="s">
-        <v>224</v>
+      <c r="D34" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>66</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>71</v>
@@ -3954,19 +3657,21 @@
     <row r="35" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
-      <c r="D35" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="E35" s="17" t="s">
-        <v>197</v>
+      <c r="D35" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>66</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H35" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
     </row>
@@ -3974,29 +3679,31 @@
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>66</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H36" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="D37" s="17" t="s">
-        <v>236</v>
-      </c>
-      <c r="E37" s="17" t="s">
-        <v>237</v>
+      <c r="D37" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>66</v>
@@ -4009,174 +3716,6 @@
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="E40" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="E43" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -4189,10 +3728,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AD84"/>
+  <dimension ref="B1:AD69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E11" zoomScale="98" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4326,7 +3865,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="G8" s="35" t="s">
         <v>119</v>
@@ -4335,7 +3874,7 @@
         <v>125</v>
       </c>
       <c r="I8" s="34" t="s">
-        <v>239</v>
+        <v>202</v>
       </c>
       <c r="J8" s="34" t="s">
         <v>15</v>
@@ -4386,12 +3925,12 @@
         <v>37</v>
       </c>
       <c r="F9" s="50" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
       <c r="I9" s="50" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="J9" s="21" t="s">
         <v>38</v>
@@ -4470,8 +4009,8 @@
         <v>Detached building heating Demand Technology</v>
       </c>
       <c r="D11" s="17" t="str">
-        <f>SEC_Comm!D28&amp;", "&amp;SEC_Comm!D31&amp;", "&amp;SEC_Comm!D44</f>
-        <v>RESHDBX, RESHBDB, RESHSDB</v>
+        <f>SEC_Comm!D23&amp;", "&amp;SEC_Comm!D26</f>
+        <v>RESHDBX, RESHBDB</v>
       </c>
       <c r="E11" s="17" t="str">
         <f>SEC_Comm!D10</f>
@@ -4524,7 +4063,7 @@
         <v>Detached building cooling Demand Technology</v>
       </c>
       <c r="D12" s="17" t="str">
-        <f>SEC_Comm!D33</f>
+        <f>SEC_Comm!D28</f>
         <v>RESCDB</v>
       </c>
       <c r="E12" s="17" t="str">
@@ -4578,7 +4117,7 @@
         <v>Detached building electricity Demand Technology</v>
       </c>
       <c r="D13" s="17" t="str">
-        <f>SEC_Comm!D27</f>
+        <f>SEC_Comm!D22</f>
         <v>RESELCA</v>
       </c>
       <c r="E13" s="17" t="str">
@@ -4632,8 +4171,8 @@
         <v>Multistorey building heating Demand Technology</v>
       </c>
       <c r="D14" s="17" t="str">
-        <f>SEC_Comm!D32&amp;", "&amp;SEC_Comm!D29&amp;", "&amp;SEC_Comm!D45</f>
-        <v>RESHBMB, RESHMBX, RESHSMB</v>
+        <f>SEC_Comm!D27&amp;", "&amp;SEC_Comm!D24</f>
+        <v>RESHBMB, RESHMBX</v>
       </c>
       <c r="E14" s="17" t="str">
         <f>SEC_Comm!D13</f>
@@ -4686,7 +4225,7 @@
         <v>Multistorey building cooling Demand Technology</v>
       </c>
       <c r="D15" s="17" t="str">
-        <f>SEC_Comm!D34</f>
+        <f>SEC_Comm!D29</f>
         <v>RESCMB</v>
       </c>
       <c r="E15" s="17" t="str">
@@ -4740,7 +4279,7 @@
         <v>Multistorey building electricity Demand Technology</v>
       </c>
       <c r="D16" s="17" t="str">
-        <f>SEC_Comm!D27</f>
+        <f>SEC_Comm!D22</f>
         <v>RESELCA</v>
       </c>
       <c r="E16" s="17" t="str">
@@ -4791,15 +4330,15 @@
       </c>
       <c r="C17" s="17" t="str">
         <f>SEC_Processes!E15</f>
-        <v>Commercial heating demand technology Hotels, Cafes, Restaurants buildings</v>
+        <v>Commercial heating demand technology</v>
       </c>
       <c r="D17" s="17" t="str">
-        <f>SEC_Comm!D37&amp;", "&amp;SEC_Comm!D39</f>
+        <f>SEC_Comm!D31&amp;", "&amp;SEC_Comm!D33</f>
         <v>COMHX, COMHB</v>
       </c>
       <c r="E17" s="17" t="str">
         <f>SEC_Comm!D16</f>
-        <v>CHR</v>
+        <v>CH</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="17">
@@ -4845,15 +4384,15 @@
       </c>
       <c r="C18" s="17" t="str">
         <f>SEC_Processes!E16</f>
-        <v>Commercial cooling demand technology Hotels, Cafes, Restaurants buildings</v>
+        <v>Commercial cooling demand technology</v>
       </c>
       <c r="D18" s="17" t="str">
-        <f>SEC_Comm!D40</f>
+        <f>SEC_Comm!D34</f>
         <v>COMC</v>
       </c>
       <c r="E18" s="17" t="str">
         <f>SEC_Comm!D17</f>
-        <v>CCR</v>
+        <v>CC</v>
       </c>
       <c r="F18" s="17"/>
       <c r="G18" s="17">
@@ -4895,36 +4434,36 @@
     <row r="19" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B19" s="17" t="str">
         <f>SEC_Processes!D17</f>
-        <v>CEDRB</v>
+        <v>IPPDT</v>
       </c>
       <c r="C19" s="17" t="str">
         <f>SEC_Processes!E17</f>
-        <v>Commercial electricity demand technology Hotels, Cafes, Restaurants buildings</v>
+        <v>Industry pulp and paper demand technology</v>
       </c>
       <c r="D19" s="17" t="str">
         <f>SEC_Comm!D36</f>
-        <v>COMELCA</v>
+        <v>INDPP</v>
       </c>
       <c r="E19" s="17" t="str">
         <f>SEC_Comm!D18</f>
-        <v>CER</v>
-      </c>
-      <c r="F19" s="17"/>
-      <c r="G19" s="38">
+        <v>IPP</v>
+      </c>
+      <c r="F19" s="38"/>
+      <c r="G19" s="17">
         <v>2012</v>
       </c>
-      <c r="H19" s="38"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="38">
-        <v>1.5</v>
-      </c>
-      <c r="K19" s="38">
+      <c r="H19" s="17"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="17">
+        <v>183</v>
+      </c>
+      <c r="K19" s="17">
         <v>100</v>
       </c>
-      <c r="L19" s="38">
+      <c r="L19" s="17">
         <v>1</v>
       </c>
-      <c r="M19" s="38">
+      <c r="M19" s="17">
         <v>1</v>
       </c>
       <c r="N19" s="38"/>
@@ -4947,45 +4486,44 @@
       <c r="AD19" s="42"/>
     </row>
     <row r="20" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B20" s="17" t="str">
+      <c r="B20" s="52" t="str">
         <f>SEC_Processes!D18</f>
-        <v>CHDHB</v>
-      </c>
-      <c r="C20" s="17" t="str">
+        <v>RHTDBWPEBE1</v>
+      </c>
+      <c r="C20" s="52" t="str">
         <f>SEC_Processes!E18</f>
-        <v>Commercial heating demand technology Health, Education buildings</v>
-      </c>
-      <c r="D20" s="17" t="str">
-        <f>SEC_Comm!D37&amp;", "&amp;SEC_Comm!D39</f>
-        <v>COMHX, COMHB</v>
-      </c>
-      <c r="E20" s="38" t="str">
-        <f>SEC_Comm!D19</f>
-        <v>CHH</v>
-      </c>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38">
-        <v>2012</v>
-      </c>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38">
-        <v>0.8</v>
-      </c>
-      <c r="K20" s="38">
-        <v>100</v>
-      </c>
-      <c r="L20" s="38">
-        <v>1</v>
-      </c>
-      <c r="M20" s="38">
-        <v>1</v>
-      </c>
-      <c r="N20" s="38"/>
-      <c r="O20" s="38">
+        <v>Residential heating technology detached buildings - wood - existing 1</v>
+      </c>
+      <c r="D20" s="52" t="str">
+        <f>SEC_Comm!D20</f>
+        <v>RESWPE</v>
+      </c>
+      <c r="E20" s="52" t="str">
+        <f>SEC_Comm!D26</f>
+        <v>RESHBDB</v>
+      </c>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="52">
+        <v>0.9</v>
+      </c>
+      <c r="K20" s="52">
         <v>20</v>
       </c>
-      <c r="P20" s="38"/>
+      <c r="L20" s="52">
+        <f>8760*3.6/1000000</f>
+        <v>3.1536000000000002E-2</v>
+      </c>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52">
+        <v>0.2</v>
+      </c>
+      <c r="O20" s="52">
+        <v>1000</v>
+      </c>
+      <c r="P20" s="52"/>
       <c r="R20" s="42"/>
       <c r="S20" s="42"/>
       <c r="T20" s="42"/>
@@ -5003,43 +4541,42 @@
     <row r="21" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B21" s="17" t="str">
         <f>SEC_Processes!D19</f>
-        <v>CCDHB</v>
+        <v>RHTMBWPEBE1</v>
       </c>
       <c r="C21" s="17" t="str">
         <f>SEC_Processes!E19</f>
-        <v>Commercial cooling demand technology Health, Education buildings</v>
+        <v>Residential heating technology multistorey buildings  - wood - existing 1</v>
       </c>
       <c r="D21" s="17" t="str">
-        <f>SEC_Comm!D40</f>
-        <v>COMC</v>
-      </c>
-      <c r="E21" s="38" t="str">
         <f>SEC_Comm!D20</f>
-        <v>CCH</v>
-      </c>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38">
-        <v>2012</v>
-      </c>
-      <c r="H21" s="38"/>
+        <v>RESWPE</v>
+      </c>
+      <c r="E21" s="17" t="str">
+        <f>SEC_Comm!D27</f>
+        <v>RESHBMB</v>
+      </c>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
       <c r="I21" s="17"/>
-      <c r="J21" s="38">
-        <v>2</v>
-      </c>
-      <c r="K21" s="38">
-        <v>100</v>
-      </c>
-      <c r="L21" s="38">
-        <v>1</v>
-      </c>
-      <c r="M21" s="38">
-        <v>1</v>
-      </c>
-      <c r="N21" s="38"/>
-      <c r="O21" s="38">
+      <c r="J21" s="17">
+        <v>0.92</v>
+      </c>
+      <c r="K21" s="17">
         <v>20</v>
       </c>
-      <c r="P21" s="38"/>
+      <c r="L21" s="17">
+        <f t="shared" ref="L21:L30" si="0">8760*3.6/1000000</f>
+        <v>3.1536000000000002E-2</v>
+      </c>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="O21" s="17">
+        <v>1000</v>
+      </c>
+      <c r="P21" s="17"/>
       <c r="R21" s="42"/>
       <c r="S21" s="42"/>
       <c r="T21" s="42"/>
@@ -5057,43 +4594,42 @@
     <row r="22" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B22" s="17" t="str">
         <f>SEC_Processes!D20</f>
-        <v>CEDHB</v>
+        <v>RHTDBLCHXE2</v>
       </c>
       <c r="C22" s="17" t="str">
         <f>SEC_Processes!E20</f>
-        <v>Commercial electricity demand technology Health, Education buildings</v>
+        <v>Residential heating technology detached buildings- heat pump - existing 2</v>
       </c>
       <c r="D22" s="17" t="str">
-        <f>SEC_Comm!D36</f>
-        <v>COMELCA</v>
-      </c>
-      <c r="E22" s="38" t="str">
         <f>SEC_Comm!D21</f>
-        <v>CEH</v>
-      </c>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38">
-        <v>2012</v>
-      </c>
-      <c r="H22" s="38"/>
+        <v>RESELCH</v>
+      </c>
+      <c r="E22" s="17" t="str">
+        <f>SEC_Comm!D26</f>
+        <v>RESHBDB</v>
+      </c>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
       <c r="I22" s="17"/>
-      <c r="J22" s="38">
-        <v>1</v>
-      </c>
-      <c r="K22" s="38">
-        <v>100</v>
-      </c>
-      <c r="L22" s="38">
-        <v>1</v>
-      </c>
-      <c r="M22" s="38">
-        <v>1</v>
-      </c>
-      <c r="N22" s="38"/>
-      <c r="O22" s="38">
+      <c r="J22" s="17">
+        <v>3</v>
+      </c>
+      <c r="K22" s="17">
         <v>20</v>
       </c>
-      <c r="P22" s="38"/>
+      <c r="L22" s="17">
+        <f t="shared" si="0"/>
+        <v>3.1536000000000002E-2</v>
+      </c>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="O22" s="17">
+        <v>1000</v>
+      </c>
+      <c r="P22" s="17"/>
       <c r="R22" s="42"/>
       <c r="S22" s="42"/>
       <c r="T22" s="42"/>
@@ -5111,43 +4647,42 @@
     <row r="23" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B23" s="17" t="str">
         <f>SEC_Processes!D21</f>
-        <v>IGLDT</v>
+        <v>RHTMBLCHXE2</v>
       </c>
       <c r="C23" s="17" t="str">
         <f>SEC_Processes!E21</f>
-        <v>Industry glass demand technology</v>
+        <v>Residential heating technology multistorey buildings- heat pump - existing 2</v>
       </c>
       <c r="D23" s="17" t="str">
-        <f>SEC_Comm!D42</f>
-        <v>INDGL</v>
+        <f>SEC_Comm!D21</f>
+        <v>RESELCH</v>
       </c>
       <c r="E23" s="17" t="str">
-        <f>SEC_Comm!D22</f>
-        <v>IGL</v>
-      </c>
-      <c r="F23" s="38"/>
-      <c r="G23" s="17">
-        <v>2012</v>
-      </c>
+        <f>SEC_Comm!D27</f>
+        <v>RESHBMB</v>
+      </c>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
       <c r="J23" s="17">
-        <v>99.16</v>
+        <v>3</v>
       </c>
       <c r="K23" s="17">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="L23" s="17">
-        <v>1</v>
-      </c>
-      <c r="M23" s="17">
-        <v>1</v>
-      </c>
-      <c r="N23" s="38"/>
-      <c r="O23" s="38">
-        <v>20</v>
-      </c>
-      <c r="P23" s="38"/>
+        <f t="shared" si="0"/>
+        <v>3.1536000000000002E-2</v>
+      </c>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="O23" s="17">
+        <v>1000</v>
+      </c>
+      <c r="P23" s="17"/>
       <c r="R23" s="42"/>
       <c r="S23" s="42"/>
       <c r="T23" s="42"/>
@@ -5165,139 +4700,112 @@
     <row r="24" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B24" s="17" t="str">
         <f>SEC_Processes!D22</f>
-        <v>IPPDT</v>
+        <v>RHTDBDHE1</v>
       </c>
       <c r="C24" s="17" t="str">
         <f>SEC_Processes!E22</f>
-        <v>Industry pulp and paper demand technology</v>
+        <v>Residential heating technology detached buildings-district heat-existing 1</v>
       </c>
       <c r="D24" s="17" t="str">
-        <f>SEC_Comm!D43</f>
-        <v>INDPP</v>
+        <f>SEC_Comm!D25</f>
+        <v>RESDH</v>
       </c>
       <c r="E24" s="17" t="str">
         <f>SEC_Comm!D23</f>
-        <v>IPP</v>
-      </c>
-      <c r="F24" s="38"/>
-      <c r="G24" s="17">
-        <v>2012</v>
-      </c>
+        <v>RESHDBX</v>
+      </c>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
       <c r="H24" s="17"/>
-      <c r="I24" s="32"/>
+      <c r="I24" s="17"/>
       <c r="J24" s="17">
-        <v>183</v>
+        <v>0.98</v>
       </c>
       <c r="K24" s="17">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="L24" s="17">
+        <f t="shared" si="0"/>
+        <v>3.1536000000000002E-2</v>
+      </c>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="O24" s="17">
+        <v>1000</v>
+      </c>
+      <c r="P24" s="17"/>
+    </row>
+    <row r="25" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B25" s="17" t="str">
+        <f>SEC_Processes!D23</f>
+        <v>RHTMBDHE1</v>
+      </c>
+      <c r="C25" s="17" t="str">
+        <f>SEC_Processes!E23</f>
+        <v>Residential heating technology multistorey buildings-district heat-existing 1</v>
+      </c>
+      <c r="D25" s="17" t="str">
+        <f>SEC_Comm!D25</f>
+        <v>RESDH</v>
+      </c>
+      <c r="E25" s="17" t="str">
+        <f>SEC_Comm!D24</f>
+        <v>RESHMBX</v>
+      </c>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17">
         <v>1</v>
       </c>
-      <c r="M24" s="17">
-        <v>1</v>
-      </c>
-      <c r="N24" s="38"/>
-      <c r="O24" s="38">
+      <c r="K25" s="17">
         <v>20</v>
       </c>
-      <c r="P24" s="38"/>
-      <c r="R24" s="42"/>
-      <c r="S24" s="42"/>
-      <c r="T24" s="42"/>
-      <c r="U24" s="42"/>
-      <c r="V24" s="42"/>
-      <c r="W24" s="42"/>
-      <c r="X24" s="42"/>
-      <c r="Y24" s="42"/>
-      <c r="Z24" s="42"/>
-      <c r="AA24" s="42"/>
-      <c r="AB24" s="42"/>
-      <c r="AC24" s="42"/>
-      <c r="AD24" s="42"/>
-    </row>
-    <row r="25" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B25" s="52" t="str">
-        <f>SEC_Processes!D23</f>
-        <v>RHTDBWPEBE1</v>
-      </c>
-      <c r="C25" s="52" t="str">
-        <f>SEC_Processes!E23</f>
-        <v>Residential heating technology detached buildings - wood - existing 1</v>
-      </c>
-      <c r="D25" s="52" t="str">
-        <f>SEC_Comm!D25</f>
-        <v>RESWPE</v>
-      </c>
-      <c r="E25" s="52" t="str">
-        <f>SEC_Comm!D31</f>
-        <v>RESHBDB</v>
-      </c>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="52">
-        <v>0.9</v>
-      </c>
-      <c r="K25" s="52">
-        <v>20</v>
-      </c>
-      <c r="L25" s="52">
-        <f>8760*3.6/1000000</f>
+      <c r="L25" s="17">
+        <f t="shared" si="0"/>
         <v>3.1536000000000002E-2</v>
       </c>
-      <c r="M25" s="52"/>
-      <c r="N25" s="52">
+      <c r="M25" s="17"/>
+      <c r="N25" s="17">
         <v>0.2</v>
       </c>
-      <c r="O25" s="52">
+      <c r="O25" s="17">
         <v>1000</v>
       </c>
-      <c r="P25" s="52"/>
-      <c r="R25" s="42"/>
-      <c r="S25" s="42"/>
-      <c r="T25" s="42"/>
-      <c r="U25" s="42"/>
-      <c r="V25" s="42"/>
-      <c r="W25" s="42"/>
-      <c r="X25" s="42"/>
-      <c r="Y25" s="42"/>
-      <c r="Z25" s="42"/>
-      <c r="AA25" s="42"/>
-      <c r="AB25" s="42"/>
-      <c r="AC25" s="42"/>
-      <c r="AD25" s="42"/>
+      <c r="P25" s="17"/>
     </row>
     <row r="26" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B26" s="17" t="str">
         <f>SEC_Processes!D24</f>
-        <v>RHTMBWPEBE1</v>
+        <v>RCTDBAC</v>
       </c>
       <c r="C26" s="17" t="str">
         <f>SEC_Processes!E24</f>
-        <v>Residential heating technology multistorey buildings  - wood - existing 1</v>
+        <v>Residential cooling technology detached buildings- AC</v>
       </c>
       <c r="D26" s="17" t="str">
-        <f>SEC_Comm!D25</f>
-        <v>RESWPE</v>
+        <f>SEC_Comm!D21</f>
+        <v>RESELCH</v>
       </c>
       <c r="E26" s="17" t="str">
-        <f>SEC_Comm!D32</f>
-        <v>RESHBMB</v>
+        <f>SEC_Comm!D28</f>
+        <v>RESCDB</v>
       </c>
       <c r="F26" s="17"/>
       <c r="G26" s="17"/>
       <c r="H26" s="17"/>
       <c r="I26" s="17"/>
       <c r="J26" s="17">
-        <v>0.92</v>
+        <v>3.2</v>
       </c>
       <c r="K26" s="17">
         <v>20</v>
       </c>
       <c r="L26" s="17">
-        <f t="shared" ref="L26:L36" si="0">8760*3.6/1000000</f>
+        <f t="shared" si="0"/>
         <v>3.1536000000000002E-2</v>
       </c>
       <c r="M26" s="17"/>
@@ -5308,43 +4816,30 @@
         <v>1000</v>
       </c>
       <c r="P26" s="17"/>
-      <c r="R26" s="42"/>
-      <c r="S26" s="42"/>
-      <c r="T26" s="42"/>
-      <c r="U26" s="42"/>
-      <c r="V26" s="42"/>
-      <c r="W26" s="42"/>
-      <c r="X26" s="42"/>
-      <c r="Y26" s="42"/>
-      <c r="Z26" s="42"/>
-      <c r="AA26" s="42"/>
-      <c r="AB26" s="42"/>
-      <c r="AC26" s="42"/>
-      <c r="AD26" s="42"/>
     </row>
     <row r="27" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B27" s="17" t="str">
         <f>SEC_Processes!D25</f>
-        <v>RHTDBLCHXE2</v>
+        <v>RCTMBAC</v>
       </c>
       <c r="C27" s="17" t="str">
         <f>SEC_Processes!E25</f>
-        <v>Residential heating technology detached buildings- heat pump - existing 2</v>
+        <v>Residential cooling technology multistorey buildings- AC</v>
       </c>
       <c r="D27" s="17" t="str">
-        <f>SEC_Comm!D26</f>
+        <f>SEC_Comm!D21</f>
         <v>RESELCH</v>
       </c>
       <c r="E27" s="17" t="str">
-        <f>SEC_Comm!D31</f>
-        <v>RESHBDB</v>
+        <f>SEC_Comm!D29</f>
+        <v>RESCMB</v>
       </c>
       <c r="F27" s="17"/>
       <c r="G27" s="17"/>
       <c r="H27" s="17"/>
       <c r="I27" s="17"/>
       <c r="J27" s="17">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="K27" s="17">
         <v>20</v>
@@ -5361,889 +4856,715 @@
         <v>1000</v>
       </c>
       <c r="P27" s="17"/>
-      <c r="R27" s="42"/>
-      <c r="S27" s="42"/>
-      <c r="T27" s="42"/>
-      <c r="U27" s="42"/>
-      <c r="V27" s="42"/>
-      <c r="W27" s="42"/>
-      <c r="X27" s="42"/>
-      <c r="Y27" s="42"/>
-      <c r="Z27" s="42"/>
-      <c r="AA27" s="42"/>
-      <c r="AB27" s="42"/>
-      <c r="AC27" s="42"/>
-      <c r="AD27" s="42"/>
     </row>
     <row r="28" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B28" s="17" t="str">
         <f>SEC_Processes!D26</f>
-        <v>RHTMBLCHXE2</v>
+        <v>CHTLCHXE2</v>
       </c>
       <c r="C28" s="17" t="str">
         <f>SEC_Processes!E26</f>
-        <v>Residential heating technology multistorey buildings- heat pump - existing 2</v>
+        <v>Commercial heating technology - heat pump - existing 2</v>
       </c>
       <c r="D28" s="17" t="str">
-        <f>SEC_Comm!D26</f>
-        <v>RESELCH</v>
+        <f>SEC_Comm!D30</f>
+        <v>COMELCH</v>
       </c>
       <c r="E28" s="17" t="str">
-        <f>SEC_Comm!D32</f>
-        <v>RESHBMB</v>
+        <f>SEC_Comm!D33</f>
+        <v>COMHB</v>
       </c>
       <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
       <c r="I28" s="17"/>
-      <c r="J28" s="17">
+      <c r="J28" s="38">
+        <f>J23</f>
         <v>3</v>
       </c>
-      <c r="K28" s="17">
+      <c r="K28" s="38">
         <v>20</v>
       </c>
       <c r="L28" s="17">
         <f t="shared" si="0"/>
         <v>3.1536000000000002E-2</v>
       </c>
-      <c r="M28" s="17"/>
+      <c r="M28" s="38"/>
       <c r="N28" s="17">
         <v>0.2</v>
       </c>
       <c r="O28" s="17">
-        <v>1000</v>
-      </c>
-      <c r="P28" s="17"/>
-      <c r="R28" s="42"/>
-      <c r="S28" s="42"/>
-      <c r="T28" s="42"/>
-      <c r="U28" s="42"/>
-      <c r="V28" s="42"/>
-      <c r="W28" s="42"/>
-      <c r="X28" s="42"/>
-      <c r="Y28" s="42"/>
-      <c r="Z28" s="42"/>
-      <c r="AA28" s="42"/>
-      <c r="AB28" s="42"/>
-      <c r="AC28" s="42"/>
-      <c r="AD28" s="42"/>
+        <v>2200</v>
+      </c>
+      <c r="P28" s="38"/>
     </row>
     <row r="29" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B29" s="17" t="str">
         <f>SEC_Processes!D27</f>
-        <v>RHTDBDHE1</v>
+        <v>CHTHCEBE1</v>
       </c>
       <c r="C29" s="17" t="str">
         <f>SEC_Processes!E27</f>
-        <v>Residential heating technology detached buildings-district heat-existing 1</v>
+        <v>Commercial heating technology - district heat- existing 1</v>
       </c>
       <c r="D29" s="17" t="str">
-        <f>SEC_Comm!D30</f>
-        <v>RESDH</v>
-      </c>
-      <c r="E29" s="17" t="str">
-        <f>SEC_Comm!D28</f>
-        <v>RESHDBX</v>
-      </c>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17">
-        <v>0.98</v>
-      </c>
-      <c r="K29" s="17">
+        <f>SEC_Comm!D32</f>
+        <v>COMDH</v>
+      </c>
+      <c r="E29" s="38" t="str">
+        <f>SEC_Comm!D31</f>
+        <v>COMHX</v>
+      </c>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38">
+        <f>J25</f>
+        <v>1</v>
+      </c>
+      <c r="K29" s="38">
         <v>20</v>
       </c>
       <c r="L29" s="17">
         <f t="shared" si="0"/>
         <v>3.1536000000000002E-2</v>
       </c>
-      <c r="M29" s="17"/>
+      <c r="M29" s="38"/>
       <c r="N29" s="17">
         <v>0.2</v>
       </c>
       <c r="O29" s="17">
         <v>1000</v>
       </c>
-      <c r="P29" s="17"/>
+      <c r="P29" s="38"/>
     </row>
     <row r="30" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B30" s="17" t="str">
         <f>SEC_Processes!D28</f>
-        <v>RHTMBDHE1</v>
+        <v>CCTRBAC</v>
       </c>
       <c r="C30" s="17" t="str">
         <f>SEC_Processes!E28</f>
-        <v>Residential heating technology multistorey buildings-district heat-existing 1</v>
+        <v>Commercial cooling technology - AC</v>
       </c>
       <c r="D30" s="17" t="str">
         <f>SEC_Comm!D30</f>
-        <v>RESDH</v>
-      </c>
-      <c r="E30" s="17" t="str">
-        <f>SEC_Comm!D29</f>
-        <v>RESHMBX</v>
-      </c>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
+        <v>COMELCH</v>
+      </c>
+      <c r="E30" s="38" t="str">
+        <f>SEC_Comm!D34</f>
+        <v>COMC</v>
+      </c>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
       <c r="J30" s="17">
-        <v>1</v>
-      </c>
-      <c r="K30" s="17">
+        <f>J26</f>
+        <v>3.2</v>
+      </c>
+      <c r="K30" s="38">
         <v>20</v>
       </c>
       <c r="L30" s="17">
         <f t="shared" si="0"/>
         <v>3.1536000000000002E-2</v>
       </c>
-      <c r="M30" s="17"/>
+      <c r="M30" s="38"/>
       <c r="N30" s="17">
         <v>0.2</v>
       </c>
       <c r="O30" s="17">
+        <v>1700</v>
+      </c>
+      <c r="P30" s="38"/>
+    </row>
+    <row r="31" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B31" s="38" t="str">
+        <f>SEC_Processes!D29</f>
+        <v>IPPT</v>
+      </c>
+      <c r="C31" s="38" t="str">
+        <f>SEC_Processes!E29</f>
+        <v>Industry Pulp and Paper Technology</v>
+      </c>
+      <c r="D31" s="38" t="str">
+        <f>SEC_Comm!D35</f>
+        <v>INDELC</v>
+      </c>
+      <c r="E31" s="38" t="str">
+        <f>SEC_Comm!D36</f>
+        <v>INDPP</v>
+      </c>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38">
+        <v>10</v>
+      </c>
+      <c r="K31" s="38">
+        <v>20</v>
+      </c>
+      <c r="L31" s="38">
+        <v>1</v>
+      </c>
+      <c r="M31" s="38"/>
+      <c r="N31" s="38">
+        <v>1</v>
+      </c>
+      <c r="O31" s="38">
         <v>1000</v>
       </c>
-      <c r="P30" s="17"/>
-    </row>
-    <row r="31" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B31" s="17" t="str">
-        <f>SEC_Processes!D29</f>
-        <v>RCTDBAC</v>
-      </c>
-      <c r="C31" s="17" t="str">
-        <f>SEC_Processes!E29</f>
-        <v>Residential cooling technology detached buildings- AC</v>
-      </c>
-      <c r="D31" s="17" t="str">
-        <f>SEC_Comm!D26</f>
-        <v>RESELCH</v>
-      </c>
-      <c r="E31" s="17" t="str">
-        <f>SEC_Comm!D33</f>
-        <v>RESCDB</v>
-      </c>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17">
-        <v>3.2</v>
-      </c>
-      <c r="K31" s="17">
-        <v>20</v>
-      </c>
-      <c r="L31" s="17">
-        <f t="shared" si="0"/>
-        <v>3.1536000000000002E-2</v>
-      </c>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17">
-        <v>0.2</v>
-      </c>
-      <c r="O31" s="17">
+      <c r="P31" s="38"/>
+    </row>
+    <row r="32" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B32" s="52" t="str">
+        <f>SEC_Processes!D30</f>
+        <v>FT-RESNGA</v>
+      </c>
+      <c r="C32" s="52" t="str">
+        <f>SEC_Processes!E30</f>
+        <v>Fuel Technology Natural Gas RES</v>
+      </c>
+      <c r="D32" s="52" t="s">
+        <v>201</v>
+      </c>
+      <c r="E32" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="52">
+        <v>1</v>
+      </c>
+      <c r="K32" s="52">
+        <v>50</v>
+      </c>
+      <c r="L32" s="52"/>
+      <c r="M32" s="52"/>
+      <c r="N32" s="52"/>
+      <c r="O32" s="52"/>
+      <c r="P32" s="52">
         <v>1000</v>
       </c>
-      <c r="P31" s="17"/>
-    </row>
-    <row r="32" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B32" s="17" t="str">
-        <f>SEC_Processes!D30</f>
-        <v>RCTMBAC</v>
-      </c>
-      <c r="C32" s="17" t="str">
-        <f>SEC_Processes!E30</f>
-        <v>Residential cooling technology multistorey buildings- AC</v>
-      </c>
-      <c r="D32" s="17" t="str">
-        <f>SEC_Comm!D26</f>
-        <v>RESELCH</v>
-      </c>
-      <c r="E32" s="17" t="str">
-        <f>SEC_Comm!D34</f>
-        <v>RESCMB</v>
-      </c>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17">
-        <v>3.3</v>
-      </c>
-      <c r="K32" s="17">
-        <v>20</v>
-      </c>
-      <c r="L32" s="17">
-        <f t="shared" si="0"/>
-        <v>3.1536000000000002E-2</v>
-      </c>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17">
-        <v>0.2</v>
-      </c>
-      <c r="O32" s="17">
-        <v>1000</v>
-      </c>
-      <c r="P32" s="17"/>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B33" s="17" t="str">
+      <c r="B33" s="38" t="str">
         <f>SEC_Processes!D31</f>
-        <v>CHTLCHXE2</v>
-      </c>
-      <c r="C33" s="17" t="str">
+        <v>FT-RESWPE</v>
+      </c>
+      <c r="C33" s="38" t="str">
         <f>SEC_Processes!E31</f>
-        <v>Commercial heating technology - heat pump - existing 2</v>
-      </c>
-      <c r="D33" s="17" t="str">
-        <f>SEC_Comm!D35</f>
-        <v>COMELCH</v>
-      </c>
-      <c r="E33" s="17" t="str">
-        <f>SEC_Comm!D39</f>
-        <v>COMHB</v>
-      </c>
-      <c r="F33" s="17"/>
+        <v>Fuel Technology Wood Pellets RES</v>
+      </c>
+      <c r="D33" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="E33" s="38" t="str">
+        <f>SEC_Comm!D20</f>
+        <v>RESWPE</v>
+      </c>
+      <c r="F33" s="38"/>
       <c r="G33" s="38"/>
       <c r="H33" s="38"/>
-      <c r="I33" s="17"/>
+      <c r="I33" s="38"/>
       <c r="J33" s="38">
-        <f>J28</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K33" s="38">
-        <v>20</v>
-      </c>
-      <c r="L33" s="17">
-        <f t="shared" si="0"/>
-        <v>3.1536000000000002E-2</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="L33" s="38"/>
       <c r="M33" s="38"/>
-      <c r="N33" s="17">
-        <v>0.2</v>
-      </c>
-      <c r="O33" s="17">
+      <c r="N33" s="38"/>
+      <c r="O33" s="38"/>
+      <c r="P33" s="38">
         <v>1000</v>
       </c>
-      <c r="P33" s="38"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B34" s="17" t="str">
         <f>SEC_Processes!D32</f>
-        <v>CHTHCEBE1</v>
+        <v>FT-RESELCH</v>
       </c>
       <c r="C34" s="17" t="str">
         <f>SEC_Processes!E32</f>
-        <v>Commercial heating technology - district heat- existing 1</v>
-      </c>
-      <c r="D34" s="17" t="str">
-        <f>SEC_Comm!D38</f>
-        <v>COMDH</v>
-      </c>
-      <c r="E34" s="38" t="str">
-        <f>SEC_Comm!D37</f>
-        <v>COMHX</v>
-      </c>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="38">
-        <f>J30</f>
+        <v>Fuel Technology for Heating Electricity RES</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="E34" s="17" t="str">
+        <f>SEC_Comm!D21</f>
+        <v>RESELCH</v>
+      </c>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17">
         <v>1</v>
       </c>
-      <c r="K34" s="38">
-        <v>20</v>
-      </c>
-      <c r="L34" s="17">
-        <f t="shared" si="0"/>
-        <v>3.1536000000000002E-2</v>
-      </c>
-      <c r="M34" s="38"/>
-      <c r="N34" s="17">
-        <v>0.2</v>
-      </c>
-      <c r="O34" s="17">
+      <c r="K34" s="17">
+        <v>50</v>
+      </c>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17">
         <v>1000</v>
       </c>
-      <c r="P34" s="38"/>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B35" s="17" t="str">
         <f>SEC_Processes!D33</f>
-        <v>CCTRBAC</v>
+        <v>FT-RESELCA</v>
       </c>
       <c r="C35" s="17" t="str">
         <f>SEC_Processes!E33</f>
-        <v>Commercial cooling technology Restaurants buildings- AC</v>
-      </c>
-      <c r="D35" s="17" t="str">
-        <f>SEC_Comm!D35</f>
-        <v>COMELCH</v>
-      </c>
-      <c r="E35" s="38" t="str">
-        <f>SEC_Comm!D40</f>
-        <v>COMC</v>
-      </c>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="38"/>
+        <v>Fuel Technology for Appliacnes Electricity RES</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="E35" s="17" t="str">
+        <f>SEC_Comm!D22</f>
+        <v>RESELCA</v>
+      </c>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
       <c r="J35" s="17">
-        <f>J31</f>
-        <v>3.2</v>
-      </c>
-      <c r="K35" s="38">
-        <v>20</v>
-      </c>
-      <c r="L35" s="17">
-        <f t="shared" si="0"/>
-        <v>3.1536000000000002E-2</v>
-      </c>
-      <c r="M35" s="38"/>
-      <c r="N35" s="17">
-        <v>0.2</v>
-      </c>
-      <c r="O35" s="17">
-        <v>1700</v>
-      </c>
-      <c r="P35" s="38"/>
+        <v>1</v>
+      </c>
+      <c r="K35" s="17">
+        <v>50</v>
+      </c>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17">
+        <v>1000</v>
+      </c>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B36" s="17" t="str">
         <f>SEC_Processes!D34</f>
-        <v>CCTHBAC</v>
+        <v>FT-RESHE</v>
       </c>
       <c r="C36" s="17" t="str">
         <f>SEC_Processes!E34</f>
-        <v>Commercial cooling technology Health, education- AC</v>
-      </c>
-      <c r="D36" s="17" t="str">
+        <v>Fuel Technology District Heat RES</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="E36" s="17" t="str">
+        <f>SEC_Comm!D25</f>
+        <v>RESDH</v>
+      </c>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17">
+        <v>1</v>
+      </c>
+      <c r="K36" s="17">
+        <v>50</v>
+      </c>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B37" s="17" t="str">
+        <f>SEC_Processes!D35</f>
+        <v>FT-COMELCH</v>
+      </c>
+      <c r="C37" s="17" t="str">
+        <f>SEC_Processes!E35</f>
+        <v>Fuel Technology for Heating Electricity COM</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="E37" s="17" t="str">
+        <f>SEC_Comm!D30</f>
+        <v>COMELCH</v>
+      </c>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17">
+        <v>1</v>
+      </c>
+      <c r="K37" s="17">
+        <v>50</v>
+      </c>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B38" s="17" t="str">
+        <f>SEC_Processes!D36</f>
+        <v>FT-COMHE</v>
+      </c>
+      <c r="C38" s="17" t="str">
+        <f>SEC_Processes!E36</f>
+        <v>Fuel Technology District Heat COM</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="E38" s="17" t="str">
+        <f>SEC_Comm!D32</f>
+        <v>COMDH</v>
+      </c>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17">
+        <v>1</v>
+      </c>
+      <c r="K38" s="17">
+        <v>50</v>
+      </c>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B39" s="17" t="str">
+        <f>SEC_Processes!D37</f>
+        <v>FT-INDELC</v>
+      </c>
+      <c r="C39" s="17" t="str">
+        <f>SEC_Processes!E37</f>
+        <v>Fuel Technology for Electricity IND</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="E39" s="17" t="str">
         <f>SEC_Comm!D35</f>
-        <v>COMELCH</v>
-      </c>
-      <c r="E36" s="38" t="str">
-        <f>SEC_Comm!D40</f>
-        <v>COMC</v>
-      </c>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38"/>
-      <c r="J36" s="17">
-        <f>J32</f>
-        <v>3.3</v>
-      </c>
-      <c r="K36" s="38">
-        <v>20</v>
-      </c>
-      <c r="L36" s="17">
-        <f t="shared" si="0"/>
-        <v>3.1536000000000002E-2</v>
-      </c>
-      <c r="M36" s="38"/>
-      <c r="N36" s="17">
-        <v>0.2</v>
-      </c>
-      <c r="O36" s="17">
-        <v>1700</v>
-      </c>
-      <c r="P36" s="38"/>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B37" s="38" t="str">
-        <f>SEC_Processes!D35</f>
-        <v>IGLT</v>
-      </c>
-      <c r="C37" s="38" t="str">
-        <f>SEC_Processes!E35</f>
-        <v>Industry Glass Technology</v>
-      </c>
-      <c r="D37" s="38" t="str">
-        <f>SEC_Comm!D41</f>
         <v>INDELC</v>
       </c>
-      <c r="E37" s="38" t="str">
-        <f>SEC_Comm!D42</f>
-        <v>INDGL</v>
-      </c>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="38">
-        <v>10</v>
-      </c>
-      <c r="K37" s="38">
-        <v>20</v>
-      </c>
-      <c r="L37" s="17">
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17">
         <v>1</v>
       </c>
-      <c r="M37" s="38"/>
-      <c r="N37" s="38">
-        <v>1</v>
-      </c>
-      <c r="O37" s="38">
+      <c r="K39" s="17">
+        <v>50</v>
+      </c>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17">
         <v>1000</v>
       </c>
-      <c r="P37" s="38"/>
-    </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B38" s="38"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="38">
-        <v>0.2</v>
-      </c>
-      <c r="J38" s="38"/>
-      <c r="K38" s="38"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="38"/>
-      <c r="N38" s="38"/>
-      <c r="O38" s="38"/>
-      <c r="P38" s="38"/>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B39" s="38" t="str">
-        <f>SEC_Processes!D36</f>
-        <v>IPPT</v>
-      </c>
-      <c r="C39" s="38" t="str">
-        <f>SEC_Processes!E36</f>
-        <v>Industry Pulp and Paper Technology</v>
-      </c>
-      <c r="D39" s="38" t="str">
-        <f>SEC_Comm!D41</f>
-        <v>INDELC</v>
-      </c>
-      <c r="E39" s="38" t="str">
-        <f>SEC_Comm!D43</f>
-        <v>INDPP</v>
-      </c>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="38"/>
-      <c r="J39" s="38">
-        <v>10</v>
-      </c>
-      <c r="K39" s="38">
-        <v>20</v>
-      </c>
-      <c r="L39" s="38">
-        <v>1</v>
-      </c>
-      <c r="M39" s="38"/>
-      <c r="N39" s="38">
-        <v>1</v>
-      </c>
-      <c r="O39" s="38">
-        <v>1000</v>
-      </c>
-      <c r="P39" s="38"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B40" s="38"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="38">
-        <v>0.4</v>
-      </c>
-      <c r="J40" s="38"/>
-      <c r="K40" s="38"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="38"/>
-      <c r="N40" s="38"/>
-      <c r="O40" s="38"/>
-      <c r="P40" s="38"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B41" s="52" t="str">
-        <f>SEC_Processes!D37</f>
-        <v>FT-RESNGA</v>
-      </c>
-      <c r="C41" s="52" t="str">
-        <f>SEC_Processes!E37</f>
-        <v>Fuel Technology Natural Gas RES</v>
-      </c>
-      <c r="D41" s="52" t="s">
-        <v>238</v>
-      </c>
-      <c r="E41" s="52" t="s">
-        <v>64</v>
-      </c>
-      <c r="F41" s="52"/>
-      <c r="G41" s="52"/>
-      <c r="H41" s="52"/>
-      <c r="I41" s="52"/>
-      <c r="J41" s="52">
-        <v>1</v>
-      </c>
-      <c r="K41" s="52">
-        <v>50</v>
-      </c>
-      <c r="L41" s="52"/>
-      <c r="M41" s="52"/>
-      <c r="N41" s="52"/>
-      <c r="O41" s="52"/>
-      <c r="P41" s="52">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B42" s="38" t="str">
-        <f>SEC_Processes!D38</f>
-        <v>FT-RESWPE</v>
-      </c>
-      <c r="C42" s="38" t="str">
-        <f>SEC_Processes!E38</f>
-        <v>Fuel Technology Wood Pellets RES</v>
-      </c>
-      <c r="D42" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="E42" s="38" t="str">
-        <f>SEC_Comm!D25</f>
-        <v>RESWPE</v>
-      </c>
-      <c r="F42" s="38"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="38"/>
-      <c r="J42" s="38">
-        <v>1</v>
-      </c>
-      <c r="K42" s="38">
-        <v>50</v>
-      </c>
-      <c r="L42" s="38"/>
-      <c r="M42" s="38"/>
-      <c r="N42" s="38"/>
-      <c r="O42" s="38"/>
-      <c r="P42" s="38">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B43" s="17" t="str">
-        <f>SEC_Processes!D39</f>
-        <v>FT-RESELCH</v>
-      </c>
-      <c r="C43" s="17" t="str">
-        <f>SEC_Processes!E39</f>
-        <v>Fuel Technology for Heating Electricity RES</v>
-      </c>
-      <c r="D43" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="E43" s="17" t="str">
-        <f>SEC_Comm!D26</f>
-        <v>RESELCH</v>
-      </c>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17">
-        <v>1</v>
-      </c>
-      <c r="K43" s="17">
-        <v>50</v>
-      </c>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B44" s="17" t="str">
-        <f>SEC_Processes!D40</f>
-        <v>FT-RESELCA</v>
-      </c>
-      <c r="C44" s="17" t="str">
-        <f>SEC_Processes!E40</f>
-        <v>Fuel Technology for Appliacnes Electricity RES</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="E44" s="17" t="str">
-        <f>SEC_Comm!D27</f>
-        <v>RESELCA</v>
-      </c>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17">
-        <v>1</v>
-      </c>
-      <c r="K44" s="17">
-        <v>50</v>
-      </c>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17">
-        <v>1000</v>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+    </row>
+    <row r="42" spans="2:16" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B42" s="31" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B45" s="17" t="str">
-        <f>SEC_Processes!D41</f>
-        <v>FT-RESHE</v>
-      </c>
-      <c r="C45" s="17" t="str">
-        <f>SEC_Processes!E41</f>
-        <v>Fuel Technology District Heat RES</v>
-      </c>
-      <c r="D45" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="E45" s="17" t="str">
-        <f>SEC_Comm!D30</f>
-        <v>RESDH</v>
-      </c>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17">
-        <v>1</v>
-      </c>
-      <c r="K45" s="17">
-        <v>50</v>
-      </c>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17">
-        <v>1000</v>
+      <c r="B45" s="23" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B46" s="17" t="str">
-        <f>SEC_Processes!D42</f>
-        <v>FT-COMELCH</v>
-      </c>
-      <c r="C46" s="17" t="str">
-        <f>SEC_Processes!E42</f>
-        <v>Fuel Technology for Heating Electricity COM</v>
-      </c>
-      <c r="D46" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="E46" s="17" t="str">
-        <f>SEC_Comm!D35</f>
-        <v>COMELCH</v>
-      </c>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="17">
-        <v>1</v>
-      </c>
-      <c r="K46" s="17">
-        <v>50</v>
-      </c>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B47" s="17" t="str">
-        <f>SEC_Processes!D43</f>
-        <v>FT-COMELCA</v>
-      </c>
-      <c r="C47" s="17" t="str">
-        <f>SEC_Processes!E43</f>
-        <v>Fuel Technology for Appliances Electricity COM</v>
-      </c>
-      <c r="D47" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="E47" s="17" t="str">
-        <f>SEC_Comm!D36</f>
-        <v>COMELCA</v>
-      </c>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17">
-        <v>1</v>
-      </c>
-      <c r="K47" s="17">
-        <v>50</v>
-      </c>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17">
-        <v>1000</v>
-      </c>
+      <c r="B46" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="E46" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="F46" s="51"/>
+    </row>
+    <row r="47" spans="2:16" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F47" s="37"/>
+      <c r="H47" s="65"/>
+      <c r="I47" s="65"/>
+      <c r="J47" s="65"/>
+      <c r="K47" s="65"/>
+      <c r="L47" s="65"/>
+      <c r="M47" s="65"/>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B48" s="17" t="str">
-        <f>SEC_Processes!D44</f>
-        <v>FT-COMHE</v>
-      </c>
-      <c r="C48" s="17" t="str">
-        <f>SEC_Processes!E44</f>
-        <v>Fuel Technology District Heat COM</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="E48" s="17" t="str">
-        <f>SEC_Comm!D38</f>
-        <v>COMDH</v>
-      </c>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17">
-        <v>1</v>
-      </c>
-      <c r="K48" s="17">
-        <v>50</v>
-      </c>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B49" s="17" t="str">
-        <f>SEC_Processes!D45</f>
-        <v>FT-INDELC</v>
-      </c>
-      <c r="C49" s="17" t="str">
-        <f>SEC_Processes!E45</f>
-        <v>Fuel Technology for Electricity IND</v>
-      </c>
-      <c r="D49" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="E49" s="17" t="str">
-        <f>SEC_Comm!D41</f>
-        <v>INDELC</v>
-      </c>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="17">
-        <v>1</v>
-      </c>
-      <c r="K49" s="17">
-        <v>50</v>
-      </c>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="17">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="E50" s="39"/>
-      <c r="F50" s="39"/>
-    </row>
-    <row r="52" spans="2:16" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B52" s="31" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B55" s="23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B56" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C56" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="D56" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="E56" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="F56" s="51"/>
-    </row>
-    <row r="57" spans="2:16" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C57" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D57" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E57" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="F57" s="37"/>
-      <c r="H57" s="65"/>
-      <c r="I57" s="65"/>
-      <c r="J57" s="65"/>
-      <c r="K57" s="65"/>
-      <c r="L57" s="65"/>
-      <c r="M57" s="65"/>
-    </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B58" s="17" t="str">
         <f>SEC_Comm!D10</f>
         <v>RHD</v>
       </c>
-      <c r="C58" s="17" t="str">
+      <c r="C48" s="17" t="str">
         <f>SEC_Comm!E10</f>
         <v>Residential heating Demand - Detached</v>
       </c>
-      <c r="D58" s="17" t="str">
+      <c r="D48" s="17" t="str">
         <f>SEC_Comm!F10</f>
         <v>Mm2</v>
       </c>
-      <c r="E58" s="17">
+      <c r="E48" s="17">
         <v>20</v>
       </c>
-      <c r="F58" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="H48" s="65"/>
+      <c r="I48" s="41"/>
+      <c r="J48" s="41"/>
+      <c r="K48" s="41"/>
+      <c r="L48" s="41"/>
+      <c r="M48" s="65"/>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B49" s="17" t="str">
+        <f>SEC_Comm!D11</f>
+        <v>RCD</v>
+      </c>
+      <c r="C49" s="17" t="str">
+        <f>SEC_Comm!E11</f>
+        <v>Residential cooling Demand - Detached</v>
+      </c>
+      <c r="D49" s="17" t="str">
+        <f>SEC_Comm!F11</f>
+        <v>Mm2</v>
+      </c>
+      <c r="E49" s="17">
+        <v>20</v>
+      </c>
+      <c r="F49" s="17"/>
+      <c r="H49" s="65"/>
+      <c r="I49" s="41"/>
+      <c r="J49" s="41"/>
+      <c r="K49" s="41"/>
+      <c r="L49" s="41"/>
+      <c r="M49" s="65"/>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B50" s="17" t="str">
+        <f>SEC_Comm!D12</f>
+        <v>RED</v>
+      </c>
+      <c r="C50" s="17" t="str">
+        <f>SEC_Comm!E12</f>
+        <v>Residential electricity Demand - Detached</v>
+      </c>
+      <c r="D50" s="17" t="str">
+        <f>SEC_Comm!F12</f>
+        <v>Mm2</v>
+      </c>
+      <c r="E50" s="17">
+        <v>20</v>
+      </c>
+      <c r="F50" s="17"/>
+      <c r="H50" s="65"/>
+      <c r="I50" s="41"/>
+      <c r="J50" s="41"/>
+      <c r="K50" s="41"/>
+      <c r="L50" s="41"/>
+      <c r="M50" s="65"/>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B51" s="17" t="str">
+        <f>SEC_Comm!D13</f>
+        <v>RHM</v>
+      </c>
+      <c r="C51" s="17" t="str">
+        <f>SEC_Comm!E13</f>
+        <v>Residential heating Demand - Multistorey</v>
+      </c>
+      <c r="D51" s="17" t="str">
+        <f>SEC_Comm!F13</f>
+        <v>Mm2</v>
+      </c>
+      <c r="E51" s="17">
+        <v>20</v>
+      </c>
+      <c r="F51" s="17"/>
+      <c r="H51" s="65"/>
+      <c r="I51" s="41"/>
+      <c r="J51" s="41"/>
+      <c r="K51" s="41"/>
+      <c r="L51" s="41"/>
+      <c r="M51" s="65"/>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B52" s="17" t="str">
+        <f>SEC_Comm!D14</f>
+        <v>RCM</v>
+      </c>
+      <c r="C52" s="17" t="str">
+        <f>SEC_Comm!E14</f>
+        <v>Residential cooling Demand - Multistorey</v>
+      </c>
+      <c r="D52" s="17" t="str">
+        <f>SEC_Comm!F14</f>
+        <v>Mm2</v>
+      </c>
+      <c r="E52" s="17">
+        <v>20</v>
+      </c>
+      <c r="F52" s="17"/>
+      <c r="H52" s="65"/>
+      <c r="I52" s="41"/>
+      <c r="J52" s="41"/>
+      <c r="K52" s="41"/>
+      <c r="L52" s="41"/>
+      <c r="M52" s="65"/>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B53" s="17" t="str">
+        <f>SEC_Comm!D15</f>
+        <v>REM</v>
+      </c>
+      <c r="C53" s="17" t="str">
+        <f>SEC_Comm!E15</f>
+        <v>Residential electricity Demand - Multistorey</v>
+      </c>
+      <c r="D53" s="17" t="str">
+        <f>SEC_Comm!F15</f>
+        <v>Mm2</v>
+      </c>
+      <c r="E53" s="17">
+        <v>20</v>
+      </c>
+      <c r="F53" s="17"/>
+      <c r="H53" s="65"/>
+      <c r="I53" s="41"/>
+      <c r="J53" s="41"/>
+      <c r="K53" s="41"/>
+      <c r="L53" s="41"/>
+      <c r="M53" s="65"/>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B54" s="17" t="str">
+        <f>SEC_Comm!D16</f>
+        <v>CH</v>
+      </c>
+      <c r="C54" s="17" t="str">
+        <f>SEC_Comm!E16</f>
+        <v>Commercial heating Demand</v>
+      </c>
+      <c r="D54" s="17" t="str">
+        <f>SEC_Comm!F16</f>
+        <v>Mm2</v>
+      </c>
+      <c r="E54" s="17">
+        <v>5</v>
+      </c>
+      <c r="F54" s="17"/>
+      <c r="H54" s="65"/>
+      <c r="I54" s="41"/>
+      <c r="J54" s="41"/>
+      <c r="K54" s="41"/>
+      <c r="L54" s="41"/>
+      <c r="M54" s="65"/>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B55" s="17" t="str">
+        <f>SEC_Comm!D17</f>
+        <v>CC</v>
+      </c>
+      <c r="C55" s="17" t="str">
+        <f>SEC_Comm!E17</f>
+        <v>Commercial cooling Demand</v>
+      </c>
+      <c r="D55" s="17" t="str">
+        <f>SEC_Comm!F17</f>
+        <v>Mm2</v>
+      </c>
+      <c r="E55" s="17">
+        <v>5</v>
+      </c>
+      <c r="F55" s="17"/>
+      <c r="H55" s="65"/>
+      <c r="I55" s="41"/>
+      <c r="J55" s="41"/>
+      <c r="K55" s="41"/>
+      <c r="L55" s="41"/>
+      <c r="M55" s="65"/>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B56" s="17" t="str">
+        <f>SEC_Comm!D18</f>
+        <v>IPP</v>
+      </c>
+      <c r="C56" s="17" t="str">
+        <f>SEC_Comm!E18</f>
+        <v>Demand for pulp and paper</v>
+      </c>
+      <c r="D56" s="17" t="str">
+        <f>SEC_Comm!F18</f>
+        <v>kt</v>
+      </c>
+      <c r="E56" s="17">
+        <v>5.2</v>
+      </c>
+      <c r="F56" s="17"/>
+      <c r="H56" s="65"/>
+      <c r="I56" s="41"/>
+      <c r="J56" s="41"/>
+      <c r="K56" s="41"/>
+      <c r="L56" s="41"/>
+      <c r="M56" s="65"/>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H57" s="65"/>
+      <c r="I57" s="41"/>
+      <c r="J57" s="41"/>
+      <c r="K57" s="41"/>
+      <c r="L57" s="41"/>
+      <c r="M57" s="65"/>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.2">
       <c r="H58" s="65"/>
       <c r="I58" s="41"/>
       <c r="J58" s="41"/>
@@ -6251,23 +5572,7 @@
       <c r="L58" s="41"/>
       <c r="M58" s="65"/>
     </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B59" s="17" t="str">
-        <f>SEC_Comm!D11</f>
-        <v>RCD</v>
-      </c>
-      <c r="C59" s="17" t="str">
-        <f>SEC_Comm!E11</f>
-        <v>Residential cooling Demand - Detached</v>
-      </c>
-      <c r="D59" s="17" t="str">
-        <f>SEC_Comm!F11</f>
-        <v>Mm2</v>
-      </c>
-      <c r="E59" s="17">
-        <v>20</v>
-      </c>
-      <c r="F59" s="17"/>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.2">
       <c r="H59" s="65"/>
       <c r="I59" s="41"/>
       <c r="J59" s="41"/>
@@ -6275,23 +5580,7 @@
       <c r="L59" s="41"/>
       <c r="M59" s="65"/>
     </row>
-    <row r="60" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B60" s="17" t="str">
-        <f>SEC_Comm!D12</f>
-        <v>RED</v>
-      </c>
-      <c r="C60" s="17" t="str">
-        <f>SEC_Comm!E12</f>
-        <v>Residential electricity Demand - Detached</v>
-      </c>
-      <c r="D60" s="17" t="str">
-        <f>SEC_Comm!F12</f>
-        <v>Mm2</v>
-      </c>
-      <c r="E60" s="17">
-        <v>20</v>
-      </c>
-      <c r="F60" s="17"/>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.2">
       <c r="H60" s="65"/>
       <c r="I60" s="41"/>
       <c r="J60" s="41"/>
@@ -6299,23 +5588,7 @@
       <c r="L60" s="41"/>
       <c r="M60" s="65"/>
     </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B61" s="17" t="str">
-        <f>SEC_Comm!D13</f>
-        <v>RHM</v>
-      </c>
-      <c r="C61" s="17" t="str">
-        <f>SEC_Comm!E13</f>
-        <v>Residential heating Demand - Multistorey</v>
-      </c>
-      <c r="D61" s="17" t="str">
-        <f>SEC_Comm!F13</f>
-        <v>Mm2</v>
-      </c>
-      <c r="E61" s="17">
-        <v>10</v>
-      </c>
-      <c r="F61" s="17"/>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.2">
       <c r="H61" s="65"/>
       <c r="I61" s="41"/>
       <c r="J61" s="41"/>
@@ -6323,23 +5596,7 @@
       <c r="L61" s="41"/>
       <c r="M61" s="65"/>
     </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B62" s="17" t="str">
-        <f>SEC_Comm!D14</f>
-        <v>RCM</v>
-      </c>
-      <c r="C62" s="17" t="str">
-        <f>SEC_Comm!E14</f>
-        <v>Residential cooling Demand - Multistorey</v>
-      </c>
-      <c r="D62" s="17" t="str">
-        <f>SEC_Comm!F14</f>
-        <v>Mm2</v>
-      </c>
-      <c r="E62" s="17">
-        <v>10</v>
-      </c>
-      <c r="F62" s="17"/>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.2">
       <c r="H62" s="65"/>
       <c r="I62" s="41"/>
       <c r="J62" s="41"/>
@@ -6347,325 +5604,61 @@
       <c r="L62" s="41"/>
       <c r="M62" s="65"/>
     </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B63" s="17" t="str">
-        <f>SEC_Comm!D15</f>
-        <v>REM</v>
-      </c>
-      <c r="C63" s="17" t="str">
-        <f>SEC_Comm!E15</f>
-        <v>Residential electricity Demand - Multistorey</v>
-      </c>
-      <c r="D63" s="17" t="str">
-        <f>SEC_Comm!F15</f>
-        <v>Mm2</v>
-      </c>
-      <c r="E63" s="17">
-        <v>10</v>
-      </c>
-      <c r="F63" s="17"/>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.2">
       <c r="H63" s="65"/>
       <c r="I63" s="41"/>
       <c r="J63" s="41"/>
       <c r="K63" s="41"/>
-      <c r="L63" s="41"/>
+      <c r="L63" s="66"/>
       <c r="M63" s="65"/>
     </row>
-    <row r="64" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B64" s="17" t="str">
-        <f>SEC_Comm!D16</f>
-        <v>CHR</v>
-      </c>
-      <c r="C64" s="17" t="str">
-        <f>SEC_Comm!E16</f>
-        <v>Commercial heating Demand - Hotels, Cafes, Restaurants</v>
-      </c>
-      <c r="D64" s="17" t="str">
-        <f>SEC_Comm!F16</f>
-        <v>Mm2</v>
-      </c>
-      <c r="E64" s="17">
-        <v>5</v>
-      </c>
-      <c r="F64" s="17"/>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.2">
       <c r="H64" s="65"/>
       <c r="I64" s="41"/>
       <c r="J64" s="41"/>
       <c r="K64" s="41"/>
-      <c r="L64" s="41"/>
+      <c r="L64" s="66"/>
       <c r="M64" s="65"/>
     </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B65" s="17" t="str">
-        <f>SEC_Comm!D17</f>
-        <v>CCR</v>
-      </c>
-      <c r="C65" s="17" t="str">
-        <f>SEC_Comm!E17</f>
-        <v>Commercial cooling Demand - Hotels, Cafes, Restaurants</v>
-      </c>
-      <c r="D65" s="17" t="str">
-        <f>SEC_Comm!F17</f>
-        <v>Mm2</v>
-      </c>
-      <c r="E65" s="17">
-        <v>5</v>
-      </c>
-      <c r="F65" s="17"/>
+    <row r="65" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H65" s="65"/>
       <c r="I65" s="41"/>
       <c r="J65" s="41"/>
       <c r="K65" s="41"/>
-      <c r="L65" s="41"/>
+      <c r="L65" s="66"/>
       <c r="M65" s="65"/>
     </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B66" s="17" t="str">
-        <f>SEC_Comm!D18</f>
-        <v>CER</v>
-      </c>
-      <c r="C66" s="17" t="str">
-        <f>SEC_Comm!E18</f>
-        <v>Commercial electricity Demand - Hotels, Cafes, Restaurants</v>
-      </c>
-      <c r="D66" s="17" t="str">
-        <f>SEC_Comm!F18</f>
-        <v>Mm2</v>
-      </c>
-      <c r="E66" s="17">
-        <v>5</v>
-      </c>
-      <c r="F66" s="17"/>
+    <row r="66" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H66" s="65"/>
       <c r="I66" s="41"/>
       <c r="J66" s="41"/>
       <c r="K66" s="41"/>
-      <c r="L66" s="41"/>
+      <c r="L66" s="66"/>
       <c r="M66" s="65"/>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B67" s="17" t="str">
-        <f>SEC_Comm!D19</f>
-        <v>CHH</v>
-      </c>
-      <c r="C67" s="17" t="str">
-        <f>SEC_Comm!E19</f>
-        <v>Commercial heating Demand Health and Education</v>
-      </c>
-      <c r="D67" s="17" t="str">
-        <f>SEC_Comm!F19</f>
-        <v>Mm2</v>
-      </c>
-      <c r="E67" s="17">
-        <v>7</v>
-      </c>
-      <c r="F67" s="17"/>
+    <row r="67" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H67" s="65"/>
       <c r="I67" s="41"/>
       <c r="J67" s="41"/>
       <c r="K67" s="41"/>
-      <c r="L67" s="41"/>
+      <c r="L67" s="66"/>
       <c r="M67" s="65"/>
     </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B68" s="17" t="str">
-        <f>SEC_Comm!D20</f>
-        <v>CCH</v>
-      </c>
-      <c r="C68" s="17" t="str">
-        <f>SEC_Comm!E20</f>
-        <v>Commercial cooling Demand Health and Education</v>
-      </c>
-      <c r="D68" s="17" t="str">
-        <f>SEC_Comm!F20</f>
-        <v>Mm2</v>
-      </c>
-      <c r="E68" s="17">
-        <v>7</v>
-      </c>
-      <c r="F68" s="17"/>
+    <row r="68" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H68" s="65"/>
       <c r="I68" s="41"/>
       <c r="J68" s="41"/>
       <c r="K68" s="41"/>
-      <c r="L68" s="41"/>
+      <c r="L68" s="66"/>
       <c r="M68" s="65"/>
     </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B69" s="17" t="str">
-        <f>SEC_Comm!D21</f>
-        <v>CEH</v>
-      </c>
-      <c r="C69" s="17" t="str">
-        <f>SEC_Comm!E21</f>
-        <v>Commercial electricity Demand Health and Education</v>
-      </c>
-      <c r="D69" s="17" t="str">
-        <f>SEC_Comm!F21</f>
-        <v>Mm2</v>
-      </c>
-      <c r="E69" s="17">
-        <v>7</v>
-      </c>
-      <c r="F69" s="17"/>
+    <row r="69" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H69" s="65"/>
-      <c r="I69" s="41"/>
-      <c r="J69" s="41"/>
-      <c r="K69" s="41"/>
-      <c r="L69" s="41"/>
+      <c r="I69" s="65"/>
+      <c r="J69" s="65"/>
+      <c r="K69" s="65"/>
+      <c r="L69" s="65"/>
       <c r="M69" s="65"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B70" s="17" t="str">
-        <f>SEC_Comm!D22</f>
-        <v>IGL</v>
-      </c>
-      <c r="C70" s="17" t="str">
-        <f>SEC_Comm!E22</f>
-        <v>Demand for glass</v>
-      </c>
-      <c r="D70" s="17" t="str">
-        <f>SEC_Comm!F22</f>
-        <v>kt</v>
-      </c>
-      <c r="E70" s="17">
-        <v>19</v>
-      </c>
-      <c r="F70" s="17"/>
-      <c r="H70" s="65"/>
-      <c r="I70" s="41"/>
-      <c r="J70" s="41"/>
-      <c r="K70" s="41"/>
-      <c r="L70" s="41"/>
-      <c r="M70" s="65"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B71" s="17" t="str">
-        <f>SEC_Comm!D23</f>
-        <v>IPP</v>
-      </c>
-      <c r="C71" s="17" t="str">
-        <f>SEC_Comm!E23</f>
-        <v>Demand for pulp and paper</v>
-      </c>
-      <c r="D71" s="17" t="str">
-        <f>SEC_Comm!F23</f>
-        <v>kt</v>
-      </c>
-      <c r="E71" s="17">
-        <v>5.2</v>
-      </c>
-      <c r="F71" s="17"/>
-      <c r="H71" s="65"/>
-      <c r="I71" s="41"/>
-      <c r="J71" s="41"/>
-      <c r="K71" s="41"/>
-      <c r="L71" s="41"/>
-      <c r="M71" s="65"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="H72" s="65"/>
-      <c r="I72" s="41"/>
-      <c r="J72" s="41"/>
-      <c r="K72" s="41"/>
-      <c r="L72" s="41"/>
-      <c r="M72" s="65"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="H73" s="65"/>
-      <c r="I73" s="41"/>
-      <c r="J73" s="41"/>
-      <c r="K73" s="41"/>
-      <c r="L73" s="41"/>
-      <c r="M73" s="65"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="H74" s="65"/>
-      <c r="I74" s="41"/>
-      <c r="J74" s="41"/>
-      <c r="K74" s="41"/>
-      <c r="L74" s="41"/>
-      <c r="M74" s="65"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="H75" s="65"/>
-      <c r="I75" s="41"/>
-      <c r="J75" s="41"/>
-      <c r="K75" s="41"/>
-      <c r="L75" s="41"/>
-      <c r="M75" s="65"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="H76" s="65"/>
-      <c r="I76" s="41"/>
-      <c r="J76" s="41"/>
-      <c r="K76" s="41"/>
-      <c r="L76" s="41"/>
-      <c r="M76" s="65"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="H77" s="65"/>
-      <c r="I77" s="41"/>
-      <c r="J77" s="41"/>
-      <c r="K77" s="41"/>
-      <c r="L77" s="41"/>
-      <c r="M77" s="65"/>
-    </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="H78" s="65"/>
-      <c r="I78" s="41"/>
-      <c r="J78" s="41"/>
-      <c r="K78" s="41"/>
-      <c r="L78" s="66"/>
-      <c r="M78" s="65"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="H79" s="65"/>
-      <c r="I79" s="41"/>
-      <c r="J79" s="41"/>
-      <c r="K79" s="41"/>
-      <c r="L79" s="66"/>
-      <c r="M79" s="65"/>
-    </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="H80" s="65"/>
-      <c r="I80" s="41"/>
-      <c r="J80" s="41"/>
-      <c r="K80" s="41"/>
-      <c r="L80" s="66"/>
-      <c r="M80" s="65"/>
-    </row>
-    <row r="81" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H81" s="65"/>
-      <c r="I81" s="41"/>
-      <c r="J81" s="41"/>
-      <c r="K81" s="41"/>
-      <c r="L81" s="66"/>
-      <c r="M81" s="65"/>
-    </row>
-    <row r="82" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H82" s="65"/>
-      <c r="I82" s="41"/>
-      <c r="J82" s="41"/>
-      <c r="K82" s="41"/>
-      <c r="L82" s="66"/>
-      <c r="M82" s="65"/>
-    </row>
-    <row r="83" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H83" s="65"/>
-      <c r="I83" s="41"/>
-      <c r="J83" s="41"/>
-      <c r="K83" s="41"/>
-      <c r="L83" s="66"/>
-      <c r="M83" s="65"/>
-    </row>
-    <row r="84" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H84" s="65"/>
-      <c r="I84" s="65"/>
-      <c r="J84" s="65"/>
-      <c r="K84" s="65"/>
-      <c r="L84" s="65"/>
-      <c r="M84" s="65"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6690,7 +5683,7 @@
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" s="54" t="s">
-        <v>234</v>
+        <v>197</v>
       </c>
       <c r="C3" s="55"/>
       <c r="D3" s="55"/>
@@ -6709,7 +5702,7 @@
         <v>135</v>
       </c>
       <c r="C5" s="59" t="s">
-        <v>235</v>
+        <v>198</v>
       </c>
       <c r="D5" s="63"/>
     </row>

--- a/VT_SHR_RCI_V01.xlsx
+++ b/VT_SHR_RCI_V01.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stpet\Git models\TIMES-SHIRE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_Models\~g2v_TIMES-Shire\Course_Calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9555" yWindow="-15" windowWidth="9600" windowHeight="11640" tabRatio="901" activeTab="2"/>
+    <workbookView xWindow="9552" yWindow="-12" windowWidth="9600" windowHeight="11640" tabRatio="901" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -23,7 +23,7 @@
   <definedNames>
     <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -798,7 +798,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="215">
   <si>
     <t>CommName</t>
   </si>
@@ -1440,14 +1440,18 @@
   </si>
   <si>
     <t>Commercial cooling technology - AC</t>
+  </si>
+  <si>
+    <t>GIT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0;\-0.0;0"/>
+    <numFmt numFmtId="165" formatCode="\Te\x\t"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -1556,7 +1560,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1602,6 +1606,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="11"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1673,10 +1689,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1697,20 +1711,11 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1735,7 +1740,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1781,7 +1785,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="5" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1807,6 +1810,32 @@
     <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2316,701 +2345,701 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:S39"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="50.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="3" width="19.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="50.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" customWidth="1"/>
-    <col min="11" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" customWidth="1"/>
+    <col min="11" max="11" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="31"/>
-    </row>
-    <row r="4" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B4" s="24" t="s">
+      <c r="C1" s="24"/>
+    </row>
+    <row r="4" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="B4" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="24"/>
-    </row>
-    <row r="6" spans="2:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+      <c r="C4" s="17"/>
+    </row>
+    <row r="6" spans="2:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B6" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="5" t="s">
+      <c r="C6" s="58"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+    </row>
+    <row r="7" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="13" t="s">
+      <c r="C7" s="61"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+    </row>
+    <row r="8" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="J8" s="64" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="19" t="s">
+    <row r="9" spans="2:10" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="H9" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="19" t="s">
+      <c r="I9" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="J9" s="65" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="17" t="s">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17" t="s">
+      <c r="C10" s="67"/>
+      <c r="D10" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="67" t="s">
         <v>137</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17" t="s">
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67" t="s">
         <v>97</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17" t="s">
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67" t="s">
         <v>143</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="67" t="s">
         <v>144</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17" t="s">
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="67"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67" t="s">
         <v>141</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17" t="s">
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67" t="s">
         <v>142</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="67" t="s">
         <v>140</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17" t="s">
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="67"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67" t="s">
         <v>188</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="67" t="s">
         <v>145</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17" t="s">
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="67"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67" t="s">
         <v>209</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="67" t="s">
         <v>207</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17" t="s">
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="67"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67" t="s">
         <v>210</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="67" t="s">
         <v>208</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="33" t="s">
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="67"/>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="32" t="s">
+      <c r="E18" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="F18" s="32" t="s">
+      <c r="F18" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B19" s="17" t="s">
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="68"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="2" t="s">
+      <c r="C19" s="67"/>
+      <c r="D19" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="2" t="s">
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="67"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="E20" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="2" t="s">
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="67"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="67"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="F21" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17" t="s">
+      <c r="G21" s="67"/>
+      <c r="H21" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17" t="s">
+      <c r="I21" s="67"/>
+      <c r="J21" s="67" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="2" t="s">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="67"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="E22" s="67" t="s">
         <v>147</v>
       </c>
-      <c r="F22" s="17" t="s">
+      <c r="F22" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17" t="s">
+      <c r="G22" s="67"/>
+      <c r="H22" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17" t="s">
+      <c r="I22" s="67"/>
+      <c r="J22" s="67" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="2" t="s">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="67"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="70" t="s">
         <v>148</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="E23" s="67" t="s">
         <v>150</v>
       </c>
-      <c r="F23" s="17" t="s">
+      <c r="F23" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17" t="s">
+      <c r="G23" s="67"/>
+      <c r="H23" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="2" t="s">
+      <c r="I23" s="67"/>
+      <c r="J23" s="67"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="67"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="70" t="s">
         <v>149</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="E24" s="67" t="s">
         <v>151</v>
       </c>
-      <c r="F24" s="17" t="s">
+      <c r="F24" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17" t="s">
+      <c r="G24" s="67"/>
+      <c r="H24" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="2" t="s">
+      <c r="I24" s="67"/>
+      <c r="J24" s="67"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="67"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="E25" s="17" t="s">
+      <c r="E25" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="F25" s="17" t="s">
+      <c r="F25" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17" t="s">
+      <c r="G25" s="67"/>
+      <c r="H25" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="2" t="s">
+      <c r="I25" s="67"/>
+      <c r="J25" s="67"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="67"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="70" t="s">
         <v>152</v>
       </c>
-      <c r="E26" s="17" t="s">
+      <c r="E26" s="67" t="s">
         <v>154</v>
       </c>
-      <c r="F26" s="17" t="s">
+      <c r="F26" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17" t="s">
+      <c r="G26" s="67"/>
+      <c r="H26" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17" t="s">
+      <c r="I26" s="67"/>
+      <c r="J26" s="67"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="67"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="67" t="s">
         <v>153</v>
       </c>
-      <c r="E27" s="17" t="s">
+      <c r="E27" s="67" t="s">
         <v>155</v>
       </c>
-      <c r="F27" s="17" t="s">
+      <c r="F27" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17" t="s">
+      <c r="G27" s="67"/>
+      <c r="H27" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17" t="s">
+      <c r="I27" s="67"/>
+      <c r="J27" s="67"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="67"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="67" t="s">
         <v>156</v>
       </c>
-      <c r="E28" s="17" t="s">
+      <c r="E28" s="67" t="s">
         <v>157</v>
       </c>
-      <c r="F28" s="17" t="s">
+      <c r="F28" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17" t="s">
+      <c r="G28" s="67"/>
+      <c r="H28" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17" t="s">
+      <c r="I28" s="67"/>
+      <c r="J28" s="67"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="67"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="67" t="s">
         <v>187</v>
       </c>
-      <c r="E29" s="17" t="s">
+      <c r="E29" s="67" t="s">
         <v>158</v>
       </c>
-      <c r="F29" s="17" t="s">
+      <c r="F29" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17" t="s">
+      <c r="G29" s="67"/>
+      <c r="H29" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="2" t="s">
+      <c r="I29" s="67"/>
+      <c r="J29" s="67"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="67"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="E30" s="17" t="s">
+      <c r="E30" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="F30" s="17" t="s">
+      <c r="F30" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17" t="s">
+      <c r="G30" s="67"/>
+      <c r="H30" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17" t="s">
+      <c r="I30" s="67"/>
+      <c r="J30" s="67" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="2" t="s">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="67"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="E31" s="17" t="s">
+      <c r="E31" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="F31" s="17" t="s">
+      <c r="F31" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17" t="s">
+      <c r="G31" s="67"/>
+      <c r="H31" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="2" t="s">
+      <c r="I31" s="67"/>
+      <c r="J31" s="67"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B32" s="67"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="E32" s="17" t="s">
+      <c r="E32" s="67" t="s">
         <v>80</v>
       </c>
-      <c r="F32" s="17" t="s">
+      <c r="F32" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17" t="s">
+      <c r="G32" s="67"/>
+      <c r="H32" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="2" t="s">
+      <c r="I32" s="67"/>
+      <c r="J32" s="67"/>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B33" s="67"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="E33" s="17" t="s">
+      <c r="E33" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="F33" s="17" t="s">
+      <c r="F33" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17" t="s">
+      <c r="G33" s="67"/>
+      <c r="H33" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="2" t="s">
+      <c r="I33" s="67"/>
+      <c r="J33" s="67"/>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B34" s="67"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="70" t="s">
         <v>83</v>
       </c>
-      <c r="E34" s="17" t="s">
+      <c r="E34" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="F34" s="17" t="s">
+      <c r="F34" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17" t="s">
+      <c r="G34" s="67"/>
+      <c r="H34" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="L34" s="65"/>
-      <c r="M34" s="65"/>
-      <c r="N34" s="65"/>
-      <c r="O34" s="65"/>
-      <c r="P34" s="65"/>
-      <c r="Q34" s="65"/>
-      <c r="R34" s="65"/>
-      <c r="S34" s="65"/>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="2" t="s">
+      <c r="I34" s="67"/>
+      <c r="J34" s="67"/>
+      <c r="L34" s="56"/>
+      <c r="M34" s="56"/>
+      <c r="N34" s="56"/>
+      <c r="O34" s="56"/>
+      <c r="P34" s="56"/>
+      <c r="Q34" s="56"/>
+      <c r="R34" s="56"/>
+      <c r="S34" s="56"/>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B35" s="67"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="E35" s="17" t="s">
+      <c r="E35" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="F35" s="17" t="s">
+      <c r="F35" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17" t="s">
+      <c r="G35" s="67"/>
+      <c r="H35" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17" t="s">
+      <c r="I35" s="67"/>
+      <c r="J35" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="L35" s="65"/>
-      <c r="M35" s="65"/>
-      <c r="N35" s="65"/>
-      <c r="O35" s="65"/>
-      <c r="P35" s="65"/>
-      <c r="Q35" s="65"/>
-      <c r="R35" s="65"/>
-      <c r="S35" s="65"/>
-    </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17" t="s">
+      <c r="L35" s="56"/>
+      <c r="M35" s="56"/>
+      <c r="N35" s="56"/>
+      <c r="O35" s="56"/>
+      <c r="P35" s="56"/>
+      <c r="Q35" s="56"/>
+      <c r="R35" s="56"/>
+      <c r="S35" s="56"/>
+    </row>
+    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B36" s="67"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="67" t="s">
         <v>203</v>
       </c>
-      <c r="E36" s="17" t="s">
+      <c r="E36" s="67" t="s">
         <v>204</v>
       </c>
-      <c r="F36" s="17" t="s">
+      <c r="F36" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17" t="s">
+      <c r="G36" s="67"/>
+      <c r="H36" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="L36" s="39"/>
-      <c r="M36" s="39"/>
-      <c r="N36" s="39"/>
-      <c r="O36" s="39"/>
-      <c r="P36" s="39"/>
-      <c r="Q36" s="65"/>
-      <c r="R36" s="65"/>
-      <c r="S36" s="65"/>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B37" s="52" t="s">
+      <c r="I36" s="67"/>
+      <c r="J36" s="67"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="31"/>
+      <c r="Q36" s="56"/>
+      <c r="R36" s="56"/>
+      <c r="S36" s="56"/>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B37" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="C37" s="52"/>
-      <c r="D37" s="53" t="s">
+      <c r="C37" s="71"/>
+      <c r="D37" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="E37" s="52" t="s">
+      <c r="E37" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="F37" s="52" t="s">
+      <c r="F37" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="G37" s="52"/>
-      <c r="H37" s="52"/>
-      <c r="I37" s="52"/>
-      <c r="J37" s="52"/>
-    </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="2" t="s">
+      <c r="G37" s="71"/>
+      <c r="H37" s="71"/>
+      <c r="I37" s="71"/>
+      <c r="J37" s="71"/>
+    </row>
+    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B38" s="67"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="E38" s="17" t="s">
+      <c r="E38" s="67" t="s">
         <v>91</v>
       </c>
-      <c r="F38" s="17" t="s">
+      <c r="F38" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="2" t="s">
+      <c r="G38" s="67"/>
+      <c r="H38" s="67"/>
+      <c r="I38" s="67"/>
+      <c r="J38" s="67"/>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B39" s="67"/>
+      <c r="C39" s="67"/>
+      <c r="D39" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="E39" s="17" t="s">
+      <c r="E39" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="F39" s="17" t="s">
+      <c r="F39" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
+      <c r="G39" s="67"/>
+      <c r="H39" s="67"/>
+      <c r="I39" s="67"/>
+      <c r="J39" s="67"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -3029,693 +3058,708 @@
       <selection activeCell="E36" sqref="E35:E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="65.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="3.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="65.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5546875" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B1" s="31" t="s">
+    <row r="1" spans="1:10" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="B1" s="24" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="24" t="s">
+    <row r="2" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A2" s="11"/>
+    </row>
+    <row r="3" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A3" s="11"/>
+      <c r="B3" s="17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10"/>
+      <c r="B5" s="58" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="5" t="s">
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+    </row>
+    <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="16" t="s">
+      <c r="C6" s="61"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+    </row>
+    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="16" t="s">
+      <c r="J7" s="63" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="18" t="s">
+    <row r="8" spans="1:10" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="I8" s="18" t="s">
+      <c r="I8" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="J8" s="18" t="s">
+      <c r="J8" s="66" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="70" t="s">
         <v>95</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="17" t="s">
+      <c r="C9" s="70"/>
+      <c r="D9" s="67" t="s">
         <v>165</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="67" t="s">
         <v>159</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="17" t="s">
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="67" t="s">
         <v>166</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="67" t="s">
         <v>160</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="17" t="s">
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="67" t="s">
         <v>167</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="67" t="s">
         <v>161</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="17" t="s">
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="67" t="s">
         <v>162</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="17" t="s">
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="67" t="s">
         <v>169</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="67" t="s">
         <v>163</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="17" t="s">
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="67" t="s">
         <v>170</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="67" t="s">
         <v>164</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="17" t="s">
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="67" t="s">
         <v>171</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="67" t="s">
         <v>211</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="17" t="s">
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="67" t="s">
         <v>172</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="67" t="s">
         <v>212</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="17" t="s">
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="70"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="67" t="s">
         <v>205</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="67" t="s">
         <v>206</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="G17" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B18" s="53" t="s">
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="53"/>
-      <c r="D18" s="52" t="s">
+      <c r="C18" s="72"/>
+      <c r="D18" s="71" t="s">
         <v>175</v>
       </c>
-      <c r="E18" s="52" t="s">
+      <c r="E18" s="71" t="s">
         <v>178</v>
       </c>
-      <c r="F18" s="53" t="s">
+      <c r="F18" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="G18" s="53" t="s">
+      <c r="G18" s="72" t="s">
         <v>99</v>
       </c>
-      <c r="H18" s="53" t="s">
+      <c r="H18" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="I18" s="53"/>
-      <c r="J18" s="53"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2" t="s">
+      <c r="I18" s="72"/>
+      <c r="J18" s="72"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="70"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70" t="s">
         <v>176</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="67" t="s">
         <v>177</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2" t="s">
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="70"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70" t="s">
         <v>179</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="70" t="s">
         <v>181</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2" t="s">
+      <c r="I20" s="70"/>
+      <c r="J20" s="70"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="70"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="70" t="s">
         <v>180</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="70" t="s">
         <v>182</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H21" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2" t="s">
+      <c r="I21" s="70"/>
+      <c r="J21" s="70"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="70"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="70" t="s">
         <v>185</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="70" t="s">
         <v>183</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H22" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2" t="s">
+      <c r="I22" s="70"/>
+      <c r="J22" s="70"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="70"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="70" t="s">
         <v>186</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="70" t="s">
         <v>184</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G23" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="H23" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2" t="s">
+      <c r="I23" s="70"/>
+      <c r="J23" s="70"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="70"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="70" t="s">
         <v>189</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="E24" s="67" t="s">
         <v>191</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G24" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H24" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2" t="s">
+      <c r="I24" s="70"/>
+      <c r="J24" s="70"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="70"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="70" t="s">
         <v>190</v>
       </c>
-      <c r="E25" s="17" t="s">
+      <c r="E25" s="67" t="s">
         <v>192</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G25" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="H25" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2" t="s">
+      <c r="I25" s="70"/>
+      <c r="J25" s="70"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="70"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="70" t="s">
         <v>100</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="70" t="s">
         <v>101</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G26" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H26" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2" t="s">
+      <c r="I26" s="70"/>
+      <c r="J26" s="70"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="70"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70" t="s">
         <v>102</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="70" t="s">
         <v>103</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G27" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="H27" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="17" t="s">
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="70"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="67" t="s">
         <v>193</v>
       </c>
-      <c r="E28" s="17" t="s">
+      <c r="E28" s="67" t="s">
         <v>213</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G28" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2" t="s">
+      <c r="I28" s="70"/>
+      <c r="J28" s="70"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="70"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="70" t="s">
         <v>105</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G29" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B30" s="53"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53" t="s">
+      <c r="H29" s="70"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="70"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="72"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="72" t="s">
         <v>199</v>
       </c>
-      <c r="E30" s="52" t="s">
+      <c r="E30" s="71" t="s">
         <v>200</v>
       </c>
-      <c r="F30" s="53" t="s">
+      <c r="F30" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="G30" s="53" t="s">
+      <c r="G30" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="H30" s="53" t="s">
+      <c r="H30" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="I30" s="53"/>
-      <c r="J30" s="53"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2" t="s">
+      <c r="I30" s="72"/>
+      <c r="J30" s="72"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="70"/>
+      <c r="C31" s="70"/>
+      <c r="D31" s="70" t="s">
         <v>107</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="70" t="s">
         <v>108</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G31" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="H31" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2" t="s">
+      <c r="I31" s="70"/>
+      <c r="J31" s="70"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="70"/>
+      <c r="C32" s="70"/>
+      <c r="D32" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="70" t="s">
         <v>110</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G32" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="H32" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2" t="s">
+      <c r="I32" s="70"/>
+      <c r="J32" s="70"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="70"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="70" t="s">
         <v>174</v>
       </c>
-      <c r="E33" s="17" t="s">
+      <c r="E33" s="67" t="s">
         <v>173</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F33" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="G33" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="H33" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2" t="s">
+      <c r="I33" s="70"/>
+      <c r="J33" s="70"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="70"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="70" t="s">
         <v>111</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F34" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="G34" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="H34" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2" t="s">
+      <c r="I34" s="70"/>
+      <c r="J34" s="70"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="70"/>
+      <c r="C35" s="70"/>
+      <c r="D35" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F35" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G35" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="H35" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2" t="s">
+      <c r="I35" s="70"/>
+      <c r="J35" s="70"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="70"/>
+      <c r="C36" s="70"/>
+      <c r="D36" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="70" t="s">
         <v>116</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F36" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="G36" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="H36" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2" t="s">
+      <c r="I36" s="70"/>
+      <c r="J36" s="70"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="70"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="70" t="s">
         <v>117</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F37" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="G37" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="H37" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
+      <c r="I37" s="70"/>
+      <c r="J37" s="70"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -3730,1935 +3774,1943 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AD69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="69.85546875" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" customWidth="1"/>
-    <col min="8" max="9" width="13.85546875" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.88671875" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" customWidth="1"/>
+    <col min="3" max="3" width="69.88671875" customWidth="1"/>
+    <col min="4" max="4" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" customWidth="1"/>
+    <col min="8" max="9" width="13.88671875" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.5703125" customWidth="1"/>
-    <col min="19" max="19" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.7109375" customWidth="1"/>
-    <col min="22" max="22" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.5546875" customWidth="1"/>
+    <col min="19" max="19" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.6640625" customWidth="1"/>
+    <col min="22" max="22" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="12" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:30" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B1" s="31" t="s">
+    <row r="1" spans="2:30" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="B1" s="24" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="2:30" ht="18" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
+    <row r="3" spans="2:30" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B3" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="2:30" ht="15" x14ac:dyDescent="0.2">
-      <c r="B5" s="24" t="s">
+    <row r="5" spans="2:30" ht="15" x14ac:dyDescent="0.25">
+      <c r="B5" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="R5" s="42"/>
-      <c r="S5" s="43"/>
-      <c r="T5" s="44"/>
-      <c r="U5" s="44"/>
-      <c r="V5" s="42"/>
-      <c r="W5" s="42"/>
-      <c r="X5" s="42"/>
-      <c r="Y5" s="42"/>
-      <c r="Z5" s="42"/>
-      <c r="AA5" s="42"/>
-      <c r="AB5" s="42"/>
-      <c r="AC5" s="42"/>
-      <c r="AD5" s="42"/>
-    </row>
-    <row r="6" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B6" s="10"/>
-      <c r="C6" s="4"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="44"/>
-      <c r="S6" s="43"/>
-      <c r="T6" s="43"/>
-      <c r="U6" s="44"/>
-      <c r="V6" s="44"/>
-      <c r="W6" s="42"/>
-      <c r="X6" s="42"/>
-      <c r="Y6" s="42"/>
-      <c r="Z6" s="42"/>
-      <c r="AA6" s="42"/>
-      <c r="AB6" s="42"/>
-      <c r="AC6" s="42"/>
-      <c r="AD6" s="42"/>
-    </row>
-    <row r="7" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="H7" s="28" t="s">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="36"/>
+      <c r="V5" s="34"/>
+      <c r="W5" s="34"/>
+      <c r="X5" s="34"/>
+      <c r="Y5" s="34"/>
+      <c r="Z5" s="34"/>
+      <c r="AA5" s="34"/>
+      <c r="AB5" s="34"/>
+      <c r="AC5" s="34"/>
+      <c r="AD5" s="34"/>
+    </row>
+    <row r="6" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B6" s="8"/>
+      <c r="C6" s="2"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="36"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="34"/>
+      <c r="X6" s="34"/>
+      <c r="Y6" s="34"/>
+      <c r="Z6" s="34"/>
+      <c r="AA6" s="34"/>
+      <c r="AB6" s="34"/>
+      <c r="AC6" s="34"/>
+      <c r="AD6" s="34"/>
+    </row>
+    <row r="7" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="H7" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="28"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="42"/>
-      <c r="T7" s="42"/>
-      <c r="U7" s="42"/>
-      <c r="V7" s="42"/>
-      <c r="W7" s="45"/>
-      <c r="X7" s="46"/>
-      <c r="Y7" s="46"/>
-      <c r="Z7" s="29"/>
-      <c r="AA7" s="46"/>
-      <c r="AB7" s="46"/>
-      <c r="AC7" s="30"/>
-      <c r="AD7" s="27"/>
-    </row>
-    <row r="8" spans="2:30" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="35" t="s">
+      <c r="I7" s="21"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="37"/>
+      <c r="X7" s="38"/>
+      <c r="Y7" s="38"/>
+      <c r="Z7" s="22"/>
+      <c r="AA7" s="38"/>
+      <c r="AB7" s="38"/>
+      <c r="AC7" s="23"/>
+      <c r="AD7" s="20"/>
+    </row>
+    <row r="8" spans="2:30" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="E8" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="34" t="s">
+      <c r="F8" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="G8" s="35" t="s">
+      <c r="G8" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="H8" s="35" t="s">
+      <c r="H8" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="I8" s="34" t="s">
+      <c r="I8" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="J8" s="34" t="s">
+      <c r="J8" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="34" t="s">
+      <c r="K8" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="L8" s="34" t="s">
+      <c r="L8" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="M8" s="34" t="s">
+      <c r="M8" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="N8" s="34" t="s">
+      <c r="N8" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="O8" s="34" t="s">
+      <c r="O8" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="P8" s="34" t="s">
+      <c r="P8" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="R8" s="47"/>
-      <c r="S8" s="48"/>
-      <c r="T8" s="47"/>
-      <c r="U8" s="47"/>
-      <c r="V8" s="47"/>
-      <c r="W8" s="47"/>
-      <c r="X8" s="49"/>
-      <c r="Y8" s="49"/>
-      <c r="Z8" s="49"/>
-      <c r="AA8" s="49"/>
-      <c r="AB8" s="49"/>
-      <c r="AC8" s="49"/>
-      <c r="AD8" s="49"/>
-    </row>
-    <row r="9" spans="2:30" ht="42.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="21" t="s">
+      <c r="R8" s="39"/>
+      <c r="S8" s="40"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="39"/>
+      <c r="V8" s="39"/>
+      <c r="W8" s="39"/>
+      <c r="X8" s="41"/>
+      <c r="Y8" s="41"/>
+      <c r="Z8" s="41"/>
+      <c r="AA8" s="41"/>
+      <c r="AB8" s="41"/>
+      <c r="AC8" s="41"/>
+      <c r="AD8" s="41"/>
+    </row>
+    <row r="9" spans="2:30" ht="42.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="50" t="s">
+      <c r="F9" s="42" t="s">
         <v>195</v>
       </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="50" t="s">
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="42" t="s">
         <v>196</v>
       </c>
-      <c r="J9" s="21" t="s">
+      <c r="J9" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="K9" s="21" t="s">
+      <c r="K9" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="L9" s="21" t="s">
+      <c r="L9" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="M9" s="21" t="s">
+      <c r="M9" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="N9" s="21" t="s">
+      <c r="N9" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="O9" s="21" t="s">
+      <c r="O9" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="P9" s="21" t="s">
+      <c r="P9" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="40"/>
-      <c r="U9" s="40"/>
-      <c r="V9" s="40"/>
-      <c r="W9" s="40"/>
-      <c r="X9" s="40"/>
-      <c r="Y9" s="40"/>
-      <c r="Z9" s="40"/>
-      <c r="AA9" s="40"/>
-      <c r="AB9" s="40"/>
-      <c r="AC9" s="40"/>
-      <c r="AD9" s="40"/>
-    </row>
-    <row r="10" spans="2:30" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="37" t="s">
+      <c r="R9" s="32"/>
+      <c r="S9" s="32"/>
+      <c r="T9" s="32"/>
+      <c r="U9" s="32"/>
+      <c r="V9" s="32"/>
+      <c r="W9" s="32"/>
+      <c r="X9" s="32"/>
+      <c r="Y9" s="32"/>
+      <c r="Z9" s="32"/>
+      <c r="AA9" s="32"/>
+      <c r="AB9" s="32"/>
+      <c r="AC9" s="32"/>
+      <c r="AD9" s="32"/>
+    </row>
+    <row r="10" spans="2:30" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="37"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="40"/>
-      <c r="T10" s="40"/>
-      <c r="U10" s="40"/>
-      <c r="V10" s="40"/>
-      <c r="W10" s="40"/>
-      <c r="X10" s="40"/>
-      <c r="Y10" s="40"/>
-      <c r="Z10" s="40"/>
-      <c r="AA10" s="40"/>
-      <c r="AB10" s="40"/>
-      <c r="AC10" s="40"/>
-      <c r="AD10" s="40"/>
-    </row>
-    <row r="11" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B11" s="17" t="str">
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="R10" s="32"/>
+      <c r="S10" s="32"/>
+      <c r="T10" s="32"/>
+      <c r="U10" s="32"/>
+      <c r="V10" s="32"/>
+      <c r="W10" s="32"/>
+      <c r="X10" s="32"/>
+      <c r="Y10" s="32"/>
+      <c r="Z10" s="32"/>
+      <c r="AA10" s="32"/>
+      <c r="AB10" s="32"/>
+      <c r="AC10" s="32"/>
+      <c r="AD10" s="32"/>
+    </row>
+    <row r="11" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="str">
         <f>SEC_Processes!D9</f>
         <v>RHDDB</v>
       </c>
-      <c r="C11" s="17" t="str">
+      <c r="C11" s="12" t="str">
         <f>SEC_Processes!E9</f>
         <v>Detached building heating Demand Technology</v>
       </c>
-      <c r="D11" s="17" t="str">
+      <c r="D11" s="12" t="str">
         <f>SEC_Comm!D23&amp;", "&amp;SEC_Comm!D26</f>
         <v>RESHDBX, RESHBDB</v>
       </c>
-      <c r="E11" s="17" t="str">
+      <c r="E11" s="12" t="str">
         <f>SEC_Comm!D10</f>
         <v>RHD</v>
       </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17">
+      <c r="F11" s="12"/>
+      <c r="G11" s="12">
         <v>2012</v>
       </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17">
-        <v>2.25</v>
-      </c>
-      <c r="K11" s="17">
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="74">
+        <v>2.31</v>
+      </c>
+      <c r="K11" s="12">
         <v>100</v>
       </c>
-      <c r="L11" s="17">
+      <c r="L11" s="12">
         <v>1</v>
       </c>
-      <c r="M11" s="17">
+      <c r="M11" s="12">
         <v>1</v>
       </c>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17">
+      <c r="N11" s="12"/>
+      <c r="O11" s="12">
         <v>20</v>
       </c>
-      <c r="P11" s="17"/>
-      <c r="R11" s="41"/>
-      <c r="S11" s="41"/>
-      <c r="T11" s="41"/>
-      <c r="U11" s="41"/>
-      <c r="V11" s="41"/>
-      <c r="W11" s="41"/>
-      <c r="X11" s="41"/>
-      <c r="Y11" s="41"/>
-      <c r="Z11" s="41"/>
-      <c r="AA11" s="41"/>
-      <c r="AB11" s="41"/>
-      <c r="AC11" s="41"/>
-      <c r="AD11" s="41"/>
-    </row>
-    <row r="12" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B12" s="17" t="str">
+      <c r="P11" s="12"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="33"/>
+      <c r="U11" s="33"/>
+      <c r="V11" s="33"/>
+      <c r="W11" s="33"/>
+      <c r="X11" s="33"/>
+      <c r="Y11" s="33"/>
+      <c r="Z11" s="33"/>
+      <c r="AA11" s="33"/>
+      <c r="AB11" s="33"/>
+      <c r="AC11" s="33"/>
+      <c r="AD11" s="33"/>
+    </row>
+    <row r="12" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B12" s="12" t="str">
         <f>SEC_Processes!D10</f>
         <v>RCDDB</v>
       </c>
-      <c r="C12" s="17" t="str">
+      <c r="C12" s="12" t="str">
         <f>SEC_Processes!E10</f>
         <v>Detached building cooling Demand Technology</v>
       </c>
-      <c r="D12" s="17" t="str">
+      <c r="D12" s="12" t="str">
         <f>SEC_Comm!D28</f>
         <v>RESCDB</v>
       </c>
-      <c r="E12" s="17" t="str">
+      <c r="E12" s="12" t="str">
         <f>SEC_Comm!D11</f>
         <v>RCD</v>
       </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17">
+      <c r="F12" s="12"/>
+      <c r="G12" s="12">
         <v>2012</v>
       </c>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17">
-        <v>30</v>
-      </c>
-      <c r="K12" s="17">
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="74">
+        <v>38</v>
+      </c>
+      <c r="K12" s="12">
         <v>100</v>
       </c>
-      <c r="L12" s="17">
+      <c r="L12" s="12">
         <v>1</v>
       </c>
-      <c r="M12" s="17">
+      <c r="M12" s="12">
         <v>1</v>
       </c>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17">
+      <c r="N12" s="12"/>
+      <c r="O12" s="12">
         <v>20</v>
       </c>
-      <c r="P12" s="17"/>
-      <c r="R12" s="41"/>
-      <c r="S12" s="41"/>
-      <c r="T12" s="41"/>
-      <c r="U12" s="41"/>
-      <c r="V12" s="41"/>
-      <c r="W12" s="41"/>
-      <c r="X12" s="41"/>
-      <c r="Y12" s="41"/>
-      <c r="Z12" s="41"/>
-      <c r="AA12" s="41"/>
-      <c r="AB12" s="41"/>
-      <c r="AC12" s="41"/>
-      <c r="AD12" s="41"/>
-    </row>
-    <row r="13" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B13" s="17" t="str">
+      <c r="P12" s="12"/>
+      <c r="R12" s="33"/>
+      <c r="S12" s="33"/>
+      <c r="T12" s="33"/>
+      <c r="U12" s="33"/>
+      <c r="V12" s="33"/>
+      <c r="W12" s="33"/>
+      <c r="X12" s="33"/>
+      <c r="Y12" s="33"/>
+      <c r="Z12" s="33"/>
+      <c r="AA12" s="33"/>
+      <c r="AB12" s="33"/>
+      <c r="AC12" s="33"/>
+      <c r="AD12" s="33"/>
+    </row>
+    <row r="13" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B13" s="12" t="str">
         <f>SEC_Processes!D11</f>
         <v>REDDB</v>
       </c>
-      <c r="C13" s="17" t="str">
+      <c r="C13" s="12" t="str">
         <f>SEC_Processes!E11</f>
         <v>Detached building electricity Demand Technology</v>
       </c>
-      <c r="D13" s="17" t="str">
+      <c r="D13" s="12" t="str">
         <f>SEC_Comm!D22</f>
         <v>RESELCA</v>
       </c>
-      <c r="E13" s="17" t="str">
+      <c r="E13" s="12" t="str">
         <f>SEC_Comm!D12</f>
         <v>RED</v>
       </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17">
+      <c r="F13" s="12"/>
+      <c r="G13" s="12">
         <v>2012</v>
       </c>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17">
-        <v>9.6</v>
-      </c>
-      <c r="K13" s="17">
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="74">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="K13" s="12">
         <v>100</v>
       </c>
-      <c r="L13" s="17">
+      <c r="L13" s="12">
         <v>1</v>
       </c>
-      <c r="M13" s="17">
+      <c r="M13" s="12">
         <v>1</v>
       </c>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17">
+      <c r="N13" s="12"/>
+      <c r="O13" s="12">
         <v>20</v>
       </c>
-      <c r="P13" s="17"/>
-      <c r="R13" s="41"/>
-      <c r="S13" s="41"/>
-      <c r="T13" s="41"/>
-      <c r="U13" s="41"/>
-      <c r="V13" s="41"/>
-      <c r="W13" s="41"/>
-      <c r="X13" s="41"/>
-      <c r="Y13" s="41"/>
-      <c r="Z13" s="41"/>
-      <c r="AA13" s="41"/>
-      <c r="AB13" s="41"/>
-      <c r="AC13" s="41"/>
-      <c r="AD13" s="41"/>
-    </row>
-    <row r="14" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B14" s="17" t="str">
+      <c r="P13" s="12"/>
+      <c r="R13" s="33"/>
+      <c r="S13" s="33"/>
+      <c r="T13" s="33"/>
+      <c r="U13" s="33"/>
+      <c r="V13" s="33"/>
+      <c r="W13" s="33"/>
+      <c r="X13" s="33"/>
+      <c r="Y13" s="33"/>
+      <c r="Z13" s="33"/>
+      <c r="AA13" s="33"/>
+      <c r="AB13" s="33"/>
+      <c r="AC13" s="33"/>
+      <c r="AD13" s="33"/>
+    </row>
+    <row r="14" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B14" s="12" t="str">
         <f>SEC_Processes!D12</f>
         <v>RHDMB</v>
       </c>
-      <c r="C14" s="17" t="str">
+      <c r="C14" s="12" t="str">
         <f>SEC_Processes!E12</f>
         <v>Multistorey building heating Demand Technology</v>
       </c>
-      <c r="D14" s="17" t="str">
+      <c r="D14" s="12" t="str">
         <f>SEC_Comm!D27&amp;", "&amp;SEC_Comm!D24</f>
         <v>RESHBMB, RESHMBX</v>
       </c>
-      <c r="E14" s="17" t="str">
+      <c r="E14" s="12" t="str">
         <f>SEC_Comm!D13</f>
         <v>RHM</v>
       </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17">
+      <c r="F14" s="12"/>
+      <c r="G14" s="12">
         <v>2012</v>
       </c>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17">
-        <v>2</v>
-      </c>
-      <c r="K14" s="17">
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="74">
+        <v>2.1</v>
+      </c>
+      <c r="K14" s="12">
         <v>100</v>
       </c>
-      <c r="L14" s="17">
+      <c r="L14" s="12">
         <v>1</v>
       </c>
-      <c r="M14" s="17">
+      <c r="M14" s="12">
         <v>1</v>
       </c>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17">
+      <c r="N14" s="12"/>
+      <c r="O14" s="12">
         <v>20</v>
       </c>
-      <c r="P14" s="17"/>
-      <c r="R14" s="41"/>
-      <c r="S14" s="41"/>
-      <c r="T14" s="41"/>
-      <c r="U14" s="41"/>
-      <c r="V14" s="41"/>
-      <c r="W14" s="41"/>
-      <c r="X14" s="41"/>
-      <c r="Y14" s="41"/>
-      <c r="Z14" s="41"/>
-      <c r="AA14" s="41"/>
-      <c r="AB14" s="41"/>
-      <c r="AC14" s="41"/>
-      <c r="AD14" s="41"/>
-    </row>
-    <row r="15" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B15" s="17" t="str">
+      <c r="P14" s="12"/>
+      <c r="R14" s="33"/>
+      <c r="S14" s="33"/>
+      <c r="T14" s="33"/>
+      <c r="U14" s="33"/>
+      <c r="V14" s="33"/>
+      <c r="W14" s="33"/>
+      <c r="X14" s="33"/>
+      <c r="Y14" s="33"/>
+      <c r="Z14" s="33"/>
+      <c r="AA14" s="33"/>
+      <c r="AB14" s="33"/>
+      <c r="AC14" s="33"/>
+      <c r="AD14" s="33"/>
+    </row>
+    <row r="15" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B15" s="12" t="str">
         <f>SEC_Processes!D13</f>
         <v>RCDMB</v>
       </c>
-      <c r="C15" s="17" t="str">
+      <c r="C15" s="12" t="str">
         <f>SEC_Processes!E13</f>
         <v>Multistorey building cooling Demand Technology</v>
       </c>
-      <c r="D15" s="17" t="str">
+      <c r="D15" s="12" t="str">
         <f>SEC_Comm!D29</f>
         <v>RESCMB</v>
       </c>
-      <c r="E15" s="17" t="str">
+      <c r="E15" s="12" t="str">
         <f>SEC_Comm!D14</f>
         <v>RCM</v>
       </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17">
+      <c r="F15" s="12"/>
+      <c r="G15" s="12">
         <v>2012</v>
       </c>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17">
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="74">
+        <v>21</v>
+      </c>
+      <c r="K15" s="12">
+        <v>100</v>
+      </c>
+      <c r="L15" s="12">
+        <v>1</v>
+      </c>
+      <c r="M15" s="12">
+        <v>1</v>
+      </c>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12">
         <v>20</v>
       </c>
-      <c r="K15" s="17">
-        <v>100</v>
-      </c>
-      <c r="L15" s="17">
-        <v>1</v>
-      </c>
-      <c r="M15" s="17">
-        <v>1</v>
-      </c>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17">
-        <v>20</v>
-      </c>
-      <c r="P15" s="17"/>
-      <c r="R15" s="41"/>
-      <c r="S15" s="41"/>
-      <c r="T15" s="41"/>
-      <c r="U15" s="41"/>
-      <c r="V15" s="41"/>
-      <c r="W15" s="41"/>
-      <c r="X15" s="41"/>
-      <c r="Y15" s="41"/>
-      <c r="Z15" s="41"/>
-      <c r="AA15" s="41"/>
-      <c r="AB15" s="41"/>
-      <c r="AC15" s="41"/>
-      <c r="AD15" s="41"/>
-    </row>
-    <row r="16" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B16" s="17" t="str">
+      <c r="P15" s="12"/>
+      <c r="R15" s="33"/>
+      <c r="S15" s="33"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="33"/>
+      <c r="V15" s="33"/>
+      <c r="W15" s="33"/>
+      <c r="X15" s="33"/>
+      <c r="Y15" s="33"/>
+      <c r="Z15" s="33"/>
+      <c r="AA15" s="33"/>
+      <c r="AB15" s="33"/>
+      <c r="AC15" s="33"/>
+      <c r="AD15" s="33"/>
+    </row>
+    <row r="16" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B16" s="12" t="str">
         <f>SEC_Processes!D14</f>
         <v>REDMB</v>
       </c>
-      <c r="C16" s="17" t="str">
+      <c r="C16" s="12" t="str">
         <f>SEC_Processes!E14</f>
         <v>Multistorey building electricity Demand Technology</v>
       </c>
-      <c r="D16" s="17" t="str">
+      <c r="D16" s="12" t="str">
         <f>SEC_Comm!D22</f>
         <v>RESELCA</v>
       </c>
-      <c r="E16" s="17" t="str">
+      <c r="E16" s="12" t="str">
         <f>SEC_Comm!D15</f>
         <v>REM</v>
       </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17">
+      <c r="F16" s="12"/>
+      <c r="G16" s="12">
         <v>2012</v>
       </c>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="K16" s="17">
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="74">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="K16" s="12">
         <v>100</v>
       </c>
-      <c r="L16" s="17">
+      <c r="L16" s="12">
         <v>1</v>
       </c>
-      <c r="M16" s="17">
+      <c r="M16" s="12">
         <v>1</v>
       </c>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17">
+      <c r="N16" s="12"/>
+      <c r="O16" s="12">
         <v>20</v>
       </c>
-      <c r="P16" s="17"/>
-      <c r="R16" s="42"/>
-      <c r="S16" s="42"/>
-      <c r="T16" s="42"/>
-      <c r="U16" s="42"/>
-      <c r="V16" s="42"/>
-      <c r="W16" s="42"/>
-      <c r="X16" s="42"/>
-      <c r="Y16" s="42"/>
-      <c r="Z16" s="42"/>
-      <c r="AA16" s="42"/>
-      <c r="AB16" s="42"/>
-      <c r="AC16" s="42"/>
-      <c r="AD16" s="42"/>
-    </row>
-    <row r="17" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B17" s="17" t="str">
+      <c r="P16" s="12"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="34"/>
+      <c r="T16" s="34"/>
+      <c r="U16" s="34"/>
+      <c r="V16" s="34"/>
+      <c r="W16" s="34"/>
+      <c r="X16" s="34"/>
+      <c r="Y16" s="34"/>
+      <c r="Z16" s="34"/>
+      <c r="AA16" s="34"/>
+      <c r="AB16" s="34"/>
+      <c r="AC16" s="34"/>
+      <c r="AD16" s="34"/>
+    </row>
+    <row r="17" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B17" s="12" t="str">
         <f>SEC_Processes!D15</f>
         <v>CHDRB</v>
       </c>
-      <c r="C17" s="17" t="str">
+      <c r="C17" s="12" t="str">
         <f>SEC_Processes!E15</f>
         <v>Commercial heating demand technology</v>
       </c>
-      <c r="D17" s="17" t="str">
+      <c r="D17" s="12" t="str">
         <f>SEC_Comm!D31&amp;", "&amp;SEC_Comm!D33</f>
         <v>COMHX, COMHB</v>
       </c>
-      <c r="E17" s="17" t="str">
+      <c r="E17" s="12" t="str">
         <f>SEC_Comm!D16</f>
         <v>CH</v>
       </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17">
+      <c r="F17" s="12"/>
+      <c r="G17" s="12">
         <v>2012</v>
       </c>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17">
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="74">
         <v>1</v>
       </c>
-      <c r="K17" s="17">
+      <c r="K17" s="12">
         <v>100</v>
       </c>
-      <c r="L17" s="17">
+      <c r="L17" s="12">
         <v>1</v>
       </c>
-      <c r="M17" s="17">
+      <c r="M17" s="12">
         <v>1</v>
       </c>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17">
+      <c r="N17" s="12"/>
+      <c r="O17" s="12">
         <v>20</v>
       </c>
-      <c r="P17" s="17"/>
-      <c r="R17" s="42"/>
-      <c r="S17" s="42"/>
-      <c r="T17" s="42"/>
-      <c r="U17" s="42"/>
-      <c r="V17" s="42"/>
-      <c r="W17" s="42"/>
-      <c r="X17" s="42"/>
-      <c r="Y17" s="42"/>
-      <c r="Z17" s="42"/>
-      <c r="AA17" s="42"/>
-      <c r="AB17" s="42"/>
-      <c r="AC17" s="42"/>
-      <c r="AD17" s="42"/>
-    </row>
-    <row r="18" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B18" s="17" t="str">
+      <c r="P17" s="12"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="34"/>
+      <c r="U17" s="34"/>
+      <c r="V17" s="34"/>
+      <c r="W17" s="34"/>
+      <c r="X17" s="34"/>
+      <c r="Y17" s="34"/>
+      <c r="Z17" s="34"/>
+      <c r="AA17" s="34"/>
+      <c r="AB17" s="34"/>
+      <c r="AC17" s="34"/>
+      <c r="AD17" s="34"/>
+    </row>
+    <row r="18" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B18" s="12" t="str">
         <f>SEC_Processes!D16</f>
         <v>CCDRB</v>
       </c>
-      <c r="C18" s="17" t="str">
+      <c r="C18" s="12" t="str">
         <f>SEC_Processes!E16</f>
         <v>Commercial cooling demand technology</v>
       </c>
-      <c r="D18" s="17" t="str">
+      <c r="D18" s="12" t="str">
         <f>SEC_Comm!D34</f>
         <v>COMC</v>
       </c>
-      <c r="E18" s="17" t="str">
+      <c r="E18" s="12" t="str">
         <f>SEC_Comm!D17</f>
         <v>CC</v>
       </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17">
+      <c r="F18" s="12"/>
+      <c r="G18" s="12">
         <v>2012</v>
       </c>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17">
-        <v>2</v>
-      </c>
-      <c r="K18" s="17">
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="74">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K18" s="12">
         <v>100</v>
       </c>
-      <c r="L18" s="17">
+      <c r="L18" s="12">
         <v>1</v>
       </c>
-      <c r="M18" s="17">
+      <c r="M18" s="12">
         <v>1</v>
       </c>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17">
+      <c r="N18" s="12"/>
+      <c r="O18" s="12">
         <v>20</v>
       </c>
-      <c r="P18" s="17"/>
-      <c r="R18" s="42"/>
-      <c r="S18" s="42"/>
-      <c r="T18" s="42"/>
-      <c r="U18" s="42"/>
-      <c r="V18" s="42"/>
-      <c r="W18" s="42"/>
-      <c r="X18" s="42"/>
-      <c r="Y18" s="42"/>
-      <c r="Z18" s="42"/>
-      <c r="AA18" s="42"/>
-      <c r="AB18" s="42"/>
-      <c r="AC18" s="42"/>
-      <c r="AD18" s="42"/>
-    </row>
-    <row r="19" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B19" s="17" t="str">
+      <c r="P18" s="12"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="34"/>
+      <c r="U18" s="34"/>
+      <c r="V18" s="34"/>
+      <c r="W18" s="34"/>
+      <c r="X18" s="34"/>
+      <c r="Y18" s="34"/>
+      <c r="Z18" s="34"/>
+      <c r="AA18" s="34"/>
+      <c r="AB18" s="34"/>
+      <c r="AC18" s="34"/>
+      <c r="AD18" s="34"/>
+    </row>
+    <row r="19" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B19" s="12" t="str">
         <f>SEC_Processes!D17</f>
         <v>IPPDT</v>
       </c>
-      <c r="C19" s="17" t="str">
+      <c r="C19" s="12" t="str">
         <f>SEC_Processes!E17</f>
         <v>Industry pulp and paper demand technology</v>
       </c>
-      <c r="D19" s="17" t="str">
+      <c r="D19" s="12" t="str">
         <f>SEC_Comm!D36</f>
         <v>INDPP</v>
       </c>
-      <c r="E19" s="17" t="str">
+      <c r="E19" s="12" t="str">
         <f>SEC_Comm!D18</f>
         <v>IPP</v>
       </c>
-      <c r="F19" s="38"/>
-      <c r="G19" s="17">
+      <c r="F19" s="30"/>
+      <c r="G19" s="12">
         <v>2012</v>
       </c>
-      <c r="H19" s="17"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="17">
-        <v>183</v>
-      </c>
-      <c r="K19" s="17">
+      <c r="H19" s="12"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="74">
+        <v>176</v>
+      </c>
+      <c r="K19" s="12">
         <v>100</v>
       </c>
-      <c r="L19" s="17">
+      <c r="L19" s="12">
         <v>1</v>
       </c>
-      <c r="M19" s="17">
+      <c r="M19" s="12">
         <v>1</v>
       </c>
-      <c r="N19" s="38"/>
-      <c r="O19" s="38">
+      <c r="N19" s="30"/>
+      <c r="O19" s="30">
         <v>20</v>
       </c>
-      <c r="P19" s="38"/>
-      <c r="R19" s="42"/>
-      <c r="S19" s="42"/>
-      <c r="T19" s="42"/>
-      <c r="U19" s="42"/>
-      <c r="V19" s="42"/>
-      <c r="W19" s="42"/>
-      <c r="X19" s="42"/>
-      <c r="Y19" s="42"/>
-      <c r="Z19" s="42"/>
-      <c r="AA19" s="42"/>
-      <c r="AB19" s="42"/>
-      <c r="AC19" s="42"/>
-      <c r="AD19" s="42"/>
-    </row>
-    <row r="20" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B20" s="52" t="str">
+      <c r="P19" s="30"/>
+      <c r="R19" s="34"/>
+      <c r="S19" s="34"/>
+      <c r="T19" s="34"/>
+      <c r="U19" s="34"/>
+      <c r="V19" s="34"/>
+      <c r="W19" s="34"/>
+      <c r="X19" s="34"/>
+      <c r="Y19" s="34"/>
+      <c r="Z19" s="34"/>
+      <c r="AA19" s="34"/>
+      <c r="AB19" s="34"/>
+      <c r="AC19" s="34"/>
+      <c r="AD19" s="34"/>
+    </row>
+    <row r="20" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B20" s="44" t="str">
         <f>SEC_Processes!D18</f>
         <v>RHTDBWPEBE1</v>
       </c>
-      <c r="C20" s="52" t="str">
+      <c r="C20" s="44" t="str">
         <f>SEC_Processes!E18</f>
         <v>Residential heating technology detached buildings - wood - existing 1</v>
       </c>
-      <c r="D20" s="52" t="str">
+      <c r="D20" s="44" t="str">
         <f>SEC_Comm!D20</f>
         <v>RESWPE</v>
       </c>
-      <c r="E20" s="52" t="str">
+      <c r="E20" s="44" t="str">
         <f>SEC_Comm!D26</f>
         <v>RESHBDB</v>
       </c>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="52">
-        <v>0.9</v>
-      </c>
-      <c r="K20" s="52">
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="75">
+        <v>0.87</v>
+      </c>
+      <c r="K20" s="44">
         <v>20</v>
       </c>
-      <c r="L20" s="52">
+      <c r="L20" s="44">
         <f>8760*3.6/1000000</f>
         <v>3.1536000000000002E-2</v>
       </c>
-      <c r="M20" s="52"/>
-      <c r="N20" s="52">
-        <v>0.2</v>
-      </c>
-      <c r="O20" s="52">
-        <v>1000</v>
-      </c>
-      <c r="P20" s="52"/>
-      <c r="R20" s="42"/>
-      <c r="S20" s="42"/>
-      <c r="T20" s="42"/>
-      <c r="U20" s="42"/>
-      <c r="V20" s="42"/>
-      <c r="W20" s="42"/>
-      <c r="X20" s="42"/>
-      <c r="Y20" s="42"/>
-      <c r="Z20" s="42"/>
-      <c r="AA20" s="42"/>
-      <c r="AB20" s="42"/>
-      <c r="AC20" s="42"/>
-      <c r="AD20" s="42"/>
-    </row>
-    <row r="21" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B21" s="17" t="str">
+      <c r="M20" s="44"/>
+      <c r="N20" s="75">
+        <v>0.34</v>
+      </c>
+      <c r="O20" s="75">
+        <v>876</v>
+      </c>
+      <c r="P20" s="44"/>
+      <c r="R20" s="34"/>
+      <c r="S20" s="34"/>
+      <c r="T20" s="34"/>
+      <c r="U20" s="34"/>
+      <c r="V20" s="34"/>
+      <c r="W20" s="34"/>
+      <c r="X20" s="34"/>
+      <c r="Y20" s="34"/>
+      <c r="Z20" s="34"/>
+      <c r="AA20" s="34"/>
+      <c r="AB20" s="34"/>
+      <c r="AC20" s="34"/>
+      <c r="AD20" s="34"/>
+    </row>
+    <row r="21" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B21" s="12" t="str">
         <f>SEC_Processes!D19</f>
         <v>RHTMBWPEBE1</v>
       </c>
-      <c r="C21" s="17" t="str">
+      <c r="C21" s="12" t="str">
         <f>SEC_Processes!E19</f>
         <v>Residential heating technology multistorey buildings  - wood - existing 1</v>
       </c>
-      <c r="D21" s="17" t="str">
+      <c r="D21" s="12" t="str">
         <f>SEC_Comm!D20</f>
         <v>RESWPE</v>
       </c>
-      <c r="E21" s="17" t="str">
+      <c r="E21" s="12" t="str">
         <f>SEC_Comm!D27</f>
         <v>RESHBMB</v>
       </c>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17">
-        <v>0.92</v>
-      </c>
-      <c r="K21" s="17">
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="74">
+        <f>J20</f>
+        <v>0.87</v>
+      </c>
+      <c r="K21" s="12">
         <v>20</v>
       </c>
-      <c r="L21" s="17">
+      <c r="L21" s="12">
         <f t="shared" ref="L21:L30" si="0">8760*3.6/1000000</f>
         <v>3.1536000000000002E-2</v>
       </c>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17">
-        <v>0.2</v>
-      </c>
-      <c r="O21" s="17">
-        <v>1000</v>
-      </c>
-      <c r="P21" s="17"/>
-      <c r="R21" s="42"/>
-      <c r="S21" s="42"/>
-      <c r="T21" s="42"/>
-      <c r="U21" s="42"/>
-      <c r="V21" s="42"/>
-      <c r="W21" s="42"/>
-      <c r="X21" s="42"/>
-      <c r="Y21" s="42"/>
-      <c r="Z21" s="42"/>
-      <c r="AA21" s="42"/>
-      <c r="AB21" s="42"/>
-      <c r="AC21" s="42"/>
-      <c r="AD21" s="42"/>
-    </row>
-    <row r="22" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B22" s="17" t="str">
+      <c r="M21" s="12"/>
+      <c r="N21" s="74">
+        <v>0.23</v>
+      </c>
+      <c r="O21" s="74">
+        <v>543</v>
+      </c>
+      <c r="P21" s="12"/>
+      <c r="R21" s="77" t="s">
+        <v>214</v>
+      </c>
+      <c r="S21" s="34"/>
+      <c r="T21" s="34"/>
+      <c r="U21" s="34"/>
+      <c r="V21" s="34"/>
+      <c r="W21" s="34"/>
+      <c r="X21" s="34"/>
+      <c r="Y21" s="34"/>
+      <c r="Z21" s="34"/>
+      <c r="AA21" s="34"/>
+      <c r="AB21" s="34"/>
+      <c r="AC21" s="34"/>
+      <c r="AD21" s="34"/>
+    </row>
+    <row r="22" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B22" s="12" t="str">
         <f>SEC_Processes!D20</f>
         <v>RHTDBLCHXE2</v>
       </c>
-      <c r="C22" s="17" t="str">
+      <c r="C22" s="12" t="str">
         <f>SEC_Processes!E20</f>
         <v>Residential heating technology detached buildings- heat pump - existing 2</v>
       </c>
-      <c r="D22" s="17" t="str">
+      <c r="D22" s="12" t="str">
         <f>SEC_Comm!D21</f>
         <v>RESELCH</v>
       </c>
-      <c r="E22" s="17" t="str">
+      <c r="E22" s="12" t="str">
         <f>SEC_Comm!D26</f>
         <v>RESHBDB</v>
       </c>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17">
-        <v>3</v>
-      </c>
-      <c r="K22" s="17">
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="74">
+        <v>3.1</v>
+      </c>
+      <c r="K22" s="12">
         <v>20</v>
       </c>
-      <c r="L22" s="17">
+      <c r="L22" s="12">
         <f t="shared" si="0"/>
         <v>3.1536000000000002E-2</v>
       </c>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17">
-        <v>0.2</v>
-      </c>
-      <c r="O22" s="17">
-        <v>1000</v>
-      </c>
-      <c r="P22" s="17"/>
-      <c r="R22" s="42"/>
-      <c r="S22" s="42"/>
-      <c r="T22" s="42"/>
-      <c r="U22" s="42"/>
-      <c r="V22" s="42"/>
-      <c r="W22" s="42"/>
-      <c r="X22" s="42"/>
-      <c r="Y22" s="42"/>
-      <c r="Z22" s="42"/>
-      <c r="AA22" s="42"/>
-      <c r="AB22" s="42"/>
-      <c r="AC22" s="42"/>
-      <c r="AD22" s="42"/>
-    </row>
-    <row r="23" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B23" s="17" t="str">
+      <c r="M22" s="12"/>
+      <c r="N22" s="74">
+        <v>0.16</v>
+      </c>
+      <c r="O22" s="74">
+        <v>982</v>
+      </c>
+      <c r="P22" s="12"/>
+      <c r="R22" s="34"/>
+      <c r="S22" s="34"/>
+      <c r="T22" s="34"/>
+      <c r="U22" s="34"/>
+      <c r="V22" s="34"/>
+      <c r="W22" s="34"/>
+      <c r="X22" s="34"/>
+      <c r="Y22" s="34"/>
+      <c r="Z22" s="34"/>
+      <c r="AA22" s="34"/>
+      <c r="AB22" s="34"/>
+      <c r="AC22" s="34"/>
+      <c r="AD22" s="34"/>
+    </row>
+    <row r="23" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B23" s="12" t="str">
         <f>SEC_Processes!D21</f>
         <v>RHTMBLCHXE2</v>
       </c>
-      <c r="C23" s="17" t="str">
+      <c r="C23" s="12" t="str">
         <f>SEC_Processes!E21</f>
         <v>Residential heating technology multistorey buildings- heat pump - existing 2</v>
       </c>
-      <c r="D23" s="17" t="str">
+      <c r="D23" s="12" t="str">
         <f>SEC_Comm!D21</f>
         <v>RESELCH</v>
       </c>
-      <c r="E23" s="17" t="str">
+      <c r="E23" s="12" t="str">
         <f>SEC_Comm!D27</f>
         <v>RESHBMB</v>
       </c>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17">
-        <v>3</v>
-      </c>
-      <c r="K23" s="17">
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="74">
+        <f>J22</f>
+        <v>3.1</v>
+      </c>
+      <c r="K23" s="12">
         <v>20</v>
       </c>
-      <c r="L23" s="17">
+      <c r="L23" s="12">
         <f t="shared" si="0"/>
         <v>3.1536000000000002E-2</v>
       </c>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17">
-        <v>0.2</v>
-      </c>
-      <c r="O23" s="17">
-        <v>1000</v>
-      </c>
-      <c r="P23" s="17"/>
-      <c r="R23" s="42"/>
-      <c r="S23" s="42"/>
-      <c r="T23" s="42"/>
-      <c r="U23" s="42"/>
-      <c r="V23" s="42"/>
-      <c r="W23" s="42"/>
-      <c r="X23" s="42"/>
-      <c r="Y23" s="42"/>
-      <c r="Z23" s="42"/>
-      <c r="AA23" s="42"/>
-      <c r="AB23" s="42"/>
-      <c r="AC23" s="42"/>
-      <c r="AD23" s="42"/>
-    </row>
-    <row r="24" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B24" s="17" t="str">
+      <c r="M23" s="12"/>
+      <c r="N23" s="74">
+        <v>0.19</v>
+      </c>
+      <c r="O23" s="74">
+        <v>1211</v>
+      </c>
+      <c r="P23" s="12"/>
+      <c r="R23" s="34"/>
+      <c r="S23" s="34"/>
+      <c r="T23" s="34"/>
+      <c r="U23" s="34"/>
+      <c r="V23" s="34"/>
+      <c r="W23" s="34"/>
+      <c r="X23" s="34"/>
+      <c r="Y23" s="34"/>
+      <c r="Z23" s="34"/>
+      <c r="AA23" s="34"/>
+      <c r="AB23" s="34"/>
+      <c r="AC23" s="34"/>
+      <c r="AD23" s="34"/>
+    </row>
+    <row r="24" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B24" s="12" t="str">
         <f>SEC_Processes!D22</f>
         <v>RHTDBDHE1</v>
       </c>
-      <c r="C24" s="17" t="str">
+      <c r="C24" s="12" t="str">
         <f>SEC_Processes!E22</f>
         <v>Residential heating technology detached buildings-district heat-existing 1</v>
       </c>
-      <c r="D24" s="17" t="str">
+      <c r="D24" s="12" t="str">
         <f>SEC_Comm!D25</f>
         <v>RESDH</v>
       </c>
-      <c r="E24" s="17" t="str">
+      <c r="E24" s="12" t="str">
         <f>SEC_Comm!D23</f>
         <v>RESHDBX</v>
       </c>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17">
-        <v>0.98</v>
-      </c>
-      <c r="K24" s="17">
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="74">
+        <v>0.96</v>
+      </c>
+      <c r="K24" s="12">
         <v>20</v>
       </c>
-      <c r="L24" s="17">
+      <c r="L24" s="12">
         <f t="shared" si="0"/>
         <v>3.1536000000000002E-2</v>
       </c>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17">
-        <v>0.2</v>
-      </c>
-      <c r="O24" s="17">
-        <v>1000</v>
-      </c>
-      <c r="P24" s="17"/>
-    </row>
-    <row r="25" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B25" s="17" t="str">
+      <c r="M24" s="12"/>
+      <c r="N24" s="74">
+        <v>0.21</v>
+      </c>
+      <c r="O24" s="74">
+        <v>876</v>
+      </c>
+      <c r="P24" s="12"/>
+    </row>
+    <row r="25" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B25" s="12" t="str">
         <f>SEC_Processes!D23</f>
         <v>RHTMBDHE1</v>
       </c>
-      <c r="C25" s="17" t="str">
+      <c r="C25" s="12" t="str">
         <f>SEC_Processes!E23</f>
         <v>Residential heating technology multistorey buildings-district heat-existing 1</v>
       </c>
-      <c r="D25" s="17" t="str">
+      <c r="D25" s="12" t="str">
         <f>SEC_Comm!D25</f>
         <v>RESDH</v>
       </c>
-      <c r="E25" s="17" t="str">
+      <c r="E25" s="12" t="str">
         <f>SEC_Comm!D24</f>
         <v>RESHMBX</v>
       </c>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17">
-        <v>1</v>
-      </c>
-      <c r="K25" s="17">
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="74">
+        <v>0.98</v>
+      </c>
+      <c r="K25" s="12">
         <v>20</v>
       </c>
-      <c r="L25" s="17">
+      <c r="L25" s="12">
         <f t="shared" si="0"/>
         <v>3.1536000000000002E-2</v>
       </c>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17">
-        <v>0.2</v>
-      </c>
-      <c r="O25" s="17">
-        <v>1000</v>
-      </c>
-      <c r="P25" s="17"/>
-    </row>
-    <row r="26" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B26" s="17" t="str">
+      <c r="M25" s="12"/>
+      <c r="N25" s="74">
+        <v>0.22</v>
+      </c>
+      <c r="O25" s="74">
+        <v>1204</v>
+      </c>
+      <c r="P25" s="12"/>
+    </row>
+    <row r="26" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B26" s="12" t="str">
         <f>SEC_Processes!D24</f>
         <v>RCTDBAC</v>
       </c>
-      <c r="C26" s="17" t="str">
+      <c r="C26" s="12" t="str">
         <f>SEC_Processes!E24</f>
         <v>Residential cooling technology detached buildings- AC</v>
       </c>
-      <c r="D26" s="17" t="str">
+      <c r="D26" s="12" t="str">
         <f>SEC_Comm!D21</f>
         <v>RESELCH</v>
       </c>
-      <c r="E26" s="17" t="str">
+      <c r="E26" s="12" t="str">
         <f>SEC_Comm!D28</f>
         <v>RESCDB</v>
       </c>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17">
-        <v>3.2</v>
-      </c>
-      <c r="K26" s="17">
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="74">
+        <v>3.1</v>
+      </c>
+      <c r="K26" s="12">
         <v>20</v>
       </c>
-      <c r="L26" s="17">
+      <c r="L26" s="12">
         <f t="shared" si="0"/>
         <v>3.1536000000000002E-2</v>
       </c>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17">
-        <v>0.2</v>
-      </c>
-      <c r="O26" s="17">
-        <v>1000</v>
-      </c>
-      <c r="P26" s="17"/>
-    </row>
-    <row r="27" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B27" s="17" t="str">
+      <c r="M26" s="12"/>
+      <c r="N26" s="74">
+        <v>0.17</v>
+      </c>
+      <c r="O26" s="74">
+        <v>976</v>
+      </c>
+      <c r="P26" s="12"/>
+      <c r="R26">
+        <f>O26*L26*N26*J26</f>
+        <v>16.220604672000004</v>
+      </c>
+    </row>
+    <row r="27" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B27" s="12" t="str">
         <f>SEC_Processes!D25</f>
         <v>RCTMBAC</v>
       </c>
-      <c r="C27" s="17" t="str">
+      <c r="C27" s="12" t="str">
         <f>SEC_Processes!E25</f>
         <v>Residential cooling technology multistorey buildings- AC</v>
       </c>
-      <c r="D27" s="17" t="str">
+      <c r="D27" s="12" t="str">
         <f>SEC_Comm!D21</f>
         <v>RESELCH</v>
       </c>
-      <c r="E27" s="17" t="str">
+      <c r="E27" s="12" t="str">
         <f>SEC_Comm!D29</f>
         <v>RESCMB</v>
       </c>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17">
-        <v>3.3</v>
-      </c>
-      <c r="K27" s="17">
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="74">
+        <v>3.2</v>
+      </c>
+      <c r="K27" s="12">
         <v>20</v>
       </c>
-      <c r="L27" s="17">
+      <c r="L27" s="12">
         <f t="shared" si="0"/>
         <v>3.1536000000000002E-2</v>
       </c>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17">
-        <v>0.2</v>
-      </c>
-      <c r="O27" s="17">
-        <v>1000</v>
-      </c>
-      <c r="P27" s="17"/>
-    </row>
-    <row r="28" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B28" s="17" t="str">
+      <c r="M27" s="12"/>
+      <c r="N27" s="74">
+        <v>0.18</v>
+      </c>
+      <c r="O27" s="74">
+        <v>1035</v>
+      </c>
+      <c r="P27" s="12"/>
+    </row>
+    <row r="28" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B28" s="12" t="str">
         <f>SEC_Processes!D26</f>
         <v>CHTLCHXE2</v>
       </c>
-      <c r="C28" s="17" t="str">
+      <c r="C28" s="12" t="str">
         <f>SEC_Processes!E26</f>
         <v>Commercial heating technology - heat pump - existing 2</v>
       </c>
-      <c r="D28" s="17" t="str">
+      <c r="D28" s="12" t="str">
         <f>SEC_Comm!D30</f>
         <v>COMELCH</v>
       </c>
-      <c r="E28" s="17" t="str">
+      <c r="E28" s="12" t="str">
         <f>SEC_Comm!D33</f>
         <v>COMHB</v>
       </c>
-      <c r="F28" s="17"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="38">
+      <c r="F28" s="12"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="76">
         <f>J23</f>
-        <v>3</v>
-      </c>
-      <c r="K28" s="38">
+        <v>3.1</v>
+      </c>
+      <c r="K28" s="30">
         <v>20</v>
       </c>
-      <c r="L28" s="17">
+      <c r="L28" s="12">
         <f t="shared" si="0"/>
         <v>3.1536000000000002E-2</v>
       </c>
-      <c r="M28" s="38"/>
-      <c r="N28" s="17">
-        <v>0.2</v>
-      </c>
-      <c r="O28" s="17">
-        <v>2200</v>
-      </c>
-      <c r="P28" s="38"/>
-    </row>
-    <row r="29" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B29" s="17" t="str">
+      <c r="M28" s="30"/>
+      <c r="N28" s="74">
+        <v>0.23</v>
+      </c>
+      <c r="O28" s="74">
+        <v>2107</v>
+      </c>
+      <c r="P28" s="30"/>
+    </row>
+    <row r="29" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B29" s="12" t="str">
         <f>SEC_Processes!D27</f>
         <v>CHTHCEBE1</v>
       </c>
-      <c r="C29" s="17" t="str">
+      <c r="C29" s="12" t="str">
         <f>SEC_Processes!E27</f>
         <v>Commercial heating technology - district heat- existing 1</v>
       </c>
-      <c r="D29" s="17" t="str">
+      <c r="D29" s="12" t="str">
         <f>SEC_Comm!D32</f>
         <v>COMDH</v>
       </c>
-      <c r="E29" s="38" t="str">
+      <c r="E29" s="30" t="str">
         <f>SEC_Comm!D31</f>
         <v>COMHX</v>
       </c>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="38">
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="76">
         <f>J25</f>
-        <v>1</v>
-      </c>
-      <c r="K29" s="38">
+        <v>0.98</v>
+      </c>
+      <c r="K29" s="30">
         <v>20</v>
       </c>
-      <c r="L29" s="17">
+      <c r="L29" s="12">
         <f t="shared" si="0"/>
         <v>3.1536000000000002E-2</v>
       </c>
-      <c r="M29" s="38"/>
-      <c r="N29" s="17">
-        <v>0.2</v>
-      </c>
-      <c r="O29" s="17">
-        <v>1000</v>
-      </c>
-      <c r="P29" s="38"/>
-    </row>
-    <row r="30" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B30" s="17" t="str">
+      <c r="M29" s="30"/>
+      <c r="N29" s="74">
+        <v>0.16</v>
+      </c>
+      <c r="O29" s="74">
+        <v>986</v>
+      </c>
+      <c r="P29" s="30"/>
+    </row>
+    <row r="30" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B30" s="12" t="str">
         <f>SEC_Processes!D28</f>
         <v>CCTRBAC</v>
       </c>
-      <c r="C30" s="17" t="str">
+      <c r="C30" s="12" t="str">
         <f>SEC_Processes!E28</f>
         <v>Commercial cooling technology - AC</v>
       </c>
-      <c r="D30" s="17" t="str">
+      <c r="D30" s="12" t="str">
         <f>SEC_Comm!D30</f>
         <v>COMELCH</v>
       </c>
-      <c r="E30" s="38" t="str">
+      <c r="E30" s="30" t="str">
         <f>SEC_Comm!D34</f>
         <v>COMC</v>
       </c>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="17">
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="74">
         <f>J26</f>
-        <v>3.2</v>
-      </c>
-      <c r="K30" s="38">
+        <v>3.1</v>
+      </c>
+      <c r="K30" s="30">
         <v>20</v>
       </c>
-      <c r="L30" s="17">
+      <c r="L30" s="12">
         <f t="shared" si="0"/>
         <v>3.1536000000000002E-2</v>
       </c>
-      <c r="M30" s="38"/>
-      <c r="N30" s="17">
-        <v>0.2</v>
-      </c>
-      <c r="O30" s="17">
-        <v>1700</v>
-      </c>
-      <c r="P30" s="38"/>
-    </row>
-    <row r="31" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B31" s="38" t="str">
+      <c r="M30" s="30"/>
+      <c r="N30" s="74">
+        <v>0.3</v>
+      </c>
+      <c r="O30" s="74">
+        <v>1654</v>
+      </c>
+      <c r="P30" s="30"/>
+    </row>
+    <row r="31" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B31" s="30" t="str">
         <f>SEC_Processes!D29</f>
         <v>IPPT</v>
       </c>
-      <c r="C31" s="38" t="str">
+      <c r="C31" s="30" t="str">
         <f>SEC_Processes!E29</f>
         <v>Industry Pulp and Paper Technology</v>
       </c>
-      <c r="D31" s="38" t="str">
+      <c r="D31" s="30" t="str">
         <f>SEC_Comm!D35</f>
         <v>INDELC</v>
       </c>
-      <c r="E31" s="38" t="str">
+      <c r="E31" s="30" t="str">
         <f>SEC_Comm!D36</f>
         <v>INDPP</v>
       </c>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="38">
-        <v>10</v>
-      </c>
-      <c r="K31" s="38">
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="76">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="K31" s="30">
         <v>20</v>
       </c>
-      <c r="L31" s="38">
+      <c r="L31" s="30">
         <v>1</v>
       </c>
-      <c r="M31" s="38"/>
-      <c r="N31" s="38">
+      <c r="M31" s="30"/>
+      <c r="N31" s="30">
         <v>1</v>
       </c>
-      <c r="O31" s="38">
-        <v>1000</v>
-      </c>
-      <c r="P31" s="38"/>
-    </row>
-    <row r="32" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B32" s="52" t="str">
+      <c r="O31" s="76">
+        <v>8973</v>
+      </c>
+      <c r="P31" s="30"/>
+    </row>
+    <row r="32" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B32" s="44" t="str">
         <f>SEC_Processes!D30</f>
         <v>FT-RESNGA</v>
       </c>
-      <c r="C32" s="52" t="str">
+      <c r="C32" s="44" t="str">
         <f>SEC_Processes!E30</f>
         <v>Fuel Technology Natural Gas RES</v>
       </c>
-      <c r="D32" s="52" t="s">
+      <c r="D32" s="44" t="s">
         <v>201</v>
       </c>
-      <c r="E32" s="52" t="s">
+      <c r="E32" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="F32" s="52"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="52"/>
-      <c r="J32" s="52">
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44">
         <v>1</v>
       </c>
-      <c r="K32" s="52">
+      <c r="K32" s="44">
         <v>50</v>
       </c>
-      <c r="L32" s="52"/>
-      <c r="M32" s="52"/>
-      <c r="N32" s="52"/>
-      <c r="O32" s="52"/>
-      <c r="P32" s="52">
+      <c r="L32" s="44"/>
+      <c r="M32" s="44"/>
+      <c r="N32" s="44"/>
+      <c r="O32" s="44"/>
+      <c r="P32" s="44">
         <v>1000</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B33" s="38" t="str">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B33" s="30" t="str">
         <f>SEC_Processes!D31</f>
         <v>FT-RESWPE</v>
       </c>
-      <c r="C33" s="38" t="str">
+      <c r="C33" s="30" t="str">
         <f>SEC_Processes!E31</f>
         <v>Fuel Technology Wood Pellets RES</v>
       </c>
-      <c r="D33" s="38" t="s">
+      <c r="D33" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="E33" s="38" t="str">
+      <c r="E33" s="30" t="str">
         <f>SEC_Comm!D20</f>
         <v>RESWPE</v>
       </c>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="38">
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30">
         <v>1</v>
       </c>
-      <c r="K33" s="38">
+      <c r="K33" s="30">
         <v>50</v>
       </c>
-      <c r="L33" s="38"/>
-      <c r="M33" s="38"/>
-      <c r="N33" s="38"/>
-      <c r="O33" s="38"/>
-      <c r="P33" s="38">
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="30"/>
+      <c r="O33" s="30"/>
+      <c r="P33" s="30">
         <v>1000</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B34" s="17" t="str">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B34" s="12" t="str">
         <f>SEC_Processes!D32</f>
         <v>FT-RESELCH</v>
       </c>
-      <c r="C34" s="17" t="str">
+      <c r="C34" s="12" t="str">
         <f>SEC_Processes!E32</f>
         <v>Fuel Technology for Heating Electricity RES</v>
       </c>
-      <c r="D34" s="17" t="s">
+      <c r="D34" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="E34" s="17" t="str">
+      <c r="E34" s="12" t="str">
         <f>SEC_Comm!D21</f>
         <v>RESELCH</v>
       </c>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17">
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12">
         <v>1</v>
       </c>
-      <c r="K34" s="17">
+      <c r="K34" s="12">
         <v>50</v>
       </c>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17">
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12">
         <v>1000</v>
       </c>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B35" s="17" t="str">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B35" s="12" t="str">
         <f>SEC_Processes!D33</f>
         <v>FT-RESELCA</v>
       </c>
-      <c r="C35" s="17" t="str">
+      <c r="C35" s="12" t="str">
         <f>SEC_Processes!E33</f>
         <v>Fuel Technology for Appliacnes Electricity RES</v>
       </c>
-      <c r="D35" s="17" t="s">
+      <c r="D35" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="E35" s="17" t="str">
+      <c r="E35" s="12" t="str">
         <f>SEC_Comm!D22</f>
         <v>RESELCA</v>
       </c>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17">
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12">
         <v>1</v>
       </c>
-      <c r="K35" s="17">
+      <c r="K35" s="12">
         <v>50</v>
       </c>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17">
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12">
         <v>1000</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B36" s="17" t="str">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B36" s="12" t="str">
         <f>SEC_Processes!D34</f>
         <v>FT-RESHE</v>
       </c>
-      <c r="C36" s="17" t="str">
+      <c r="C36" s="12" t="str">
         <f>SEC_Processes!E34</f>
         <v>Fuel Technology District Heat RES</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="D36" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="E36" s="17" t="str">
+      <c r="E36" s="12" t="str">
         <f>SEC_Comm!D25</f>
         <v>RESDH</v>
       </c>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17">
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12">
         <v>1</v>
       </c>
-      <c r="K36" s="17">
+      <c r="K36" s="12">
         <v>50</v>
       </c>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17">
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12">
         <v>1000</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B37" s="17" t="str">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B37" s="12" t="str">
         <f>SEC_Processes!D35</f>
         <v>FT-COMELCH</v>
       </c>
-      <c r="C37" s="17" t="str">
+      <c r="C37" s="12" t="str">
         <f>SEC_Processes!E35</f>
         <v>Fuel Technology for Heating Electricity COM</v>
       </c>
-      <c r="D37" s="17" t="s">
+      <c r="D37" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="E37" s="17" t="str">
+      <c r="E37" s="12" t="str">
         <f>SEC_Comm!D30</f>
         <v>COMELCH</v>
       </c>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17">
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12">
         <v>1</v>
       </c>
-      <c r="K37" s="17">
+      <c r="K37" s="12">
         <v>50</v>
       </c>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17">
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12">
         <v>1000</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B38" s="17" t="str">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B38" s="12" t="str">
         <f>SEC_Processes!D36</f>
         <v>FT-COMHE</v>
       </c>
-      <c r="C38" s="17" t="str">
+      <c r="C38" s="12" t="str">
         <f>SEC_Processes!E36</f>
         <v>Fuel Technology District Heat COM</v>
       </c>
-      <c r="D38" s="17" t="s">
+      <c r="D38" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="E38" s="17" t="str">
+      <c r="E38" s="12" t="str">
         <f>SEC_Comm!D32</f>
         <v>COMDH</v>
       </c>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17">
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12">
         <v>1</v>
       </c>
-      <c r="K38" s="17">
+      <c r="K38" s="12">
         <v>50</v>
       </c>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17">
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12">
         <v>1000</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B39" s="17" t="str">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B39" s="12" t="str">
         <f>SEC_Processes!D37</f>
         <v>FT-INDELC</v>
       </c>
-      <c r="C39" s="17" t="str">
+      <c r="C39" s="12" t="str">
         <f>SEC_Processes!E37</f>
         <v>Fuel Technology for Electricity IND</v>
       </c>
-      <c r="D39" s="17" t="s">
+      <c r="D39" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="E39" s="17" t="str">
+      <c r="E39" s="12" t="str">
         <f>SEC_Comm!D35</f>
         <v>INDELC</v>
       </c>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17">
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12">
         <v>1</v>
       </c>
-      <c r="K39" s="17">
+      <c r="K39" s="12">
         <v>50</v>
       </c>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17">
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12">
         <v>1000</v>
       </c>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
-    </row>
-    <row r="42" spans="2:16" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B42" s="31" t="s">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+    </row>
+    <row r="42" spans="2:16" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="B42" s="24" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B45" s="23" t="s">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B45" s="16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B46" s="22" t="s">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B46" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C46" s="22" t="s">
+      <c r="C46" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="D46" s="22" t="s">
+      <c r="D46" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="E46" s="22" t="s">
+      <c r="E46" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="F46" s="51"/>
-    </row>
-    <row r="47" spans="2:16" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="19" t="s">
+      <c r="F46" s="43"/>
+    </row>
+    <row r="47" spans="2:16" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C47" s="19" t="s">
+      <c r="C47" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D47" s="19" t="s">
+      <c r="D47" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E47" s="21" t="s">
+      <c r="E47" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F47" s="37"/>
-      <c r="H47" s="65"/>
-      <c r="I47" s="65"/>
-      <c r="J47" s="65"/>
-      <c r="K47" s="65"/>
-      <c r="L47" s="65"/>
-      <c r="M47" s="65"/>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B48" s="17" t="str">
+      <c r="F47" s="29"/>
+      <c r="H47" s="56"/>
+      <c r="I47" s="56"/>
+      <c r="J47" s="56"/>
+      <c r="K47" s="56"/>
+      <c r="L47" s="56"/>
+      <c r="M47" s="56"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B48" s="12" t="str">
         <f>SEC_Comm!D10</f>
         <v>RHD</v>
       </c>
-      <c r="C48" s="17" t="str">
+      <c r="C48" s="12" t="str">
         <f>SEC_Comm!E10</f>
         <v>Residential heating Demand - Detached</v>
       </c>
-      <c r="D48" s="17" t="str">
+      <c r="D48" s="12" t="str">
         <f>SEC_Comm!F10</f>
         <v>Mm2</v>
       </c>
-      <c r="E48" s="17">
-        <v>20</v>
-      </c>
-      <c r="F48" s="17"/>
-      <c r="H48" s="65"/>
-      <c r="I48" s="41"/>
-      <c r="J48" s="41"/>
-      <c r="K48" s="41"/>
-      <c r="L48" s="41"/>
-      <c r="M48" s="65"/>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B49" s="17" t="str">
+      <c r="E48" s="74">
+        <v>19</v>
+      </c>
+      <c r="F48" s="12"/>
+      <c r="H48" s="56"/>
+      <c r="I48" s="33"/>
+      <c r="J48" s="33"/>
+      <c r="K48" s="33"/>
+      <c r="L48" s="33"/>
+      <c r="M48" s="56"/>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B49" s="12" t="str">
         <f>SEC_Comm!D11</f>
         <v>RCD</v>
       </c>
-      <c r="C49" s="17" t="str">
+      <c r="C49" s="12" t="str">
         <f>SEC_Comm!E11</f>
         <v>Residential cooling Demand - Detached</v>
       </c>
-      <c r="D49" s="17" t="str">
+      <c r="D49" s="12" t="str">
         <f>SEC_Comm!F11</f>
         <v>Mm2</v>
       </c>
-      <c r="E49" s="17">
-        <v>20</v>
-      </c>
-      <c r="F49" s="17"/>
-      <c r="H49" s="65"/>
-      <c r="I49" s="41"/>
-      <c r="J49" s="41"/>
-      <c r="K49" s="41"/>
-      <c r="L49" s="41"/>
-      <c r="M49" s="65"/>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B50" s="17" t="str">
+      <c r="E49" s="74">
+        <v>19</v>
+      </c>
+      <c r="F49" s="12"/>
+      <c r="H49" s="56"/>
+      <c r="I49" s="33"/>
+      <c r="J49" s="33"/>
+      <c r="K49" s="33"/>
+      <c r="L49" s="33"/>
+      <c r="M49" s="56"/>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B50" s="12" t="str">
         <f>SEC_Comm!D12</f>
         <v>RED</v>
       </c>
-      <c r="C50" s="17" t="str">
+      <c r="C50" s="12" t="str">
         <f>SEC_Comm!E12</f>
         <v>Residential electricity Demand - Detached</v>
       </c>
-      <c r="D50" s="17" t="str">
+      <c r="D50" s="12" t="str">
         <f>SEC_Comm!F12</f>
         <v>Mm2</v>
       </c>
-      <c r="E50" s="17">
-        <v>20</v>
-      </c>
-      <c r="F50" s="17"/>
-      <c r="H50" s="65"/>
-      <c r="I50" s="41"/>
-      <c r="J50" s="41"/>
-      <c r="K50" s="41"/>
-      <c r="L50" s="41"/>
-      <c r="M50" s="65"/>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B51" s="17" t="str">
+      <c r="E50" s="74">
+        <v>18</v>
+      </c>
+      <c r="F50" s="12"/>
+      <c r="H50" s="56"/>
+      <c r="I50" s="33"/>
+      <c r="J50" s="33"/>
+      <c r="K50" s="33"/>
+      <c r="L50" s="33"/>
+      <c r="M50" s="56"/>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B51" s="12" t="str">
         <f>SEC_Comm!D13</f>
         <v>RHM</v>
       </c>
-      <c r="C51" s="17" t="str">
+      <c r="C51" s="12" t="str">
         <f>SEC_Comm!E13</f>
         <v>Residential heating Demand - Multistorey</v>
       </c>
-      <c r="D51" s="17" t="str">
+      <c r="D51" s="12" t="str">
         <f>SEC_Comm!F13</f>
         <v>Mm2</v>
       </c>
-      <c r="E51" s="17">
-        <v>20</v>
-      </c>
-      <c r="F51" s="17"/>
-      <c r="H51" s="65"/>
-      <c r="I51" s="41"/>
-      <c r="J51" s="41"/>
-      <c r="K51" s="41"/>
-      <c r="L51" s="41"/>
-      <c r="M51" s="65"/>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B52" s="17" t="str">
+      <c r="E51" s="74">
+        <v>17</v>
+      </c>
+      <c r="F51" s="12"/>
+      <c r="H51" s="56"/>
+      <c r="I51" s="33"/>
+      <c r="J51" s="33"/>
+      <c r="K51" s="33"/>
+      <c r="L51" s="33"/>
+      <c r="M51" s="56"/>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B52" s="12" t="str">
         <f>SEC_Comm!D14</f>
         <v>RCM</v>
       </c>
-      <c r="C52" s="17" t="str">
+      <c r="C52" s="12" t="str">
         <f>SEC_Comm!E14</f>
         <v>Residential cooling Demand - Multistorey</v>
       </c>
-      <c r="D52" s="17" t="str">
+      <c r="D52" s="12" t="str">
         <f>SEC_Comm!F14</f>
         <v>Mm2</v>
       </c>
-      <c r="E52" s="17">
-        <v>20</v>
-      </c>
-      <c r="F52" s="17"/>
-      <c r="H52" s="65"/>
-      <c r="I52" s="41"/>
-      <c r="J52" s="41"/>
-      <c r="K52" s="41"/>
-      <c r="L52" s="41"/>
-      <c r="M52" s="65"/>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B53" s="17" t="str">
+      <c r="E52" s="74">
+        <v>15</v>
+      </c>
+      <c r="F52" s="12"/>
+      <c r="H52" s="56"/>
+      <c r="I52" s="33"/>
+      <c r="J52" s="33"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="33"/>
+      <c r="M52" s="56"/>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B53" s="12" t="str">
         <f>SEC_Comm!D15</f>
         <v>REM</v>
       </c>
-      <c r="C53" s="17" t="str">
+      <c r="C53" s="12" t="str">
         <f>SEC_Comm!E15</f>
         <v>Residential electricity Demand - Multistorey</v>
       </c>
-      <c r="D53" s="17" t="str">
+      <c r="D53" s="12" t="str">
         <f>SEC_Comm!F15</f>
         <v>Mm2</v>
       </c>
-      <c r="E53" s="17">
-        <v>20</v>
-      </c>
-      <c r="F53" s="17"/>
-      <c r="H53" s="65"/>
-      <c r="I53" s="41"/>
-      <c r="J53" s="41"/>
-      <c r="K53" s="41"/>
-      <c r="L53" s="41"/>
-      <c r="M53" s="65"/>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B54" s="17" t="str">
+      <c r="E53" s="74">
+        <v>16</v>
+      </c>
+      <c r="F53" s="12"/>
+      <c r="H53" s="56"/>
+      <c r="I53" s="33"/>
+      <c r="J53" s="33"/>
+      <c r="K53" s="33"/>
+      <c r="L53" s="33"/>
+      <c r="M53" s="56"/>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B54" s="12" t="str">
         <f>SEC_Comm!D16</f>
         <v>CH</v>
       </c>
-      <c r="C54" s="17" t="str">
+      <c r="C54" s="12" t="str">
         <f>SEC_Comm!E16</f>
         <v>Commercial heating Demand</v>
       </c>
-      <c r="D54" s="17" t="str">
+      <c r="D54" s="12" t="str">
         <f>SEC_Comm!F16</f>
         <v>Mm2</v>
       </c>
-      <c r="E54" s="17">
-        <v>5</v>
-      </c>
-      <c r="F54" s="17"/>
-      <c r="H54" s="65"/>
-      <c r="I54" s="41"/>
-      <c r="J54" s="41"/>
-      <c r="K54" s="41"/>
-      <c r="L54" s="41"/>
-      <c r="M54" s="65"/>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B55" s="17" t="str">
+      <c r="E54" s="74">
+        <v>4</v>
+      </c>
+      <c r="F54" s="12"/>
+      <c r="H54" s="56"/>
+      <c r="I54" s="33"/>
+      <c r="J54" s="33"/>
+      <c r="K54" s="33"/>
+      <c r="L54" s="33"/>
+      <c r="M54" s="56"/>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B55" s="12" t="str">
         <f>SEC_Comm!D17</f>
         <v>CC</v>
       </c>
-      <c r="C55" s="17" t="str">
+      <c r="C55" s="12" t="str">
         <f>SEC_Comm!E17</f>
         <v>Commercial cooling Demand</v>
       </c>
-      <c r="D55" s="17" t="str">
+      <c r="D55" s="12" t="str">
         <f>SEC_Comm!F17</f>
         <v>Mm2</v>
       </c>
-      <c r="E55" s="17">
-        <v>5</v>
-      </c>
-      <c r="F55" s="17"/>
-      <c r="H55" s="65"/>
-      <c r="I55" s="41"/>
-      <c r="J55" s="41"/>
-      <c r="K55" s="41"/>
-      <c r="L55" s="41"/>
-      <c r="M55" s="65"/>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B56" s="17" t="str">
+      <c r="E55" s="74">
+        <v>6</v>
+      </c>
+      <c r="F55" s="12"/>
+      <c r="H55" s="56"/>
+      <c r="I55" s="33"/>
+      <c r="J55" s="33"/>
+      <c r="K55" s="33"/>
+      <c r="L55" s="33"/>
+      <c r="M55" s="56"/>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B56" s="12" t="str">
         <f>SEC_Comm!D18</f>
         <v>IPP</v>
       </c>
-      <c r="C56" s="17" t="str">
+      <c r="C56" s="12" t="str">
         <f>SEC_Comm!E18</f>
         <v>Demand for pulp and paper</v>
       </c>
-      <c r="D56" s="17" t="str">
+      <c r="D56" s="12" t="str">
         <f>SEC_Comm!F18</f>
         <v>kt</v>
       </c>
-      <c r="E56" s="17">
-        <v>5.2</v>
-      </c>
-      <c r="F56" s="17"/>
-      <c r="H56" s="65"/>
-      <c r="I56" s="41"/>
-      <c r="J56" s="41"/>
-      <c r="K56" s="41"/>
-      <c r="L56" s="41"/>
-      <c r="M56" s="65"/>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="H57" s="65"/>
-      <c r="I57" s="41"/>
-      <c r="J57" s="41"/>
-      <c r="K57" s="41"/>
-      <c r="L57" s="41"/>
-      <c r="M57" s="65"/>
-    </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="H58" s="65"/>
-      <c r="I58" s="41"/>
-      <c r="J58" s="41"/>
-      <c r="K58" s="41"/>
-      <c r="L58" s="41"/>
-      <c r="M58" s="65"/>
-    </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="H59" s="65"/>
-      <c r="I59" s="41"/>
-      <c r="J59" s="41"/>
-      <c r="K59" s="41"/>
-      <c r="L59" s="41"/>
-      <c r="M59" s="65"/>
-    </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="H60" s="65"/>
-      <c r="I60" s="41"/>
-      <c r="J60" s="41"/>
-      <c r="K60" s="41"/>
-      <c r="L60" s="41"/>
-      <c r="M60" s="65"/>
-    </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="H61" s="65"/>
-      <c r="I61" s="41"/>
-      <c r="J61" s="41"/>
-      <c r="K61" s="41"/>
-      <c r="L61" s="41"/>
-      <c r="M61" s="65"/>
-    </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="H62" s="65"/>
-      <c r="I62" s="41"/>
-      <c r="J62" s="41"/>
-      <c r="K62" s="41"/>
-      <c r="L62" s="41"/>
-      <c r="M62" s="65"/>
-    </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="H63" s="65"/>
-      <c r="I63" s="41"/>
-      <c r="J63" s="41"/>
-      <c r="K63" s="41"/>
-      <c r="L63" s="66"/>
-      <c r="M63" s="65"/>
-    </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="H64" s="65"/>
-      <c r="I64" s="41"/>
-      <c r="J64" s="41"/>
-      <c r="K64" s="41"/>
-      <c r="L64" s="66"/>
-      <c r="M64" s="65"/>
-    </row>
-    <row r="65" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H65" s="65"/>
-      <c r="I65" s="41"/>
-      <c r="J65" s="41"/>
-      <c r="K65" s="41"/>
-      <c r="L65" s="66"/>
-      <c r="M65" s="65"/>
-    </row>
-    <row r="66" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H66" s="65"/>
-      <c r="I66" s="41"/>
-      <c r="J66" s="41"/>
-      <c r="K66" s="41"/>
-      <c r="L66" s="66"/>
-      <c r="M66" s="65"/>
-    </row>
-    <row r="67" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H67" s="65"/>
-      <c r="I67" s="41"/>
-      <c r="J67" s="41"/>
-      <c r="K67" s="41"/>
-      <c r="L67" s="66"/>
-      <c r="M67" s="65"/>
-    </row>
-    <row r="68" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H68" s="65"/>
-      <c r="I68" s="41"/>
-      <c r="J68" s="41"/>
-      <c r="K68" s="41"/>
-      <c r="L68" s="66"/>
-      <c r="M68" s="65"/>
-    </row>
-    <row r="69" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H69" s="65"/>
-      <c r="I69" s="65"/>
-      <c r="J69" s="65"/>
-      <c r="K69" s="65"/>
-      <c r="L69" s="65"/>
-      <c r="M69" s="65"/>
+      <c r="E56" s="74">
+        <v>7</v>
+      </c>
+      <c r="F56" s="12"/>
+      <c r="H56" s="56"/>
+      <c r="I56" s="33"/>
+      <c r="J56" s="33"/>
+      <c r="K56" s="33"/>
+      <c r="L56" s="33"/>
+      <c r="M56" s="56"/>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H57" s="56"/>
+      <c r="I57" s="33"/>
+      <c r="J57" s="33"/>
+      <c r="K57" s="33"/>
+      <c r="L57" s="33"/>
+      <c r="M57" s="56"/>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H58" s="56"/>
+      <c r="I58" s="33"/>
+      <c r="J58" s="33"/>
+      <c r="K58" s="33"/>
+      <c r="L58" s="33"/>
+      <c r="M58" s="56"/>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H59" s="56"/>
+      <c r="I59" s="33"/>
+      <c r="J59" s="33"/>
+      <c r="K59" s="33"/>
+      <c r="L59" s="33"/>
+      <c r="M59" s="56"/>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H60" s="56"/>
+      <c r="I60" s="33"/>
+      <c r="J60" s="33"/>
+      <c r="K60" s="33"/>
+      <c r="L60" s="33"/>
+      <c r="M60" s="56"/>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H61" s="56"/>
+      <c r="I61" s="33"/>
+      <c r="J61" s="33"/>
+      <c r="K61" s="33"/>
+      <c r="L61" s="33"/>
+      <c r="M61" s="56"/>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H62" s="56"/>
+      <c r="I62" s="33"/>
+      <c r="J62" s="33"/>
+      <c r="K62" s="33"/>
+      <c r="L62" s="33"/>
+      <c r="M62" s="56"/>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H63" s="56"/>
+      <c r="I63" s="33"/>
+      <c r="J63" s="33"/>
+      <c r="K63" s="33"/>
+      <c r="L63" s="57"/>
+      <c r="M63" s="56"/>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H64" s="56"/>
+      <c r="I64" s="33"/>
+      <c r="J64" s="33"/>
+      <c r="K64" s="33"/>
+      <c r="L64" s="57"/>
+      <c r="M64" s="56"/>
+    </row>
+    <row r="65" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H65" s="56"/>
+      <c r="I65" s="33"/>
+      <c r="J65" s="33"/>
+      <c r="K65" s="33"/>
+      <c r="L65" s="57"/>
+      <c r="M65" s="56"/>
+    </row>
+    <row r="66" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H66" s="56"/>
+      <c r="I66" s="33"/>
+      <c r="J66" s="33"/>
+      <c r="K66" s="33"/>
+      <c r="L66" s="57"/>
+      <c r="M66" s="56"/>
+    </row>
+    <row r="67" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H67" s="56"/>
+      <c r="I67" s="33"/>
+      <c r="J67" s="33"/>
+      <c r="K67" s="33"/>
+      <c r="L67" s="57"/>
+      <c r="M67" s="56"/>
+    </row>
+    <row r="68" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H68" s="56"/>
+      <c r="I68" s="33"/>
+      <c r="J68" s="33"/>
+      <c r="K68" s="33"/>
+      <c r="L68" s="57"/>
+      <c r="M68" s="56"/>
+    </row>
+    <row r="69" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H69" s="56"/>
+      <c r="I69" s="56"/>
+      <c r="J69" s="56"/>
+      <c r="K69" s="56"/>
+      <c r="L69" s="56"/>
+      <c r="M69" s="56"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5676,44 +5728,44 @@
       <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B3" s="54" t="s">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="45" t="s">
         <v>197</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B4" s="56" t="s">
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+    </row>
+    <row r="4" spans="2:4" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="62"/>
-    </row>
-    <row r="5" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="58" t="s">
+      <c r="D4" s="53"/>
+    </row>
+    <row r="5" spans="2:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="49" t="s">
         <v>135</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="50" t="s">
         <v>198</v>
       </c>
-      <c r="D5" s="63"/>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="60" t="s">
+      <c r="D5" s="54"/>
+    </row>
+    <row r="6" spans="2:4" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="B6" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="61">
+      <c r="C6" s="52">
         <v>56.97</v>
       </c>
-      <c r="D6" s="64"/>
+      <c r="D6" s="55"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/VT_SHR_RCI_V01.xlsx
+++ b/VT_SHR_RCI_V01.xlsx
@@ -1556,7 +1556,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1602,6 +1602,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="11"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1673,7 +1679,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1807,6 +1813,8 @@
     <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3730,8 +3738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AD69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4022,8 +4030,9 @@
       </c>
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
-      <c r="J11" s="17">
-        <v>2.25</v>
+      <c r="J11" s="68">
+        <f>1000/(120*3.6)</f>
+        <v>2.3148148148148149</v>
       </c>
       <c r="K11" s="17">
         <v>100</v>
@@ -4076,8 +4085,9 @@
       </c>
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
-      <c r="J12" s="17">
-        <v>30</v>
+      <c r="J12" s="68">
+        <f>J11*3</f>
+        <v>6.9444444444444446</v>
       </c>
       <c r="K12" s="17">
         <v>100</v>
@@ -4130,8 +4140,9 @@
       </c>
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
-      <c r="J13" s="17">
-        <v>9.6</v>
+      <c r="J13" s="68">
+        <f>J12</f>
+        <v>6.9444444444444446</v>
       </c>
       <c r="K13" s="17">
         <v>100</v>
@@ -4184,8 +4195,9 @@
       </c>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
-      <c r="J14" s="17">
-        <v>2</v>
+      <c r="J14" s="68">
+        <f>J11*1.01</f>
+        <v>2.3379629629629632</v>
       </c>
       <c r="K14" s="17">
         <v>100</v>
@@ -4238,8 +4250,9 @@
       </c>
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
-      <c r="J15" s="17">
-        <v>20</v>
+      <c r="J15" s="68">
+        <f t="shared" ref="J15:J16" si="0">J12*1.01</f>
+        <v>7.0138888888888893</v>
       </c>
       <c r="K15" s="17">
         <v>100</v>
@@ -4292,8 +4305,9 @@
       </c>
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
-      <c r="J16" s="17">
-        <v>9.3000000000000007</v>
+      <c r="J16" s="68">
+        <f t="shared" si="0"/>
+        <v>7.0138888888888893</v>
       </c>
       <c r="K16" s="17">
         <v>100</v>
@@ -4455,7 +4469,7 @@
       <c r="H19" s="17"/>
       <c r="I19" s="32"/>
       <c r="J19" s="17">
-        <v>183</v>
+        <v>100</v>
       </c>
       <c r="K19" s="17">
         <v>100</v>
@@ -4566,7 +4580,7 @@
         <v>20</v>
       </c>
       <c r="L21" s="17">
-        <f t="shared" ref="L21:L30" si="0">8760*3.6/1000000</f>
+        <f t="shared" ref="L21:L30" si="1">8760*3.6/1000000</f>
         <v>3.1536000000000002E-2</v>
       </c>
       <c r="M21" s="17"/>
@@ -4619,7 +4633,7 @@
         <v>20</v>
       </c>
       <c r="L22" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.1536000000000002E-2</v>
       </c>
       <c r="M22" s="17"/>
@@ -4672,7 +4686,7 @@
         <v>20</v>
       </c>
       <c r="L23" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.1536000000000002E-2</v>
       </c>
       <c r="M23" s="17"/>
@@ -4725,7 +4739,7 @@
         <v>20</v>
       </c>
       <c r="L24" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.1536000000000002E-2</v>
       </c>
       <c r="M24" s="17"/>
@@ -4765,7 +4779,7 @@
         <v>20</v>
       </c>
       <c r="L25" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.1536000000000002E-2</v>
       </c>
       <c r="M25" s="17"/>
@@ -4805,7 +4819,7 @@
         <v>20</v>
       </c>
       <c r="L26" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.1536000000000002E-2</v>
       </c>
       <c r="M26" s="17"/>
@@ -4845,7 +4859,7 @@
         <v>20</v>
       </c>
       <c r="L27" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.1536000000000002E-2</v>
       </c>
       <c r="M27" s="17"/>
@@ -4886,7 +4900,7 @@
         <v>20</v>
       </c>
       <c r="L28" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.1536000000000002E-2</v>
       </c>
       <c r="M28" s="38"/>
@@ -4894,7 +4908,7 @@
         <v>0.2</v>
       </c>
       <c r="O28" s="17">
-        <v>2200</v>
+        <v>1000</v>
       </c>
       <c r="P28" s="38"/>
     </row>
@@ -4927,7 +4941,7 @@
         <v>20</v>
       </c>
       <c r="L29" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.1536000000000002E-2</v>
       </c>
       <c r="M29" s="38"/>
@@ -4968,7 +4982,7 @@
         <v>20</v>
       </c>
       <c r="L30" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.1536000000000002E-2</v>
       </c>
       <c r="M30" s="38"/>
@@ -4976,7 +4990,7 @@
         <v>0.2</v>
       </c>
       <c r="O30" s="17">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="P30" s="38"/>
     </row>
@@ -5353,8 +5367,8 @@
         <f>SEC_Comm!F10</f>
         <v>Mm2</v>
       </c>
-      <c r="E48" s="17">
-        <v>20</v>
+      <c r="E48" s="67">
+        <v>10</v>
       </c>
       <c r="F48" s="17"/>
       <c r="H48" s="65"/>
@@ -5378,7 +5392,8 @@
         <v>Mm2</v>
       </c>
       <c r="E49" s="17">
-        <v>20</v>
+        <f>E48</f>
+        <v>10</v>
       </c>
       <c r="F49" s="17"/>
       <c r="H49" s="65"/>
@@ -5402,7 +5417,8 @@
         <v>Mm2</v>
       </c>
       <c r="E50" s="17">
-        <v>20</v>
+        <f>E49</f>
+        <v>10</v>
       </c>
       <c r="F50" s="17"/>
       <c r="H50" s="65"/>
@@ -5425,8 +5441,8 @@
         <f>SEC_Comm!F13</f>
         <v>Mm2</v>
       </c>
-      <c r="E51" s="17">
-        <v>20</v>
+      <c r="E51" s="67">
+        <v>10</v>
       </c>
       <c r="F51" s="17"/>
       <c r="H51" s="65"/>
@@ -5498,7 +5514,7 @@
         <v>Mm2</v>
       </c>
       <c r="E54" s="17">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F54" s="17"/>
       <c r="H54" s="65"/>
@@ -5522,7 +5538,7 @@
         <v>Mm2</v>
       </c>
       <c r="E55" s="17">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F55" s="17"/>
       <c r="H55" s="65"/>

--- a/VT_SHR_RCI_V01.xlsx
+++ b/VT_SHR_RCI_V01.xlsx
@@ -2324,8 +2324,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:S39"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3738,8 +3738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AD69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4360,8 +4360,9 @@
       </c>
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
-      <c r="J17" s="17">
-        <v>1</v>
+      <c r="J17" s="68">
+        <f>J14</f>
+        <v>2.3379629629629632</v>
       </c>
       <c r="K17" s="17">
         <v>100</v>
@@ -4414,8 +4415,9 @@
       </c>
       <c r="H18" s="17"/>
       <c r="I18" s="17"/>
-      <c r="J18" s="17">
-        <v>2</v>
+      <c r="J18" s="68">
+        <f>J16</f>
+        <v>7.0138888888888893</v>
       </c>
       <c r="K18" s="17">
         <v>100</v>
@@ -5466,7 +5468,7 @@
         <v>Mm2</v>
       </c>
       <c r="E52" s="17">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F52" s="17"/>
       <c r="H52" s="65"/>
@@ -5490,7 +5492,7 @@
         <v>Mm2</v>
       </c>
       <c r="E53" s="17">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F53" s="17"/>
       <c r="H53" s="65"/>
@@ -5538,6 +5540,7 @@
         <v>Mm2</v>
       </c>
       <c r="E55" s="17">
+        <f>E54</f>
         <v>20</v>
       </c>
       <c r="F55" s="17"/>

--- a/VT_SHR_RCI_V01.xlsx
+++ b/VT_SHR_RCI_V01.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_Models\~g2v_TIMES-Shire\Course_Calibration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stpet\Git models\TIMES-SHIRE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9552" yWindow="-12" windowWidth="9600" windowHeight="11640" tabRatio="901" activeTab="2"/>
+    <workbookView xWindow="9555" yWindow="-15" windowWidth="9600" windowHeight="11640" tabRatio="901" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -23,7 +23,7 @@
   <definedNames>
     <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -798,7 +798,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="231">
   <si>
     <t>CommName</t>
   </si>
@@ -1443,17 +1443,65 @@
   </si>
   <si>
     <t>GIT</t>
+  </si>
+  <si>
+    <t>Residential</t>
+  </si>
+  <si>
+    <t>Energy Balance</t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>ACT</t>
+  </si>
+  <si>
+    <t>CONS</t>
+  </si>
+  <si>
+    <t>Biomass</t>
+  </si>
+  <si>
+    <t>MB</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>DH</t>
+  </si>
+  <si>
+    <t>Commercial</t>
+  </si>
+  <si>
+    <t>Heating</t>
+  </si>
+  <si>
+    <t>Cooling</t>
+  </si>
+  <si>
+    <t>DEMAND</t>
+  </si>
+  <si>
+    <t>Production of Mm2</t>
+  </si>
+  <si>
+    <t>District heating</t>
+  </si>
+  <si>
+    <t>Energy Balance (PJ)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0;\-0.0;0"/>
     <numFmt numFmtId="165" formatCode="\Te\x\t"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1559,8 +1607,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1621,8 +1681,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1679,6 +1751,170 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1689,7 +1925,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1836,6 +2072,48 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1857,6 +2135,246 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>136071</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>693963</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>108856</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10708821" y="9171214"/>
+          <a:ext cx="3088821" cy="1088571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>e48=e49=e50</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>e41=e42=e53</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>e54=e55</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>721178</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>870858</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>217714</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27159857" y="7089321"/>
+          <a:ext cx="5851072" cy="1673679"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>My suggestion for the exercise:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>1. Remove</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t> the capacity in field O20 and let them find it</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t>2. Remove the eff in field j14 and let them find it</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>You</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t> can do 1. and after that 2. or you can do it in the same time. But, if yiu do it in the same time, be aware that there is no unique solution.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>PS:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t> Everything changed from your version is marked in red</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2349,19 +2867,19 @@
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
-    <col min="2" max="3" width="19.44140625" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" customWidth="1"/>
-    <col min="5" max="5" width="50.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="50.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" customWidth="1"/>
-    <col min="11" max="11" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" customWidth="1"/>
+    <col min="11" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2370,13 +2888,13 @@
       </c>
       <c r="C1" s="24"/>
     </row>
-    <row r="4" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B4" s="17" t="s">
         <v>33</v>
       </c>
       <c r="C4" s="17"/>
     </row>
-    <row r="6" spans="2:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" ht="18" x14ac:dyDescent="0.25">
       <c r="B6" s="58" t="s">
         <v>43</v>
       </c>
@@ -2389,7 +2907,7 @@
       <c r="I6" s="60"/>
       <c r="J6" s="60"/>
     </row>
-    <row r="7" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="61" t="s">
         <v>14</v>
       </c>
@@ -2402,7 +2920,7 @@
       <c r="I7" s="60"/>
       <c r="J7" s="60"/>
     </row>
-    <row r="8" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="62" t="s">
         <v>7</v>
       </c>
@@ -2431,7 +2949,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="65" t="s">
         <v>49</v>
       </c>
@@ -2460,7 +2978,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="67" t="s">
         <v>94</v>
       </c>
@@ -2479,7 +2997,7 @@
       <c r="I10" s="67"/>
       <c r="J10" s="67"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="67"/>
       <c r="C11" s="67"/>
       <c r="D11" s="67" t="s">
@@ -2496,7 +3014,7 @@
       <c r="I11" s="67"/>
       <c r="J11" s="67"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="67"/>
       <c r="C12" s="67"/>
       <c r="D12" s="67" t="s">
@@ -2513,7 +3031,7 @@
       <c r="I12" s="67"/>
       <c r="J12" s="67"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="67"/>
       <c r="C13" s="67"/>
       <c r="D13" s="67" t="s">
@@ -2530,7 +3048,7 @@
       <c r="I13" s="67"/>
       <c r="J13" s="67"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="67"/>
       <c r="C14" s="67"/>
       <c r="D14" s="67" t="s">
@@ -2547,7 +3065,7 @@
       <c r="I14" s="67"/>
       <c r="J14" s="67"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="67"/>
       <c r="C15" s="67"/>
       <c r="D15" s="67" t="s">
@@ -2564,7 +3082,7 @@
       <c r="I15" s="67"/>
       <c r="J15" s="67"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="67"/>
       <c r="C16" s="67"/>
       <c r="D16" s="67" t="s">
@@ -2581,7 +3099,7 @@
       <c r="I16" s="67"/>
       <c r="J16" s="67"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" s="67"/>
       <c r="C17" s="67"/>
       <c r="D17" s="67" t="s">
@@ -2599,7 +3117,7 @@
       <c r="J17" s="67"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" s="68"/>
       <c r="C18" s="68"/>
       <c r="D18" s="69" t="s">
@@ -2616,7 +3134,7 @@
       <c r="I18" s="68"/>
       <c r="J18" s="68"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" s="67" t="s">
         <v>63</v>
       </c>
@@ -2635,7 +3153,7 @@
       <c r="I19" s="67"/>
       <c r="J19" s="67"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20" s="67"/>
       <c r="C20" s="67"/>
       <c r="D20" s="70" t="s">
@@ -2652,7 +3170,7 @@
       <c r="I20" s="67"/>
       <c r="J20" s="67"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="67"/>
       <c r="C21" s="67"/>
       <c r="D21" s="70" t="s">
@@ -2673,7 +3191,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" s="67"/>
       <c r="C22" s="67"/>
       <c r="D22" s="70" t="s">
@@ -2694,7 +3212,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23" s="67"/>
       <c r="C23" s="67"/>
       <c r="D23" s="70" t="s">
@@ -2713,7 +3231,7 @@
       <c r="I23" s="67"/>
       <c r="J23" s="67"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24" s="67"/>
       <c r="C24" s="67"/>
       <c r="D24" s="70" t="s">
@@ -2732,7 +3250,7 @@
       <c r="I24" s="67"/>
       <c r="J24" s="67"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B25" s="67"/>
       <c r="C25" s="67"/>
       <c r="D25" s="70" t="s">
@@ -2751,7 +3269,7 @@
       <c r="I25" s="67"/>
       <c r="J25" s="67"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26" s="67"/>
       <c r="C26" s="67"/>
       <c r="D26" s="70" t="s">
@@ -2770,7 +3288,7 @@
       <c r="I26" s="67"/>
       <c r="J26" s="67"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27" s="67"/>
       <c r="C27" s="67"/>
       <c r="D27" s="67" t="s">
@@ -2789,7 +3307,7 @@
       <c r="I27" s="67"/>
       <c r="J27" s="67"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28" s="67"/>
       <c r="C28" s="67"/>
       <c r="D28" s="67" t="s">
@@ -2808,7 +3326,7 @@
       <c r="I28" s="67"/>
       <c r="J28" s="67"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29" s="67"/>
       <c r="C29" s="67"/>
       <c r="D29" s="67" t="s">
@@ -2827,7 +3345,7 @@
       <c r="I29" s="67"/>
       <c r="J29" s="67"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B30" s="67"/>
       <c r="C30" s="67"/>
       <c r="D30" s="70" t="s">
@@ -2848,7 +3366,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B31" s="67"/>
       <c r="C31" s="67"/>
       <c r="D31" s="70" t="s">
@@ -2867,7 +3385,7 @@
       <c r="I31" s="67"/>
       <c r="J31" s="67"/>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B32" s="67"/>
       <c r="C32" s="67"/>
       <c r="D32" s="70" t="s">
@@ -2886,7 +3404,7 @@
       <c r="I32" s="67"/>
       <c r="J32" s="67"/>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B33" s="67"/>
       <c r="C33" s="67"/>
       <c r="D33" s="70" t="s">
@@ -2905,7 +3423,7 @@
       <c r="I33" s="67"/>
       <c r="J33" s="67"/>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B34" s="67"/>
       <c r="C34" s="67"/>
       <c r="D34" s="70" t="s">
@@ -2932,7 +3450,7 @@
       <c r="R34" s="56"/>
       <c r="S34" s="56"/>
     </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B35" s="67"/>
       <c r="C35" s="67"/>
       <c r="D35" s="70" t="s">
@@ -2961,7 +3479,7 @@
       <c r="R35" s="56"/>
       <c r="S35" s="56"/>
     </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B36" s="67"/>
       <c r="C36" s="67"/>
       <c r="D36" s="67" t="s">
@@ -2988,7 +3506,7 @@
       <c r="R36" s="56"/>
       <c r="S36" s="56"/>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="71" t="s">
         <v>87</v>
       </c>
@@ -3007,7 +3525,7 @@
       <c r="I37" s="71"/>
       <c r="J37" s="71"/>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B38" s="67"/>
       <c r="C38" s="67"/>
       <c r="D38" s="70" t="s">
@@ -3024,7 +3542,7 @@
       <c r="I38" s="67"/>
       <c r="J38" s="67"/>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B39" s="67"/>
       <c r="C39" s="67"/>
       <c r="D39" s="70" t="s">
@@ -3058,32 +3576,32 @@
       <selection activeCell="E36" sqref="E35:E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.109375" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="65.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5546875" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="65.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B1" s="24" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
     </row>
-    <row r="3" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="58" t="s">
         <v>44</v>
@@ -3097,7 +3615,7 @@
       <c r="I5" s="73"/>
       <c r="J5" s="73"/>
     </row>
-    <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="61" t="s">
         <v>16</v>
       </c>
@@ -3110,7 +3628,7 @@
       <c r="I6" s="73"/>
       <c r="J6" s="73"/>
     </row>
-    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="63" t="s">
         <v>11</v>
       </c>
@@ -3139,7 +3657,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="66" t="s">
         <v>50</v>
       </c>
@@ -3168,7 +3686,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="70" t="s">
         <v>95</v>
       </c>
@@ -3189,7 +3707,7 @@
       <c r="I9" s="70"/>
       <c r="J9" s="70"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="70"/>
       <c r="C10" s="70"/>
       <c r="D10" s="67" t="s">
@@ -3208,7 +3726,7 @@
       <c r="I10" s="70"/>
       <c r="J10" s="70"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="70"/>
       <c r="C11" s="70"/>
       <c r="D11" s="67" t="s">
@@ -3227,7 +3745,7 @@
       <c r="I11" s="70"/>
       <c r="J11" s="70"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="70"/>
       <c r="C12" s="70"/>
       <c r="D12" s="67" t="s">
@@ -3246,7 +3764,7 @@
       <c r="I12" s="70"/>
       <c r="J12" s="70"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="70"/>
       <c r="C13" s="70"/>
       <c r="D13" s="67" t="s">
@@ -3265,7 +3783,7 @@
       <c r="I13" s="70"/>
       <c r="J13" s="70"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="70"/>
       <c r="C14" s="70"/>
       <c r="D14" s="67" t="s">
@@ -3284,7 +3802,7 @@
       <c r="I14" s="70"/>
       <c r="J14" s="70"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="70"/>
       <c r="C15" s="70"/>
       <c r="D15" s="67" t="s">
@@ -3303,7 +3821,7 @@
       <c r="I15" s="70"/>
       <c r="J15" s="70"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="70"/>
       <c r="C16" s="70"/>
       <c r="D16" s="67" t="s">
@@ -3322,7 +3840,7 @@
       <c r="I16" s="70"/>
       <c r="J16" s="70"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="70"/>
       <c r="C17" s="70"/>
       <c r="D17" s="67" t="s">
@@ -3341,7 +3859,7 @@
       <c r="I17" s="70"/>
       <c r="J17" s="70"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="72" t="s">
         <v>98</v>
       </c>
@@ -3364,7 +3882,7 @@
       <c r="I18" s="72"/>
       <c r="J18" s="72"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="70"/>
       <c r="C19" s="70"/>
       <c r="D19" s="70" t="s">
@@ -3385,7 +3903,7 @@
       <c r="I19" s="70"/>
       <c r="J19" s="70"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="70"/>
       <c r="C20" s="70"/>
       <c r="D20" s="70" t="s">
@@ -3406,7 +3924,7 @@
       <c r="I20" s="70"/>
       <c r="J20" s="70"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="70"/>
       <c r="C21" s="70"/>
       <c r="D21" s="70" t="s">
@@ -3427,7 +3945,7 @@
       <c r="I21" s="70"/>
       <c r="J21" s="70"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="70"/>
       <c r="C22" s="70"/>
       <c r="D22" s="70" t="s">
@@ -3448,7 +3966,7 @@
       <c r="I22" s="70"/>
       <c r="J22" s="70"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="70"/>
       <c r="C23" s="70"/>
       <c r="D23" s="70" t="s">
@@ -3469,7 +3987,7 @@
       <c r="I23" s="70"/>
       <c r="J23" s="70"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="70"/>
       <c r="C24" s="70"/>
       <c r="D24" s="70" t="s">
@@ -3490,7 +4008,7 @@
       <c r="I24" s="70"/>
       <c r="J24" s="70"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25" s="70"/>
       <c r="C25" s="70"/>
       <c r="D25" s="70" t="s">
@@ -3511,7 +4029,7 @@
       <c r="I25" s="70"/>
       <c r="J25" s="70"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" s="70"/>
       <c r="C26" s="70"/>
       <c r="D26" s="70" t="s">
@@ -3532,7 +4050,7 @@
       <c r="I26" s="70"/>
       <c r="J26" s="70"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" s="70"/>
       <c r="C27" s="70"/>
       <c r="D27" s="70" t="s">
@@ -3553,7 +4071,7 @@
       <c r="I27" s="70"/>
       <c r="J27" s="70"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" s="70"/>
       <c r="C28" s="70"/>
       <c r="D28" s="67" t="s">
@@ -3574,7 +4092,7 @@
       <c r="I28" s="70"/>
       <c r="J28" s="70"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" s="70"/>
       <c r="C29" s="70"/>
       <c r="D29" s="70" t="s">
@@ -3593,7 +4111,7 @@
       <c r="I29" s="70"/>
       <c r="J29" s="70"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30" s="72"/>
       <c r="C30" s="72"/>
       <c r="D30" s="72" t="s">
@@ -3614,7 +4132,7 @@
       <c r="I30" s="72"/>
       <c r="J30" s="72"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B31" s="70"/>
       <c r="C31" s="70"/>
       <c r="D31" s="70" t="s">
@@ -3635,7 +4153,7 @@
       <c r="I31" s="70"/>
       <c r="J31" s="70"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B32" s="70"/>
       <c r="C32" s="70"/>
       <c r="D32" s="70" t="s">
@@ -3656,7 +4174,7 @@
       <c r="I32" s="70"/>
       <c r="J32" s="70"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B33" s="70"/>
       <c r="C33" s="70"/>
       <c r="D33" s="70" t="s">
@@ -3677,7 +4195,7 @@
       <c r="I33" s="70"/>
       <c r="J33" s="70"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B34" s="70"/>
       <c r="C34" s="70"/>
       <c r="D34" s="70" t="s">
@@ -3698,7 +4216,7 @@
       <c r="I34" s="70"/>
       <c r="J34" s="70"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B35" s="70"/>
       <c r="C35" s="70"/>
       <c r="D35" s="70" t="s">
@@ -3719,7 +4237,7 @@
       <c r="I35" s="70"/>
       <c r="J35" s="70"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B36" s="70"/>
       <c r="C36" s="70"/>
       <c r="D36" s="70" t="s">
@@ -3740,7 +4258,7 @@
       <c r="I36" s="70"/>
       <c r="J36" s="70"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B37" s="70"/>
       <c r="C37" s="70"/>
       <c r="D37" s="70" t="s">
@@ -3774,53 +4292,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AD69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="F4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" customWidth="1"/>
-    <col min="3" max="3" width="69.88671875" customWidth="1"/>
-    <col min="4" max="4" width="31.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" customWidth="1"/>
-    <col min="8" max="9" width="13.88671875" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="69.85546875" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="8" max="9" width="13.85546875" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.5546875" customWidth="1"/>
-    <col min="19" max="19" width="38.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.6640625" customWidth="1"/>
-    <col min="22" max="22" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.5703125" customWidth="1"/>
+    <col min="19" max="19" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.42578125" customWidth="1"/>
+    <col min="22" max="22" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="12" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:30" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:30" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B1" s="24" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="2:30" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:30" ht="18" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="2:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B5" s="17" t="s">
         <v>54</v>
       </c>
@@ -3841,7 +4359,7 @@
       <c r="AC5" s="34"/>
       <c r="AD5" s="34"/>
     </row>
-    <row r="6" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B6" s="8"/>
       <c r="C6" s="2"/>
       <c r="E6" s="4"/>
@@ -3868,7 +4386,7 @@
       <c r="AC6" s="34"/>
       <c r="AD6" s="34"/>
     </row>
-    <row r="7" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:30" x14ac:dyDescent="0.2">
       <c r="H7" s="21" t="s">
         <v>13</v>
       </c>
@@ -3895,7 +4413,7 @@
       <c r="AC7" s="23"/>
       <c r="AD7" s="20"/>
     </row>
-    <row r="8" spans="2:30" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:30" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="27" t="s">
         <v>1</v>
       </c>
@@ -3955,7 +4473,7 @@
       <c r="AC8" s="41"/>
       <c r="AD8" s="41"/>
     </row>
-    <row r="9" spans="2:30" ht="42.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:30" ht="42.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="14" t="s">
         <v>51</v>
       </c>
@@ -4011,7 +4529,7 @@
       <c r="AC9" s="32"/>
       <c r="AD9" s="32"/>
     </row>
-    <row r="10" spans="2:30" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:30" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="29" t="s">
         <v>135</v>
       </c>
@@ -4031,9 +4549,15 @@
       <c r="P10" s="29"/>
       <c r="R10" s="32"/>
       <c r="S10" s="32"/>
-      <c r="T10" s="32"/>
-      <c r="U10" s="32"/>
-      <c r="V10" s="32"/>
+      <c r="T10" s="78" t="s">
+        <v>215</v>
+      </c>
+      <c r="U10" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="V10" s="32" t="s">
+        <v>227</v>
+      </c>
       <c r="W10" s="32"/>
       <c r="X10" s="32"/>
       <c r="Y10" s="32"/>
@@ -4043,7 +4567,7 @@
       <c r="AC10" s="32"/>
       <c r="AD10" s="32"/>
     </row>
-    <row r="11" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B11" s="12" t="str">
         <f>SEC_Processes!D9</f>
         <v>RHDDB</v>
@@ -4085,19 +4609,28 @@
       <c r="P11" s="12"/>
       <c r="R11" s="33"/>
       <c r="S11" s="33"/>
-      <c r="T11" s="33"/>
-      <c r="U11" s="33"/>
-      <c r="V11" s="33"/>
-      <c r="W11" s="33"/>
-      <c r="X11" s="33"/>
-      <c r="Y11" s="33"/>
-      <c r="Z11" s="33"/>
-      <c r="AA11" s="33"/>
-      <c r="AB11" s="33"/>
-      <c r="AC11" s="33"/>
+      <c r="T11" s="79" t="str">
+        <f>C48</f>
+        <v>Residential heating Demand - Detached</v>
+      </c>
+      <c r="U11" s="101">
+        <f>J11*SUM(V23,V25,V27)</f>
+        <v>19.596155040000003</v>
+      </c>
+      <c r="V11" s="80">
+        <f>E48</f>
+        <v>19</v>
+      </c>
+      <c r="W11" s="80"/>
+      <c r="X11" s="80"/>
+      <c r="Y11" s="80"/>
+      <c r="Z11" s="80"/>
+      <c r="AA11" s="80"/>
+      <c r="AB11" s="80"/>
+      <c r="AC11" s="81"/>
       <c r="AD11" s="33"/>
     </row>
-    <row r="12" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B12" s="12" t="str">
         <f>SEC_Processes!D10</f>
         <v>RCDDB</v>
@@ -4120,8 +4653,8 @@
       </c>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
-      <c r="J12" s="74">
-        <v>38</v>
+      <c r="J12" s="100">
+        <v>21</v>
       </c>
       <c r="K12" s="12">
         <v>100</v>
@@ -4139,19 +4672,28 @@
       <c r="P12" s="12"/>
       <c r="R12" s="33"/>
       <c r="S12" s="33"/>
-      <c r="T12" s="33"/>
-      <c r="U12" s="33"/>
-      <c r="V12" s="33"/>
+      <c r="T12" s="82" t="str">
+        <f t="shared" ref="T12:T18" si="0">C49</f>
+        <v>Residential cooling Demand - Detached</v>
+      </c>
+      <c r="U12" s="101">
+        <f>J12*SUM(V29)</f>
+        <v>19.370987999999997</v>
+      </c>
+      <c r="V12" s="33">
+        <f t="shared" ref="V12:V18" si="1">E49</f>
+        <v>19</v>
+      </c>
       <c r="W12" s="33"/>
       <c r="X12" s="33"/>
       <c r="Y12" s="33"/>
       <c r="Z12" s="33"/>
       <c r="AA12" s="33"/>
       <c r="AB12" s="33"/>
-      <c r="AC12" s="33"/>
+      <c r="AC12" s="83"/>
       <c r="AD12" s="33"/>
     </row>
-    <row r="13" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B13" s="12" t="str">
         <f>SEC_Processes!D11</f>
         <v>REDDB</v>
@@ -4193,19 +4735,28 @@
       <c r="P13" s="12"/>
       <c r="R13" s="33"/>
       <c r="S13" s="33"/>
-      <c r="T13" s="33"/>
-      <c r="U13" s="33"/>
-      <c r="V13" s="33"/>
+      <c r="T13" s="82" t="str">
+        <f t="shared" si="0"/>
+        <v>Residential electricity Demand - Detached</v>
+      </c>
+      <c r="U13" s="84">
+        <f>V13</f>
+        <v>19</v>
+      </c>
+      <c r="V13" s="33">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
       <c r="W13" s="33"/>
       <c r="X13" s="33"/>
       <c r="Y13" s="33"/>
       <c r="Z13" s="33"/>
       <c r="AA13" s="33"/>
       <c r="AB13" s="33"/>
-      <c r="AC13" s="33"/>
+      <c r="AC13" s="83"/>
       <c r="AD13" s="33"/>
     </row>
-    <row r="14" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B14" s="12" t="str">
         <f>SEC_Processes!D12</f>
         <v>RHDMB</v>
@@ -4247,19 +4798,28 @@
       <c r="P14" s="12"/>
       <c r="R14" s="33"/>
       <c r="S14" s="33"/>
-      <c r="T14" s="33"/>
-      <c r="U14" s="33"/>
-      <c r="V14" s="33"/>
+      <c r="T14" s="82" t="str">
+        <f t="shared" si="0"/>
+        <v>Residential heating Demand - Multistorey</v>
+      </c>
+      <c r="U14" s="101">
+        <f>J14*SUM(V24,V26,V28)</f>
+        <v>17.529916320000002</v>
+      </c>
+      <c r="V14" s="33">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
       <c r="W14" s="33"/>
       <c r="X14" s="33"/>
       <c r="Y14" s="33"/>
       <c r="Z14" s="33"/>
       <c r="AA14" s="33"/>
       <c r="AB14" s="33"/>
-      <c r="AC14" s="33"/>
+      <c r="AC14" s="83"/>
       <c r="AD14" s="33"/>
     </row>
-    <row r="15" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B15" s="12" t="str">
         <f>SEC_Processes!D13</f>
         <v>RCDMB</v>
@@ -4301,19 +4861,28 @@
       <c r="P15" s="12"/>
       <c r="R15" s="33"/>
       <c r="S15" s="33"/>
-      <c r="T15" s="33"/>
-      <c r="U15" s="33"/>
-      <c r="V15" s="33"/>
+      <c r="T15" s="82" t="str">
+        <f t="shared" si="0"/>
+        <v>Residential cooling Demand - Multistorey</v>
+      </c>
+      <c r="U15" s="57">
+        <f>J15*SUM(V30)</f>
+        <v>17.284881599999999</v>
+      </c>
+      <c r="V15" s="33">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
       <c r="W15" s="33"/>
       <c r="X15" s="33"/>
       <c r="Y15" s="33"/>
       <c r="Z15" s="33"/>
       <c r="AA15" s="33"/>
       <c r="AB15" s="33"/>
-      <c r="AC15" s="33"/>
+      <c r="AC15" s="83"/>
       <c r="AD15" s="33"/>
     </row>
-    <row r="16" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="str">
         <f>SEC_Processes!D14</f>
         <v>REDMB</v>
@@ -4355,19 +4924,28 @@
       <c r="P16" s="12"/>
       <c r="R16" s="34"/>
       <c r="S16" s="34"/>
-      <c r="T16" s="34"/>
-      <c r="U16" s="34"/>
-      <c r="V16" s="34"/>
+      <c r="T16" s="82" t="str">
+        <f t="shared" si="0"/>
+        <v>Residential electricity Demand - Multistorey</v>
+      </c>
+      <c r="U16" s="84">
+        <f>V16</f>
+        <v>17</v>
+      </c>
+      <c r="V16" s="88">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
       <c r="W16" s="34"/>
       <c r="X16" s="34"/>
       <c r="Y16" s="34"/>
       <c r="Z16" s="34"/>
       <c r="AA16" s="34"/>
       <c r="AB16" s="34"/>
-      <c r="AC16" s="34"/>
+      <c r="AC16" s="85"/>
       <c r="AD16" s="34"/>
     </row>
-    <row r="17" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:30" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B17" s="12" t="str">
         <f>SEC_Processes!D15</f>
         <v>CHDRB</v>
@@ -4390,8 +4968,8 @@
       </c>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
-      <c r="J17" s="74">
-        <v>1</v>
+      <c r="J17" s="100">
+        <v>2</v>
       </c>
       <c r="K17" s="12">
         <v>100</v>
@@ -4409,19 +4987,28 @@
       <c r="P17" s="12"/>
       <c r="R17" s="34"/>
       <c r="S17" s="34"/>
-      <c r="T17" s="34"/>
-      <c r="U17" s="34"/>
-      <c r="V17" s="34"/>
+      <c r="T17" s="82" t="str">
+        <f t="shared" si="0"/>
+        <v>Commercial heating Demand</v>
+      </c>
+      <c r="U17" s="107">
+        <f>J17*SUM(V33:V34)</f>
+        <v>4.2258240000000011</v>
+      </c>
+      <c r="V17" s="33">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="W17" s="34"/>
       <c r="X17" s="34"/>
       <c r="Y17" s="34"/>
       <c r="Z17" s="34"/>
       <c r="AA17" s="34"/>
       <c r="AB17" s="34"/>
-      <c r="AC17" s="34"/>
+      <c r="AC17" s="85"/>
       <c r="AD17" s="34"/>
     </row>
-    <row r="18" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B18" s="12" t="str">
         <f>SEC_Processes!D16</f>
         <v>CCDRB</v>
@@ -4444,8 +5031,8 @@
       </c>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
-      <c r="J18" s="74">
-        <v>2.2000000000000002</v>
+      <c r="J18" s="100">
+        <v>25</v>
       </c>
       <c r="K18" s="12">
         <v>100</v>
@@ -4463,19 +5050,28 @@
       <c r="P18" s="12"/>
       <c r="R18" s="34"/>
       <c r="S18" s="34"/>
-      <c r="T18" s="34"/>
-      <c r="U18" s="34"/>
-      <c r="V18" s="34"/>
+      <c r="T18" s="82" t="str">
+        <f t="shared" si="0"/>
+        <v>Commercial cooling Demand</v>
+      </c>
+      <c r="U18" s="57">
+        <f>J18*SUM(V35)</f>
+        <v>4.2573600000000003</v>
+      </c>
+      <c r="V18" s="33">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="W18" s="34"/>
       <c r="X18" s="34"/>
       <c r="Y18" s="34"/>
       <c r="Z18" s="34"/>
       <c r="AA18" s="34"/>
       <c r="AB18" s="34"/>
-      <c r="AC18" s="34"/>
+      <c r="AC18" s="85"/>
       <c r="AD18" s="34"/>
     </row>
-    <row r="19" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B19" s="12" t="str">
         <f>SEC_Processes!D17</f>
         <v>IPPDT</v>
@@ -4517,19 +5113,19 @@
       <c r="P19" s="30"/>
       <c r="R19" s="34"/>
       <c r="S19" s="34"/>
-      <c r="T19" s="34"/>
-      <c r="U19" s="34"/>
-      <c r="V19" s="34"/>
+      <c r="T19" s="106"/>
+      <c r="U19" s="33"/>
+      <c r="V19" s="33"/>
       <c r="W19" s="34"/>
       <c r="X19" s="34"/>
       <c r="Y19" s="34"/>
       <c r="Z19" s="34"/>
       <c r="AA19" s="34"/>
       <c r="AB19" s="34"/>
-      <c r="AC19" s="34"/>
+      <c r="AC19" s="85"/>
       <c r="AD19" s="34"/>
     </row>
-    <row r="20" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B20" s="44" t="str">
         <f>SEC_Processes!D18</f>
         <v>RHTDBWPEBE1</v>
@@ -4562,27 +5158,27 @@
       </c>
       <c r="M20" s="44"/>
       <c r="N20" s="75">
-        <v>0.34</v>
-      </c>
-      <c r="O20" s="75">
-        <v>876</v>
+        <v>0.2</v>
+      </c>
+      <c r="O20" s="117">
+        <v>420</v>
       </c>
       <c r="P20" s="44"/>
       <c r="R20" s="34"/>
       <c r="S20" s="34"/>
-      <c r="T20" s="34"/>
-      <c r="U20" s="34"/>
-      <c r="V20" s="34"/>
+      <c r="T20" s="82"/>
+      <c r="U20" s="33"/>
+      <c r="V20" s="33"/>
       <c r="W20" s="34"/>
       <c r="X20" s="34"/>
       <c r="Y20" s="34"/>
       <c r="Z20" s="34"/>
       <c r="AA20" s="34"/>
       <c r="AB20" s="34"/>
-      <c r="AC20" s="34"/>
+      <c r="AC20" s="85"/>
       <c r="AD20" s="34"/>
     </row>
-    <row r="21" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B21" s="12" t="str">
         <f>SEC_Processes!D19</f>
         <v>RHTMBWPEBE1</v>
@@ -4611,34 +5207,34 @@
         <v>20</v>
       </c>
       <c r="L21" s="12">
-        <f t="shared" ref="L21:L30" si="0">8760*3.6/1000000</f>
+        <f t="shared" ref="L21:L30" si="2">8760*3.6/1000000</f>
         <v>3.1536000000000002E-2</v>
       </c>
       <c r="M21" s="12"/>
       <c r="N21" s="74">
-        <v>0.23</v>
-      </c>
-      <c r="O21" s="74">
-        <v>543</v>
+        <v>0.24</v>
+      </c>
+      <c r="O21" s="100">
+        <v>380</v>
       </c>
       <c r="P21" s="12"/>
       <c r="R21" s="77" t="s">
         <v>214</v>
       </c>
       <c r="S21" s="34"/>
-      <c r="T21" s="34"/>
-      <c r="U21" s="34"/>
-      <c r="V21" s="34"/>
+      <c r="T21" s="82"/>
+      <c r="U21" s="33"/>
+      <c r="V21" s="33"/>
       <c r="W21" s="34"/>
       <c r="X21" s="34"/>
       <c r="Y21" s="34"/>
       <c r="Z21" s="34"/>
       <c r="AA21" s="34"/>
       <c r="AB21" s="34"/>
-      <c r="AC21" s="34"/>
+      <c r="AC21" s="85"/>
       <c r="AD21" s="34"/>
     </row>
-    <row r="22" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="str">
         <f>SEC_Processes!D20</f>
         <v>RHTDBLCHXE2</v>
@@ -4666,32 +5262,34 @@
         <v>20</v>
       </c>
       <c r="L22" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.1536000000000002E-2</v>
       </c>
       <c r="M22" s="12"/>
       <c r="N22" s="74">
         <v>0.16</v>
       </c>
-      <c r="O22" s="74">
-        <v>982</v>
+      <c r="O22" s="100">
+        <v>500</v>
       </c>
       <c r="P22" s="12"/>
       <c r="R22" s="34"/>
       <c r="S22" s="34"/>
-      <c r="T22" s="34"/>
-      <c r="U22" s="34"/>
-      <c r="V22" s="34"/>
-      <c r="W22" s="34"/>
-      <c r="X22" s="34"/>
-      <c r="Y22" s="34"/>
-      <c r="Z22" s="34"/>
-      <c r="AA22" s="34"/>
-      <c r="AB22" s="34"/>
-      <c r="AC22" s="34"/>
+      <c r="T22" s="87"/>
+      <c r="U22" s="88"/>
+      <c r="V22" s="88"/>
+      <c r="W22" s="88"/>
+      <c r="X22" s="89"/>
+      <c r="Y22" s="88"/>
+      <c r="Z22" s="90"/>
+      <c r="AA22" s="90"/>
+      <c r="AB22" s="90"/>
+      <c r="AC22" s="91" t="s">
+        <v>216</v>
+      </c>
       <c r="AD22" s="34"/>
     </row>
-    <row r="23" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:30" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B23" s="12" t="str">
         <f>SEC_Processes!D21</f>
         <v>RHTMBLCHXE2</v>
@@ -4720,32 +5318,57 @@
         <v>20</v>
       </c>
       <c r="L23" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.1536000000000002E-2</v>
       </c>
       <c r="M23" s="12"/>
       <c r="N23" s="74">
         <v>0.19</v>
       </c>
-      <c r="O23" s="74">
-        <v>1211</v>
+      <c r="O23" s="100">
+        <v>450</v>
       </c>
       <c r="P23" s="12"/>
       <c r="R23" s="34"/>
-      <c r="S23" s="34"/>
-      <c r="T23" s="34"/>
-      <c r="U23" s="34"/>
-      <c r="V23" s="34"/>
-      <c r="W23" s="34"/>
-      <c r="X23" s="34"/>
-      <c r="Y23" s="34"/>
+      <c r="S23" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="T23" s="92" t="s">
+        <v>217</v>
+      </c>
+      <c r="U23" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="V23" s="93">
+        <f>O20*L20*N20</f>
+        <v>2.6490240000000003</v>
+      </c>
+      <c r="W23" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="X23" s="93">
+        <f>V23/J20</f>
+        <v>3.0448551724137936</v>
+      </c>
+      <c r="Y23" s="33" t="str">
+        <f>D20</f>
+        <v>RESWPE</v>
+      </c>
       <c r="Z23" s="34"/>
-      <c r="AA23" s="34"/>
-      <c r="AB23" s="34"/>
-      <c r="AC23" s="34"/>
+      <c r="AA23" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="AB23" s="93">
+        <f>SUM(X23:X24)</f>
+        <v>6.3506979310344835</v>
+      </c>
+      <c r="AC23" s="94">
+        <f>T52</f>
+        <v>6.3</v>
+      </c>
       <c r="AD23" s="34"/>
     </row>
-    <row r="24" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B24" s="12" t="str">
         <f>SEC_Processes!D22</f>
         <v>RHTDBDHE1</v>
@@ -4773,19 +5396,55 @@
         <v>20</v>
       </c>
       <c r="L24" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.1536000000000002E-2</v>
       </c>
       <c r="M24" s="12"/>
       <c r="N24" s="74">
         <v>0.21</v>
       </c>
-      <c r="O24" s="74">
-        <v>876</v>
+      <c r="O24" s="100">
+        <v>500</v>
       </c>
       <c r="P24" s="12"/>
-    </row>
-    <row r="25" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="S24" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="T24" s="92" t="s">
+        <v>221</v>
+      </c>
+      <c r="U24" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="V24" s="93">
+        <f>O21*L21*N21</f>
+        <v>2.8760832000000001</v>
+      </c>
+      <c r="W24" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="X24" s="93">
+        <f t="shared" ref="X24:X33" si="3">V24/J21</f>
+        <v>3.3058427586206895</v>
+      </c>
+      <c r="Y24" s="33" t="str">
+        <f t="shared" ref="Y24:Y30" si="4">D21</f>
+        <v>RESWPE</v>
+      </c>
+      <c r="Z24" s="34"/>
+      <c r="AA24" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB24" s="93">
+        <f>SUM(X25:X26,X29:X30)+V13/J13+V16/J16</f>
+        <v>6.0249900003864099</v>
+      </c>
+      <c r="AC24" s="94">
+        <f>T51</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B25" s="12" t="str">
         <f>SEC_Processes!D23</f>
         <v>RHTMBDHE1</v>
@@ -4813,19 +5472,55 @@
         <v>20</v>
       </c>
       <c r="L25" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.1536000000000002E-2</v>
       </c>
       <c r="M25" s="12"/>
       <c r="N25" s="74">
         <v>0.22</v>
       </c>
-      <c r="O25" s="74">
-        <v>1204</v>
+      <c r="O25" s="100">
+        <v>400</v>
       </c>
       <c r="P25" s="12"/>
-    </row>
-    <row r="26" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="S25" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="T25" s="92" t="s">
+        <v>217</v>
+      </c>
+      <c r="U25" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="V25" s="93">
+        <f>O22*L22*N22</f>
+        <v>2.5228800000000002</v>
+      </c>
+      <c r="W25" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="X25" s="93">
+        <f t="shared" si="3"/>
+        <v>0.8138322580645162</v>
+      </c>
+      <c r="Y25" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v>RESELCH</v>
+      </c>
+      <c r="Z25" s="34"/>
+      <c r="AA25" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="AB25" s="96">
+        <f>SUM(X27:X28)</f>
+        <v>6.2810540816326537</v>
+      </c>
+      <c r="AC25" s="94">
+        <f>T53</f>
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B26" s="12" t="str">
         <f>SEC_Processes!D24</f>
         <v>RCTDBAC</v>
@@ -4853,23 +5548,47 @@
         <v>20</v>
       </c>
       <c r="L26" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.1536000000000002E-2</v>
       </c>
       <c r="M26" s="12"/>
-      <c r="N26" s="74">
-        <v>0.17</v>
-      </c>
-      <c r="O26" s="74">
-        <v>976</v>
+      <c r="N26" s="100">
+        <v>0.15</v>
+      </c>
+      <c r="O26" s="100">
+        <v>195</v>
       </c>
       <c r="P26" s="12"/>
-      <c r="R26">
-        <f>O26*L26*N26*J26</f>
-        <v>16.220604672000004</v>
-      </c>
-    </row>
-    <row r="27" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="S26" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="T26" s="92" t="s">
+        <v>221</v>
+      </c>
+      <c r="U26" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="V26" s="93">
+        <f>O23*L23*N23</f>
+        <v>2.6963280000000003</v>
+      </c>
+      <c r="W26" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="X26" s="93">
+        <f t="shared" si="3"/>
+        <v>0.86978322580645173</v>
+      </c>
+      <c r="Y26" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v>RESELCH</v>
+      </c>
+      <c r="Z26" s="34"/>
+      <c r="AA26" s="33"/>
+      <c r="AB26" s="93"/>
+      <c r="AC26" s="94"/>
+    </row>
+    <row r="27" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B27" s="12" t="str">
         <f>SEC_Processes!D25</f>
         <v>RCTMBAC</v>
@@ -4897,19 +5616,47 @@
         <v>20</v>
       </c>
       <c r="L27" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.1536000000000002E-2</v>
       </c>
       <c r="M27" s="12"/>
-      <c r="N27" s="74">
+      <c r="N27" s="100">
         <v>0.18</v>
       </c>
-      <c r="O27" s="74">
-        <v>1035</v>
+      <c r="O27" s="100">
+        <v>145</v>
       </c>
       <c r="P27" s="12"/>
-    </row>
-    <row r="28" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="S27" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="T27" s="92" t="s">
+        <v>217</v>
+      </c>
+      <c r="U27" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="V27" s="93">
+        <f>O24*L24*N24</f>
+        <v>3.31128</v>
+      </c>
+      <c r="W27" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="X27" s="93">
+        <f t="shared" si="3"/>
+        <v>3.4492500000000001</v>
+      </c>
+      <c r="Y27" s="33" t="str">
+        <f>D24</f>
+        <v>RESDH</v>
+      </c>
+      <c r="Z27" s="95"/>
+      <c r="AA27" s="33"/>
+      <c r="AB27" s="96"/>
+      <c r="AC27" s="94"/>
+    </row>
+    <row r="28" spans="2:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="str">
         <f>SEC_Processes!D26</f>
         <v>CHTLCHXE2</v>
@@ -4938,7 +5685,7 @@
         <v>20</v>
       </c>
       <c r="L28" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.1536000000000002E-2</v>
       </c>
       <c r="M28" s="30"/>
@@ -4946,11 +5693,36 @@
         <v>0.23</v>
       </c>
       <c r="O28" s="74">
-        <v>2107</v>
+        <v>180</v>
       </c>
       <c r="P28" s="30"/>
-    </row>
-    <row r="29" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="S28" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="T28" s="92" t="s">
+        <v>221</v>
+      </c>
+      <c r="U28" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="V28" s="93">
+        <f>O25*L25*N25</f>
+        <v>2.7751679999999999</v>
+      </c>
+      <c r="W28" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="X28" s="93">
+        <f t="shared" si="3"/>
+        <v>2.8318040816326531</v>
+      </c>
+      <c r="Y28" s="33" t="str">
+        <f>D25</f>
+        <v>RESDH</v>
+      </c>
+      <c r="Z28" s="95"/>
+    </row>
+    <row r="29" spans="2:30" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B29" s="12" t="str">
         <f>SEC_Processes!D27</f>
         <v>CHTHCEBE1</v>
@@ -4979,7 +5751,7 @@
         <v>20</v>
       </c>
       <c r="L29" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.1536000000000002E-2</v>
       </c>
       <c r="M29" s="30"/>
@@ -4987,11 +5759,39 @@
         <v>0.16</v>
       </c>
       <c r="O29" s="74">
-        <v>986</v>
+        <v>160</v>
       </c>
       <c r="P29" s="30"/>
-    </row>
-    <row r="30" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="S29" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="T29" s="102" t="s">
+        <v>217</v>
+      </c>
+      <c r="U29" s="86" t="s">
+        <v>218</v>
+      </c>
+      <c r="V29" s="103">
+        <f>O26*L26*N26</f>
+        <v>0.92242799999999991</v>
+      </c>
+      <c r="W29" s="86" t="s">
+        <v>219</v>
+      </c>
+      <c r="X29" s="103">
+        <f t="shared" si="3"/>
+        <v>0.29755741935483865</v>
+      </c>
+      <c r="Y29" s="86" t="str">
+        <f>D26</f>
+        <v>RESELCH</v>
+      </c>
+      <c r="Z29" s="104"/>
+      <c r="AA29" s="104"/>
+      <c r="AB29" s="104"/>
+      <c r="AC29" s="105"/>
+    </row>
+    <row r="30" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B30" s="12" t="str">
         <f>SEC_Processes!D28</f>
         <v>CCTRBAC</v>
@@ -5020,7 +5820,7 @@
         <v>20</v>
       </c>
       <c r="L30" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.1536000000000002E-2</v>
       </c>
       <c r="M30" s="30"/>
@@ -5028,11 +5828,39 @@
         <v>0.3</v>
       </c>
       <c r="O30" s="74">
-        <v>1654</v>
+        <v>18</v>
       </c>
       <c r="P30" s="30"/>
-    </row>
-    <row r="31" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="S30" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="T30" s="92" t="s">
+        <v>221</v>
+      </c>
+      <c r="U30" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="V30" s="93">
+        <f>O27*L27*N27</f>
+        <v>0.82308959999999998</v>
+      </c>
+      <c r="W30" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="X30" s="93">
+        <f t="shared" si="3"/>
+        <v>0.25721549999999999</v>
+      </c>
+      <c r="Y30" s="33" t="str">
+        <f>D27</f>
+        <v>RESELCH</v>
+      </c>
+      <c r="Z30" s="95"/>
+      <c r="AA30" s="95"/>
+      <c r="AB30" s="95"/>
+      <c r="AC30" s="97"/>
+    </row>
+    <row r="31" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B31" s="30" t="str">
         <f>SEC_Processes!D29</f>
         <v>IPPT</v>
@@ -5070,8 +5898,16 @@
         <v>8973</v>
       </c>
       <c r="P31" s="30"/>
-    </row>
-    <row r="32" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="T31" s="92"/>
+      <c r="U31" s="33"/>
+      <c r="W31" s="33"/>
+      <c r="X31" s="93"/>
+      <c r="Z31" s="95"/>
+      <c r="AA31" s="95"/>
+      <c r="AB31" s="95"/>
+      <c r="AC31" s="97"/>
+    </row>
+    <row r="32" spans="2:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="44" t="str">
         <f>SEC_Processes!D30</f>
         <v>FT-RESNGA</v>
@@ -5103,8 +5939,20 @@
       <c r="P32" s="44">
         <v>1000</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="T32" s="98"/>
+      <c r="U32" s="90"/>
+      <c r="V32" s="89"/>
+      <c r="W32" s="90"/>
+      <c r="X32" s="99"/>
+      <c r="Y32" s="88"/>
+      <c r="Z32" s="90"/>
+      <c r="AA32" s="90"/>
+      <c r="AB32" s="90"/>
+      <c r="AC32" s="91" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B33" s="30" t="str">
         <f>SEC_Processes!D31</f>
         <v>FT-RESWPE</v>
@@ -5137,8 +5985,40 @@
       <c r="P33" s="30">
         <v>1000</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="T33" s="92" t="s">
+        <v>224</v>
+      </c>
+      <c r="U33" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="V33" s="93">
+        <f>O28*L28*N28</f>
+        <v>1.3055904000000003</v>
+      </c>
+      <c r="W33" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="X33" s="93">
+        <f>V33/J28</f>
+        <v>0.42115819354838718</v>
+      </c>
+      <c r="Y33" s="33" t="str">
+        <f>D28</f>
+        <v>COMELCH</v>
+      </c>
+      <c r="Z33" s="34"/>
+      <c r="AA33" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+      <c r="AC33">
+        <f>U52</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B34" s="12" t="str">
         <f>SEC_Processes!D32</f>
         <v>FT-RESELCH</v>
@@ -5171,8 +6051,41 @@
       <c r="P34" s="12">
         <v>1000</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="T34" s="92" t="s">
+        <v>224</v>
+      </c>
+      <c r="U34" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="V34" s="93">
+        <f t="shared" ref="V34:V35" si="5">O29*L29*N29</f>
+        <v>0.80732160000000008</v>
+      </c>
+      <c r="W34" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="X34" s="93">
+        <f t="shared" ref="X34:X35" si="6">V34/J29</f>
+        <v>0.8237975510204083</v>
+      </c>
+      <c r="Y34" s="33" t="str">
+        <f t="shared" ref="Y34:Y35" si="7">D29</f>
+        <v>COMDH</v>
+      </c>
+      <c r="Z34" s="34"/>
+      <c r="AA34" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB34" s="93">
+        <f>SUM(X33,X35)</f>
+        <v>0.47609187096774203</v>
+      </c>
+      <c r="AC34" s="94">
+        <f>U51</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B35" s="12" t="str">
         <f>SEC_Processes!D33</f>
         <v>FT-RESELCA</v>
@@ -5205,8 +6118,41 @@
       <c r="P35" s="12">
         <v>1000</v>
       </c>
-    </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="T35" s="92" t="s">
+        <v>224</v>
+      </c>
+      <c r="U35" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="V35" s="93">
+        <f t="shared" si="5"/>
+        <v>0.17029440000000001</v>
+      </c>
+      <c r="W35" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="X35" s="93">
+        <f>V35/J30</f>
+        <v>5.4933677419354843E-2</v>
+      </c>
+      <c r="Y35" s="33" t="str">
+        <f t="shared" si="7"/>
+        <v>COMELCH</v>
+      </c>
+      <c r="Z35" s="34"/>
+      <c r="AA35" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="AB35" s="93">
+        <f>SUM(X34)</f>
+        <v>0.8237975510204083</v>
+      </c>
+      <c r="AC35" s="94">
+        <f>U53</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="36" spans="2:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="str">
         <f>SEC_Processes!D34</f>
         <v>FT-RESHE</v>
@@ -5239,8 +6185,18 @@
       <c r="P36" s="12">
         <v>1000</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="T36" s="92"/>
+      <c r="U36" s="33"/>
+      <c r="V36" s="93"/>
+      <c r="W36" s="33"/>
+      <c r="X36" s="93"/>
+      <c r="Y36" s="33"/>
+      <c r="Z36" s="34"/>
+      <c r="AA36" s="33"/>
+      <c r="AB36" s="93"/>
+      <c r="AC36" s="115"/>
+    </row>
+    <row r="37" spans="2:29" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B37" s="12" t="str">
         <f>SEC_Processes!D35</f>
         <v>FT-COMELCH</v>
@@ -5273,8 +6229,18 @@
       <c r="P37" s="12">
         <v>1000</v>
       </c>
-    </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="T37" s="109"/>
+      <c r="U37" s="86"/>
+      <c r="V37" s="103"/>
+      <c r="W37" s="86"/>
+      <c r="X37" s="103"/>
+      <c r="Y37" s="86"/>
+      <c r="Z37" s="104"/>
+      <c r="AA37" s="86"/>
+      <c r="AB37" s="103"/>
+      <c r="AC37" s="103"/>
+    </row>
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B38" s="12" t="str">
         <f>SEC_Processes!D36</f>
         <v>FT-COMHE</v>
@@ -5307,8 +6273,18 @@
       <c r="P38" s="12">
         <v>1000</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="T38" s="116"/>
+      <c r="U38" s="33"/>
+      <c r="V38" s="93"/>
+      <c r="W38" s="33"/>
+      <c r="X38" s="93"/>
+      <c r="Y38" s="33"/>
+      <c r="Z38" s="95"/>
+      <c r="AA38" s="33"/>
+      <c r="AB38" s="93"/>
+      <c r="AC38" s="93"/>
+    </row>
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B39" s="12" t="str">
         <f>SEC_Processes!D37</f>
         <v>FT-INDELC</v>
@@ -5341,22 +6317,88 @@
       <c r="P39" s="12">
         <v>1000</v>
       </c>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="T39" s="116"/>
+      <c r="U39" s="33"/>
+      <c r="V39" s="93"/>
+      <c r="W39" s="33"/>
+      <c r="X39" s="93"/>
+      <c r="Y39" s="33"/>
+      <c r="Z39" s="95"/>
+      <c r="AA39" s="95"/>
+      <c r="AB39" s="95"/>
+      <c r="AC39" s="95"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="E40" s="31"/>
       <c r="F40" s="31"/>
-    </row>
-    <row r="42" spans="2:16" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="T40" s="116"/>
+      <c r="U40" s="33"/>
+      <c r="V40" s="93"/>
+      <c r="W40" s="33"/>
+      <c r="X40" s="93"/>
+      <c r="Y40" s="33"/>
+      <c r="Z40" s="95"/>
+      <c r="AA40" s="95"/>
+      <c r="AB40" s="95"/>
+      <c r="AC40" s="95"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="T41" s="116"/>
+      <c r="U41" s="33"/>
+      <c r="V41" s="93"/>
+      <c r="W41" s="33"/>
+      <c r="X41" s="93"/>
+      <c r="Y41" s="33"/>
+      <c r="Z41" s="95"/>
+      <c r="AA41" s="95"/>
+      <c r="AB41" s="95"/>
+      <c r="AC41" s="95"/>
+    </row>
+    <row r="42" spans="2:29" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B42" s="24" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="T42" s="116"/>
+      <c r="U42" s="33"/>
+      <c r="V42" s="93"/>
+      <c r="W42" s="33"/>
+      <c r="X42" s="93"/>
+      <c r="Y42" s="33"/>
+      <c r="Z42" s="95"/>
+      <c r="AA42" s="95"/>
+      <c r="AB42" s="95"/>
+      <c r="AC42" s="95"/>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="T43" s="116"/>
+      <c r="U43" s="33"/>
+      <c r="V43" s="93"/>
+      <c r="W43" s="33"/>
+      <c r="X43" s="93"/>
+      <c r="Y43" s="33"/>
+      <c r="Z43" s="95"/>
+      <c r="AA43" s="95"/>
+      <c r="AB43" s="95"/>
+      <c r="AC43" s="95"/>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="T44" s="116"/>
+      <c r="U44" s="95"/>
+      <c r="V44" s="93"/>
+      <c r="W44" s="95"/>
+      <c r="X44" s="93"/>
+      <c r="Y44" s="33"/>
+      <c r="Z44" s="95"/>
+      <c r="AA44" s="95"/>
+      <c r="AB44" s="95"/>
+      <c r="AC44" s="95"/>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B45" s="16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B46" s="15" t="s">
         <v>0</v>
       </c>
@@ -5371,7 +6413,7 @@
       </c>
       <c r="F46" s="43"/>
     </row>
-    <row r="47" spans="2:16" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:29" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B47" s="13" t="s">
         <v>46</v>
       </c>
@@ -5392,7 +6434,7 @@
       <c r="L47" s="56"/>
       <c r="M47" s="56"/>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:29" ht="18" x14ac:dyDescent="0.25">
       <c r="B48" s="12" t="str">
         <f>SEC_Comm!D10</f>
         <v>RHD</v>
@@ -5415,8 +6457,11 @@
       <c r="K48" s="33"/>
       <c r="L48" s="33"/>
       <c r="M48" s="56"/>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="S48" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="49" spans="2:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B49" s="12" t="str">
         <f>SEC_Comm!D11</f>
         <v>RCD</v>
@@ -5430,6 +6475,7 @@
         <v>Mm2</v>
       </c>
       <c r="E49" s="74">
+        <f>E48</f>
         <v>19</v>
       </c>
       <c r="F49" s="12"/>
@@ -5440,7 +6486,7 @@
       <c r="L49" s="33"/>
       <c r="M49" s="56"/>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:21" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B50" s="12" t="str">
         <f>SEC_Comm!D12</f>
         <v>RED</v>
@@ -5453,8 +6499,9 @@
         <f>SEC_Comm!F12</f>
         <v>Mm2</v>
       </c>
-      <c r="E50" s="74">
-        <v>18</v>
+      <c r="E50" s="100">
+        <f>E49</f>
+        <v>19</v>
       </c>
       <c r="F50" s="12"/>
       <c r="H50" s="56"/>
@@ -5463,8 +6510,15 @@
       <c r="K50" s="33"/>
       <c r="L50" s="33"/>
       <c r="M50" s="56"/>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="S50" s="108"/>
+      <c r="T50" s="109" t="s">
+        <v>215</v>
+      </c>
+      <c r="U50" s="110" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="51" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B51" s="12" t="str">
         <f>SEC_Comm!D13</f>
         <v>RHM</v>
@@ -5487,8 +6541,17 @@
       <c r="K51" s="33"/>
       <c r="L51" s="33"/>
       <c r="M51" s="56"/>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="S51" s="111" t="s">
+        <v>222</v>
+      </c>
+      <c r="T51" s="95">
+        <v>6</v>
+      </c>
+      <c r="U51" s="112">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="52" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B52" s="12" t="str">
         <f>SEC_Comm!D14</f>
         <v>RCM</v>
@@ -5501,8 +6564,9 @@
         <f>SEC_Comm!F14</f>
         <v>Mm2</v>
       </c>
-      <c r="E52" s="74">
-        <v>15</v>
+      <c r="E52" s="100">
+        <f>E51</f>
+        <v>17</v>
       </c>
       <c r="F52" s="12"/>
       <c r="H52" s="56"/>
@@ -5511,8 +6575,17 @@
       <c r="K52" s="33"/>
       <c r="L52" s="33"/>
       <c r="M52" s="56"/>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="S52" s="111" t="s">
+        <v>220</v>
+      </c>
+      <c r="T52" s="95">
+        <v>6.3</v>
+      </c>
+      <c r="U52" s="112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B53" s="12" t="str">
         <f>SEC_Comm!D15</f>
         <v>REM</v>
@@ -5525,8 +6598,9 @@
         <f>SEC_Comm!F15</f>
         <v>Mm2</v>
       </c>
-      <c r="E53" s="74">
-        <v>16</v>
+      <c r="E53" s="100">
+        <f>E52</f>
+        <v>17</v>
       </c>
       <c r="F53" s="12"/>
       <c r="H53" s="56"/>
@@ -5535,8 +6609,17 @@
       <c r="K53" s="33"/>
       <c r="L53" s="33"/>
       <c r="M53" s="56"/>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="S53" s="113" t="s">
+        <v>229</v>
+      </c>
+      <c r="T53" s="90">
+        <v>6.3</v>
+      </c>
+      <c r="U53" s="114">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="54" spans="2:21" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B54" s="12" t="str">
         <f>SEC_Comm!D16</f>
         <v>CH</v>
@@ -5560,7 +6643,7 @@
       <c r="L54" s="33"/>
       <c r="M54" s="56"/>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B55" s="12" t="str">
         <f>SEC_Comm!D17</f>
         <v>CC</v>
@@ -5573,8 +6656,9 @@
         <f>SEC_Comm!F17</f>
         <v>Mm2</v>
       </c>
-      <c r="E55" s="74">
-        <v>6</v>
+      <c r="E55" s="100">
+        <f>E54</f>
+        <v>4</v>
       </c>
       <c r="F55" s="12"/>
       <c r="H55" s="56"/>
@@ -5584,7 +6668,7 @@
       <c r="L55" s="33"/>
       <c r="M55" s="56"/>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B56" s="12" t="str">
         <f>SEC_Comm!D18</f>
         <v>IPP</v>
@@ -5608,7 +6692,7 @@
       <c r="L56" s="33"/>
       <c r="M56" s="56"/>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:21" x14ac:dyDescent="0.2">
       <c r="H57" s="56"/>
       <c r="I57" s="33"/>
       <c r="J57" s="33"/>
@@ -5616,7 +6700,7 @@
       <c r="L57" s="33"/>
       <c r="M57" s="56"/>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:21" x14ac:dyDescent="0.2">
       <c r="H58" s="56"/>
       <c r="I58" s="33"/>
       <c r="J58" s="33"/>
@@ -5624,7 +6708,7 @@
       <c r="L58" s="33"/>
       <c r="M58" s="56"/>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:21" x14ac:dyDescent="0.2">
       <c r="H59" s="56"/>
       <c r="I59" s="33"/>
       <c r="J59" s="33"/>
@@ -5632,7 +6716,7 @@
       <c r="L59" s="33"/>
       <c r="M59" s="56"/>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:21" x14ac:dyDescent="0.2">
       <c r="H60" s="56"/>
       <c r="I60" s="33"/>
       <c r="J60" s="33"/>
@@ -5640,7 +6724,7 @@
       <c r="L60" s="33"/>
       <c r="M60" s="56"/>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:21" x14ac:dyDescent="0.2">
       <c r="H61" s="56"/>
       <c r="I61" s="33"/>
       <c r="J61" s="33"/>
@@ -5648,7 +6732,7 @@
       <c r="L61" s="33"/>
       <c r="M61" s="56"/>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:21" x14ac:dyDescent="0.2">
       <c r="H62" s="56"/>
       <c r="I62" s="33"/>
       <c r="J62" s="33"/>
@@ -5656,7 +6740,7 @@
       <c r="L62" s="33"/>
       <c r="M62" s="56"/>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:21" x14ac:dyDescent="0.2">
       <c r="H63" s="56"/>
       <c r="I63" s="33"/>
       <c r="J63" s="33"/>
@@ -5664,7 +6748,7 @@
       <c r="L63" s="57"/>
       <c r="M63" s="56"/>
     </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:21" x14ac:dyDescent="0.2">
       <c r="H64" s="56"/>
       <c r="I64" s="33"/>
       <c r="J64" s="33"/>
@@ -5672,7 +6756,7 @@
       <c r="L64" s="57"/>
       <c r="M64" s="56"/>
     </row>
-    <row r="65" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H65" s="56"/>
       <c r="I65" s="33"/>
       <c r="J65" s="33"/>
@@ -5680,7 +6764,7 @@
       <c r="L65" s="57"/>
       <c r="M65" s="56"/>
     </row>
-    <row r="66" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H66" s="56"/>
       <c r="I66" s="33"/>
       <c r="J66" s="33"/>
@@ -5688,7 +6772,7 @@
       <c r="L66" s="57"/>
       <c r="M66" s="56"/>
     </row>
-    <row r="67" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H67" s="56"/>
       <c r="I67" s="33"/>
       <c r="J67" s="33"/>
@@ -5696,7 +6780,7 @@
       <c r="L67" s="57"/>
       <c r="M67" s="56"/>
     </row>
-    <row r="68" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H68" s="56"/>
       <c r="I68" s="33"/>
       <c r="J68" s="33"/>
@@ -5704,7 +6788,7 @@
       <c r="L68" s="57"/>
       <c r="M68" s="56"/>
     </row>
-    <row r="69" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H69" s="56"/>
       <c r="I69" s="56"/>
       <c r="J69" s="56"/>
@@ -5716,7 +6800,8 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5728,19 +6813,19 @@
       <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" s="45" t="s">
         <v>197</v>
       </c>
       <c r="C3" s="46"/>
       <c r="D3" s="46"/>
     </row>
-    <row r="4" spans="2:4" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" s="47" t="s">
         <v>0</v>
       </c>
@@ -5749,7 +6834,7 @@
       </c>
       <c r="D4" s="53"/>
     </row>
-    <row r="5" spans="2:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="49" t="s">
         <v>135</v>
       </c>
@@ -5758,7 +6843,7 @@
       </c>
       <c r="D5" s="54"/>
     </row>
-    <row r="6" spans="2:4" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B6" s="51" t="s">
         <v>88</v>
       </c>

--- a/VT_SHR_RCI_V01.xlsx
+++ b/VT_SHR_RCI_V01.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stpet\Git models\TIMES-SHIRE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jactat\Documents\Models\TIMES-Shire\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9555" yWindow="-15" windowWidth="9600" windowHeight="11640" tabRatio="901" activeTab="2"/>
+    <workbookView xWindow="9552" yWindow="-12" windowWidth="9600" windowHeight="11640" tabRatio="901" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -23,7 +23,7 @@
   <definedNames>
     <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -1496,7 +1496,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0;\-0.0;0"/>
     <numFmt numFmtId="165" formatCode="\Te\x\t"/>
@@ -2867,19 +2867,19 @@
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="50.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="3" width="19.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="50.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" customWidth="1"/>
-    <col min="11" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" customWidth="1"/>
+    <col min="11" max="11" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2888,13 +2888,13 @@
       </c>
       <c r="C1" s="24"/>
     </row>
-    <row r="4" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="17" t="s">
         <v>33</v>
       </c>
       <c r="C4" s="17"/>
     </row>
-    <row r="6" spans="2:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B6" s="58" t="s">
         <v>43</v>
       </c>
@@ -2907,7 +2907,7 @@
       <c r="I6" s="60"/>
       <c r="J6" s="60"/>
     </row>
-    <row r="7" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="61" t="s">
         <v>14</v>
       </c>
@@ -2920,7 +2920,7 @@
       <c r="I7" s="60"/>
       <c r="J7" s="60"/>
     </row>
-    <row r="8" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="62" t="s">
         <v>7</v>
       </c>
@@ -2949,7 +2949,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="65" t="s">
         <v>49</v>
       </c>
@@ -2978,7 +2978,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="67" t="s">
         <v>94</v>
       </c>
@@ -2997,7 +2997,7 @@
       <c r="I10" s="67"/>
       <c r="J10" s="67"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="67"/>
       <c r="C11" s="67"/>
       <c r="D11" s="67" t="s">
@@ -3014,7 +3014,7 @@
       <c r="I11" s="67"/>
       <c r="J11" s="67"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="67"/>
       <c r="C12" s="67"/>
       <c r="D12" s="67" t="s">
@@ -3031,7 +3031,7 @@
       <c r="I12" s="67"/>
       <c r="J12" s="67"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="67"/>
       <c r="C13" s="67"/>
       <c r="D13" s="67" t="s">
@@ -3048,7 +3048,7 @@
       <c r="I13" s="67"/>
       <c r="J13" s="67"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="67"/>
       <c r="C14" s="67"/>
       <c r="D14" s="67" t="s">
@@ -3065,7 +3065,7 @@
       <c r="I14" s="67"/>
       <c r="J14" s="67"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="67"/>
       <c r="C15" s="67"/>
       <c r="D15" s="67" t="s">
@@ -3082,7 +3082,7 @@
       <c r="I15" s="67"/>
       <c r="J15" s="67"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="67"/>
       <c r="C16" s="67"/>
       <c r="D16" s="67" t="s">
@@ -3099,7 +3099,7 @@
       <c r="I16" s="67"/>
       <c r="J16" s="67"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="67"/>
       <c r="C17" s="67"/>
       <c r="D17" s="67" t="s">
@@ -3117,7 +3117,7 @@
       <c r="J17" s="67"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="68"/>
       <c r="C18" s="68"/>
       <c r="D18" s="69" t="s">
@@ -3134,7 +3134,7 @@
       <c r="I18" s="68"/>
       <c r="J18" s="68"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="67" t="s">
         <v>63</v>
       </c>
@@ -3153,7 +3153,7 @@
       <c r="I19" s="67"/>
       <c r="J19" s="67"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="67"/>
       <c r="C20" s="67"/>
       <c r="D20" s="70" t="s">
@@ -3170,7 +3170,7 @@
       <c r="I20" s="67"/>
       <c r="J20" s="67"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="67"/>
       <c r="C21" s="67"/>
       <c r="D21" s="70" t="s">
@@ -3191,7 +3191,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="67"/>
       <c r="C22" s="67"/>
       <c r="D22" s="70" t="s">
@@ -3212,7 +3212,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="67"/>
       <c r="C23" s="67"/>
       <c r="D23" s="70" t="s">
@@ -3231,7 +3231,7 @@
       <c r="I23" s="67"/>
       <c r="J23" s="67"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="67"/>
       <c r="C24" s="67"/>
       <c r="D24" s="70" t="s">
@@ -3250,7 +3250,7 @@
       <c r="I24" s="67"/>
       <c r="J24" s="67"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="67"/>
       <c r="C25" s="67"/>
       <c r="D25" s="70" t="s">
@@ -3269,7 +3269,7 @@
       <c r="I25" s="67"/>
       <c r="J25" s="67"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="67"/>
       <c r="C26" s="67"/>
       <c r="D26" s="70" t="s">
@@ -3288,7 +3288,7 @@
       <c r="I26" s="67"/>
       <c r="J26" s="67"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="67"/>
       <c r="C27" s="67"/>
       <c r="D27" s="67" t="s">
@@ -3307,7 +3307,7 @@
       <c r="I27" s="67"/>
       <c r="J27" s="67"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="67"/>
       <c r="C28" s="67"/>
       <c r="D28" s="67" t="s">
@@ -3326,7 +3326,7 @@
       <c r="I28" s="67"/>
       <c r="J28" s="67"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="67"/>
       <c r="C29" s="67"/>
       <c r="D29" s="67" t="s">
@@ -3345,7 +3345,7 @@
       <c r="I29" s="67"/>
       <c r="J29" s="67"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="67"/>
       <c r="C30" s="67"/>
       <c r="D30" s="70" t="s">
@@ -3366,7 +3366,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="67"/>
       <c r="C31" s="67"/>
       <c r="D31" s="70" t="s">
@@ -3385,7 +3385,7 @@
       <c r="I31" s="67"/>
       <c r="J31" s="67"/>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="67"/>
       <c r="C32" s="67"/>
       <c r="D32" s="70" t="s">
@@ -3404,7 +3404,7 @@
       <c r="I32" s="67"/>
       <c r="J32" s="67"/>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B33" s="67"/>
       <c r="C33" s="67"/>
       <c r="D33" s="70" t="s">
@@ -3423,7 +3423,7 @@
       <c r="I33" s="67"/>
       <c r="J33" s="67"/>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B34" s="67"/>
       <c r="C34" s="67"/>
       <c r="D34" s="70" t="s">
@@ -3450,7 +3450,7 @@
       <c r="R34" s="56"/>
       <c r="S34" s="56"/>
     </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B35" s="67"/>
       <c r="C35" s="67"/>
       <c r="D35" s="70" t="s">
@@ -3479,7 +3479,7 @@
       <c r="R35" s="56"/>
       <c r="S35" s="56"/>
     </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B36" s="67"/>
       <c r="C36" s="67"/>
       <c r="D36" s="67" t="s">
@@ -3506,7 +3506,7 @@
       <c r="R36" s="56"/>
       <c r="S36" s="56"/>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B37" s="71" t="s">
         <v>87</v>
       </c>
@@ -3525,7 +3525,7 @@
       <c r="I37" s="71"/>
       <c r="J37" s="71"/>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B38" s="67"/>
       <c r="C38" s="67"/>
       <c r="D38" s="70" t="s">
@@ -3542,7 +3542,7 @@
       <c r="I38" s="67"/>
       <c r="J38" s="67"/>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B39" s="67"/>
       <c r="C39" s="67"/>
       <c r="D39" s="70" t="s">
@@ -3576,32 +3576,32 @@
       <selection activeCell="E36" sqref="E35:E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="65.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="3.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="65.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5546875" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="24.6" x14ac:dyDescent="0.4">
       <c r="B1" s="24" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="11"/>
     </row>
-    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="58" t="s">
         <v>44</v>
@@ -3615,7 +3615,7 @@
       <c r="I5" s="73"/>
       <c r="J5" s="73"/>
     </row>
-    <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="61" t="s">
         <v>16</v>
       </c>
@@ -3628,7 +3628,7 @@
       <c r="I6" s="73"/>
       <c r="J6" s="73"/>
     </row>
-    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="63" t="s">
         <v>11</v>
       </c>
@@ -3657,7 +3657,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="66" t="s">
         <v>50</v>
       </c>
@@ -3686,7 +3686,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="70" t="s">
         <v>95</v>
       </c>
@@ -3707,7 +3707,7 @@
       <c r="I9" s="70"/>
       <c r="J9" s="70"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="70"/>
       <c r="C10" s="70"/>
       <c r="D10" s="67" t="s">
@@ -3726,7 +3726,7 @@
       <c r="I10" s="70"/>
       <c r="J10" s="70"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="70"/>
       <c r="C11" s="70"/>
       <c r="D11" s="67" t="s">
@@ -3745,7 +3745,7 @@
       <c r="I11" s="70"/>
       <c r="J11" s="70"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="70"/>
       <c r="C12" s="70"/>
       <c r="D12" s="67" t="s">
@@ -3764,7 +3764,7 @@
       <c r="I12" s="70"/>
       <c r="J12" s="70"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="70"/>
       <c r="C13" s="70"/>
       <c r="D13" s="67" t="s">
@@ -3783,7 +3783,7 @@
       <c r="I13" s="70"/>
       <c r="J13" s="70"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="70"/>
       <c r="C14" s="70"/>
       <c r="D14" s="67" t="s">
@@ -3802,7 +3802,7 @@
       <c r="I14" s="70"/>
       <c r="J14" s="70"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="70"/>
       <c r="C15" s="70"/>
       <c r="D15" s="67" t="s">
@@ -3821,7 +3821,7 @@
       <c r="I15" s="70"/>
       <c r="J15" s="70"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="70"/>
       <c r="C16" s="70"/>
       <c r="D16" s="67" t="s">
@@ -3840,7 +3840,7 @@
       <c r="I16" s="70"/>
       <c r="J16" s="70"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="70"/>
       <c r="C17" s="70"/>
       <c r="D17" s="67" t="s">
@@ -3859,7 +3859,7 @@
       <c r="I17" s="70"/>
       <c r="J17" s="70"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="72" t="s">
         <v>98</v>
       </c>
@@ -3882,7 +3882,7 @@
       <c r="I18" s="72"/>
       <c r="J18" s="72"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="70"/>
       <c r="C19" s="70"/>
       <c r="D19" s="70" t="s">
@@ -3903,7 +3903,7 @@
       <c r="I19" s="70"/>
       <c r="J19" s="70"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="70"/>
       <c r="C20" s="70"/>
       <c r="D20" s="70" t="s">
@@ -3924,7 +3924,7 @@
       <c r="I20" s="70"/>
       <c r="J20" s="70"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="70"/>
       <c r="C21" s="70"/>
       <c r="D21" s="70" t="s">
@@ -3945,7 +3945,7 @@
       <c r="I21" s="70"/>
       <c r="J21" s="70"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="70"/>
       <c r="C22" s="70"/>
       <c r="D22" s="70" t="s">
@@ -3966,7 +3966,7 @@
       <c r="I22" s="70"/>
       <c r="J22" s="70"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="70"/>
       <c r="C23" s="70"/>
       <c r="D23" s="70" t="s">
@@ -3987,7 +3987,7 @@
       <c r="I23" s="70"/>
       <c r="J23" s="70"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="70"/>
       <c r="C24" s="70"/>
       <c r="D24" s="70" t="s">
@@ -4008,7 +4008,7 @@
       <c r="I24" s="70"/>
       <c r="J24" s="70"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="70"/>
       <c r="C25" s="70"/>
       <c r="D25" s="70" t="s">
@@ -4029,7 +4029,7 @@
       <c r="I25" s="70"/>
       <c r="J25" s="70"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="70"/>
       <c r="C26" s="70"/>
       <c r="D26" s="70" t="s">
@@ -4050,7 +4050,7 @@
       <c r="I26" s="70"/>
       <c r="J26" s="70"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="70"/>
       <c r="C27" s="70"/>
       <c r="D27" s="70" t="s">
@@ -4071,7 +4071,7 @@
       <c r="I27" s="70"/>
       <c r="J27" s="70"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="70"/>
       <c r="C28" s="70"/>
       <c r="D28" s="67" t="s">
@@ -4092,7 +4092,7 @@
       <c r="I28" s="70"/>
       <c r="J28" s="70"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="70"/>
       <c r="C29" s="70"/>
       <c r="D29" s="70" t="s">
@@ -4111,7 +4111,7 @@
       <c r="I29" s="70"/>
       <c r="J29" s="70"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="72"/>
       <c r="C30" s="72"/>
       <c r="D30" s="72" t="s">
@@ -4132,7 +4132,7 @@
       <c r="I30" s="72"/>
       <c r="J30" s="72"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="70"/>
       <c r="C31" s="70"/>
       <c r="D31" s="70" t="s">
@@ -4153,7 +4153,7 @@
       <c r="I31" s="70"/>
       <c r="J31" s="70"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="70"/>
       <c r="C32" s="70"/>
       <c r="D32" s="70" t="s">
@@ -4174,7 +4174,7 @@
       <c r="I32" s="70"/>
       <c r="J32" s="70"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="70"/>
       <c r="C33" s="70"/>
       <c r="D33" s="70" t="s">
@@ -4195,7 +4195,7 @@
       <c r="I33" s="70"/>
       <c r="J33" s="70"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="70"/>
       <c r="C34" s="70"/>
       <c r="D34" s="70" t="s">
@@ -4216,7 +4216,7 @@
       <c r="I34" s="70"/>
       <c r="J34" s="70"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="70"/>
       <c r="C35" s="70"/>
       <c r="D35" s="70" t="s">
@@ -4237,7 +4237,7 @@
       <c r="I35" s="70"/>
       <c r="J35" s="70"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="70"/>
       <c r="C36" s="70"/>
       <c r="D36" s="70" t="s">
@@ -4258,7 +4258,7 @@
       <c r="I36" s="70"/>
       <c r="J36" s="70"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="70"/>
       <c r="C37" s="70"/>
       <c r="D37" s="70" t="s">
@@ -4292,53 +4292,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AD69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R26" sqref="R26"/>
+    <sheetView tabSelected="1" topLeftCell="M9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="69.85546875" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" customWidth="1"/>
-    <col min="8" max="9" width="13.85546875" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.88671875" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" customWidth="1"/>
+    <col min="3" max="3" width="69.88671875" customWidth="1"/>
+    <col min="4" max="4" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" customWidth="1"/>
+    <col min="8" max="9" width="13.88671875" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.5703125" customWidth="1"/>
-    <col min="19" max="19" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.42578125" customWidth="1"/>
-    <col min="22" max="22" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.5546875" customWidth="1"/>
+    <col min="19" max="19" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="38.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.44140625" customWidth="1"/>
+    <col min="22" max="22" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="12" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:30" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:30" ht="24.6" x14ac:dyDescent="0.4">
       <c r="B1" s="24" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="2:30" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:30" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B3" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="2:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:30" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" s="17" t="s">
         <v>54</v>
       </c>
@@ -4359,7 +4359,7 @@
       <c r="AC5" s="34"/>
       <c r="AD5" s="34"/>
     </row>
-    <row r="6" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="2"/>
       <c r="E6" s="4"/>
@@ -4386,7 +4386,7 @@
       <c r="AC6" s="34"/>
       <c r="AD6" s="34"/>
     </row>
-    <row r="7" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:30" x14ac:dyDescent="0.25">
       <c r="H7" s="21" t="s">
         <v>13</v>
       </c>
@@ -4413,7 +4413,7 @@
       <c r="AC7" s="23"/>
       <c r="AD7" s="20"/>
     </row>
-    <row r="8" spans="2:30" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:30" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="27" t="s">
         <v>1</v>
       </c>
@@ -4473,7 +4473,7 @@
       <c r="AC8" s="41"/>
       <c r="AD8" s="41"/>
     </row>
-    <row r="9" spans="2:30" ht="42.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:30" ht="42.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="14" t="s">
         <v>51</v>
       </c>
@@ -4529,7 +4529,7 @@
       <c r="AC9" s="32"/>
       <c r="AD9" s="32"/>
     </row>
-    <row r="10" spans="2:30" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:30" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="29" t="s">
         <v>135</v>
       </c>
@@ -4567,7 +4567,7 @@
       <c r="AC10" s="32"/>
       <c r="AD10" s="32"/>
     </row>
-    <row r="11" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="str">
         <f>SEC_Processes!D9</f>
         <v>RHDDB</v>
@@ -4630,7 +4630,7 @@
       <c r="AC11" s="81"/>
       <c r="AD11" s="33"/>
     </row>
-    <row r="12" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="str">
         <f>SEC_Processes!D10</f>
         <v>RCDDB</v>
@@ -4693,7 +4693,7 @@
       <c r="AC12" s="83"/>
       <c r="AD12" s="33"/>
     </row>
-    <row r="13" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="str">
         <f>SEC_Processes!D11</f>
         <v>REDDB</v>
@@ -4744,7 +4744,7 @@
         <v>19</v>
       </c>
       <c r="V13" s="33">
-        <f t="shared" si="1"/>
+        <f>E50</f>
         <v>19</v>
       </c>
       <c r="W13" s="33"/>
@@ -4756,7 +4756,7 @@
       <c r="AC13" s="83"/>
       <c r="AD13" s="33"/>
     </row>
-    <row r="14" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="str">
         <f>SEC_Processes!D12</f>
         <v>RHDMB</v>
@@ -4819,7 +4819,7 @@
       <c r="AC14" s="83"/>
       <c r="AD14" s="33"/>
     </row>
-    <row r="15" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="str">
         <f>SEC_Processes!D13</f>
         <v>RCDMB</v>
@@ -4882,7 +4882,7 @@
       <c r="AC15" s="83"/>
       <c r="AD15" s="33"/>
     </row>
-    <row r="16" spans="2:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:30" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="str">
         <f>SEC_Processes!D14</f>
         <v>REDMB</v>
@@ -4945,7 +4945,7 @@
       <c r="AC16" s="85"/>
       <c r="AD16" s="34"/>
     </row>
-    <row r="17" spans="2:30" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:30" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="str">
         <f>SEC_Processes!D15</f>
         <v>CHDRB</v>
@@ -5008,7 +5008,7 @@
       <c r="AC17" s="85"/>
       <c r="AD17" s="34"/>
     </row>
-    <row r="18" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="str">
         <f>SEC_Processes!D16</f>
         <v>CCDRB</v>
@@ -5071,7 +5071,7 @@
       <c r="AC18" s="85"/>
       <c r="AD18" s="34"/>
     </row>
-    <row r="19" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="str">
         <f>SEC_Processes!D17</f>
         <v>IPPDT</v>
@@ -5125,7 +5125,7 @@
       <c r="AC19" s="85"/>
       <c r="AD19" s="34"/>
     </row>
-    <row r="20" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B20" s="44" t="str">
         <f>SEC_Processes!D18</f>
         <v>RHTDBWPEBE1</v>
@@ -5178,7 +5178,7 @@
       <c r="AC20" s="85"/>
       <c r="AD20" s="34"/>
     </row>
-    <row r="21" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="str">
         <f>SEC_Processes!D19</f>
         <v>RHTMBWPEBE1</v>
@@ -5234,7 +5234,7 @@
       <c r="AC21" s="85"/>
       <c r="AD21" s="34"/>
     </row>
-    <row r="22" spans="2:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:30" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="12" t="str">
         <f>SEC_Processes!D20</f>
         <v>RHTDBLCHXE2</v>
@@ -5289,7 +5289,7 @@
       </c>
       <c r="AD22" s="34"/>
     </row>
-    <row r="23" spans="2:30" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:30" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="str">
         <f>SEC_Processes!D21</f>
         <v>RHTMBLCHXE2</v>
@@ -5368,7 +5368,7 @@
       </c>
       <c r="AD23" s="34"/>
     </row>
-    <row r="24" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="str">
         <f>SEC_Processes!D22</f>
         <v>RHTDBDHE1</v>
@@ -5424,11 +5424,11 @@
         <v>219</v>
       </c>
       <c r="X24" s="93">
-        <f t="shared" ref="X24:X33" si="3">V24/J21</f>
+        <f>V24/J21</f>
         <v>3.3058427586206895</v>
       </c>
       <c r="Y24" s="33" t="str">
-        <f t="shared" ref="Y24:Y30" si="4">D21</f>
+        <f t="shared" ref="Y24:Y26" si="3">D21</f>
         <v>RESWPE</v>
       </c>
       <c r="Z24" s="34"/>
@@ -5444,7 +5444,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="str">
         <f>SEC_Processes!D23</f>
         <v>RHTMBDHE1</v>
@@ -5500,11 +5500,11 @@
         <v>219</v>
       </c>
       <c r="X25" s="93">
+        <f>V25/J22</f>
+        <v>0.8138322580645162</v>
+      </c>
+      <c r="Y25" s="33" t="str">
         <f t="shared" si="3"/>
-        <v>0.8138322580645162</v>
-      </c>
-      <c r="Y25" s="33" t="str">
-        <f t="shared" si="4"/>
         <v>RESELCH</v>
       </c>
       <c r="Z25" s="34"/>
@@ -5520,7 +5520,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="26" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B26" s="12" t="str">
         <f>SEC_Processes!D24</f>
         <v>RCTDBAC</v>
@@ -5569,18 +5569,18 @@
         <v>218</v>
       </c>
       <c r="V26" s="93">
-        <f>O23*L23*N23</f>
+        <f t="shared" ref="V23:V30" si="4">O23*L23*N23</f>
         <v>2.6963280000000003</v>
       </c>
       <c r="W26" s="33" t="s">
         <v>219</v>
       </c>
       <c r="X26" s="93">
+        <f t="shared" ref="X24:X30" si="5">V26/J23</f>
+        <v>0.86978322580645173</v>
+      </c>
+      <c r="Y26" s="33" t="str">
         <f t="shared" si="3"/>
-        <v>0.86978322580645173</v>
-      </c>
-      <c r="Y26" s="33" t="str">
-        <f t="shared" si="4"/>
         <v>RESELCH</v>
       </c>
       <c r="Z26" s="34"/>
@@ -5588,7 +5588,7 @@
       <c r="AB26" s="93"/>
       <c r="AC26" s="94"/>
     </row>
-    <row r="27" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="str">
         <f>SEC_Processes!D25</f>
         <v>RCTMBAC</v>
@@ -5637,14 +5637,14 @@
         <v>218</v>
       </c>
       <c r="V27" s="93">
-        <f>O24*L24*N24</f>
+        <f t="shared" si="4"/>
         <v>3.31128</v>
       </c>
       <c r="W27" s="33" t="s">
         <v>219</v>
       </c>
       <c r="X27" s="93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.4492500000000001</v>
       </c>
       <c r="Y27" s="33" t="str">
@@ -5656,7 +5656,7 @@
       <c r="AB27" s="96"/>
       <c r="AC27" s="94"/>
     </row>
-    <row r="28" spans="2:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:30" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="str">
         <f>SEC_Processes!D26</f>
         <v>CHTLCHXE2</v>
@@ -5706,14 +5706,14 @@
         <v>218</v>
       </c>
       <c r="V28" s="93">
-        <f>O25*L25*N25</f>
+        <f t="shared" si="4"/>
         <v>2.7751679999999999</v>
       </c>
       <c r="W28" s="33" t="s">
         <v>219</v>
       </c>
       <c r="X28" s="93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.8318040816326531</v>
       </c>
       <c r="Y28" s="33" t="str">
@@ -5722,7 +5722,7 @@
       </c>
       <c r="Z28" s="95"/>
     </row>
-    <row r="29" spans="2:30" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:30" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="str">
         <f>SEC_Processes!D27</f>
         <v>CHTHCEBE1</v>
@@ -5779,7 +5779,7 @@
         <v>219</v>
       </c>
       <c r="X29" s="103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.29755741935483865</v>
       </c>
       <c r="Y29" s="86" t="str">
@@ -5791,7 +5791,7 @@
       <c r="AB29" s="104"/>
       <c r="AC29" s="105"/>
     </row>
-    <row r="30" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="str">
         <f>SEC_Processes!D28</f>
         <v>CCTRBAC</v>
@@ -5848,7 +5848,7 @@
         <v>219</v>
       </c>
       <c r="X30" s="93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.25721549999999999</v>
       </c>
       <c r="Y30" s="33" t="str">
@@ -5860,7 +5860,7 @@
       <c r="AB30" s="95"/>
       <c r="AC30" s="97"/>
     </row>
-    <row r="31" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B31" s="30" t="str">
         <f>SEC_Processes!D29</f>
         <v>IPPT</v>
@@ -5907,7 +5907,7 @@
       <c r="AB31" s="95"/>
       <c r="AC31" s="97"/>
     </row>
-    <row r="32" spans="2:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:30" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="44" t="str">
         <f>SEC_Processes!D30</f>
         <v>FT-RESNGA</v>
@@ -5952,7 +5952,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="33" spans="2:29" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B33" s="30" t="str">
         <f>SEC_Processes!D31</f>
         <v>FT-RESWPE</v>
@@ -6018,7 +6018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="str">
         <f>SEC_Processes!D32</f>
         <v>FT-RESELCH</v>
@@ -6058,18 +6058,18 @@
         <v>218</v>
       </c>
       <c r="V34" s="93">
-        <f t="shared" ref="V34:V35" si="5">O29*L29*N29</f>
+        <f>O29*L29*N29</f>
         <v>0.80732160000000008</v>
       </c>
       <c r="W34" s="33" t="s">
         <v>219</v>
       </c>
       <c r="X34" s="93">
-        <f t="shared" ref="X34:X35" si="6">V34/J29</f>
+        <f>V34/J29</f>
         <v>0.8237975510204083</v>
       </c>
       <c r="Y34" s="33" t="str">
-        <f t="shared" ref="Y34:Y35" si="7">D29</f>
+        <f t="shared" ref="Y34:Y35" si="6">D29</f>
         <v>COMDH</v>
       </c>
       <c r="Z34" s="34"/>
@@ -6085,7 +6085,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B35" s="12" t="str">
         <f>SEC_Processes!D33</f>
         <v>FT-RESELCA</v>
@@ -6125,7 +6125,7 @@
         <v>218</v>
       </c>
       <c r="V35" s="93">
-        <f t="shared" si="5"/>
+        <f>O30*L30*N30</f>
         <v>0.17029440000000001</v>
       </c>
       <c r="W35" s="33" t="s">
@@ -6136,7 +6136,7 @@
         <v>5.4933677419354843E-2</v>
       </c>
       <c r="Y35" s="33" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>COMELCH</v>
       </c>
       <c r="Z35" s="34"/>
@@ -6152,7 +6152,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="36" spans="2:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:29" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="12" t="str">
         <f>SEC_Processes!D34</f>
         <v>FT-RESHE</v>
@@ -6196,7 +6196,7 @@
       <c r="AB36" s="93"/>
       <c r="AC36" s="115"/>
     </row>
-    <row r="37" spans="2:29" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B37" s="12" t="str">
         <f>SEC_Processes!D35</f>
         <v>FT-COMELCH</v>
@@ -6240,7 +6240,7 @@
       <c r="AB37" s="103"/>
       <c r="AC37" s="103"/>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B38" s="12" t="str">
         <f>SEC_Processes!D36</f>
         <v>FT-COMHE</v>
@@ -6284,7 +6284,7 @@
       <c r="AB38" s="93"/>
       <c r="AC38" s="93"/>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B39" s="12" t="str">
         <f>SEC_Processes!D37</f>
         <v>FT-INDELC</v>
@@ -6328,7 +6328,7 @@
       <c r="AB39" s="95"/>
       <c r="AC39" s="95"/>
     </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:29" x14ac:dyDescent="0.25">
       <c r="E40" s="31"/>
       <c r="F40" s="31"/>
       <c r="T40" s="116"/>
@@ -6342,7 +6342,7 @@
       <c r="AB40" s="95"/>
       <c r="AC40" s="95"/>
     </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:29" x14ac:dyDescent="0.25">
       <c r="T41" s="116"/>
       <c r="U41" s="33"/>
       <c r="V41" s="93"/>
@@ -6354,7 +6354,7 @@
       <c r="AB41" s="95"/>
       <c r="AC41" s="95"/>
     </row>
-    <row r="42" spans="2:29" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:29" ht="24.6" x14ac:dyDescent="0.4">
       <c r="B42" s="24" t="s">
         <v>124</v>
       </c>
@@ -6369,7 +6369,7 @@
       <c r="AB42" s="95"/>
       <c r="AC42" s="95"/>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.25">
       <c r="T43" s="116"/>
       <c r="U43" s="33"/>
       <c r="V43" s="93"/>
@@ -6381,7 +6381,7 @@
       <c r="AB43" s="95"/>
       <c r="AC43" s="95"/>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.25">
       <c r="T44" s="116"/>
       <c r="U44" s="95"/>
       <c r="V44" s="93"/>
@@ -6393,12 +6393,12 @@
       <c r="AB44" s="95"/>
       <c r="AC44" s="95"/>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B45" s="16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B46" s="15" t="s">
         <v>0</v>
       </c>
@@ -6413,7 +6413,7 @@
       </c>
       <c r="F46" s="43"/>
     </row>
-    <row r="47" spans="2:29" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:29" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="13" t="s">
         <v>46</v>
       </c>
@@ -6434,7 +6434,7 @@
       <c r="L47" s="56"/>
       <c r="M47" s="56"/>
     </row>
-    <row r="48" spans="2:29" ht="18" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:29" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B48" s="12" t="str">
         <f>SEC_Comm!D10</f>
         <v>RHD</v>
@@ -6461,7 +6461,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="49" spans="2:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:21" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="12" t="str">
         <f>SEC_Comm!D11</f>
         <v>RCD</v>
@@ -6486,7 +6486,7 @@
       <c r="L49" s="33"/>
       <c r="M49" s="56"/>
     </row>
-    <row r="50" spans="2:21" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:21" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B50" s="12" t="str">
         <f>SEC_Comm!D12</f>
         <v>RED</v>
@@ -6518,7 +6518,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="51" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B51" s="12" t="str">
         <f>SEC_Comm!D13</f>
         <v>RHM</v>
@@ -6551,7 +6551,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="52" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B52" s="12" t="str">
         <f>SEC_Comm!D14</f>
         <v>RCM</v>
@@ -6585,7 +6585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:21" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="12" t="str">
         <f>SEC_Comm!D15</f>
         <v>REM</v>
@@ -6619,7 +6619,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="54" spans="2:21" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:21" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B54" s="12" t="str">
         <f>SEC_Comm!D16</f>
         <v>CH</v>
@@ -6643,7 +6643,7 @@
       <c r="L54" s="33"/>
       <c r="M54" s="56"/>
     </row>
-    <row r="55" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B55" s="12" t="str">
         <f>SEC_Comm!D17</f>
         <v>CC</v>
@@ -6668,7 +6668,7 @@
       <c r="L55" s="33"/>
       <c r="M55" s="56"/>
     </row>
-    <row r="56" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B56" s="12" t="str">
         <f>SEC_Comm!D18</f>
         <v>IPP</v>
@@ -6692,7 +6692,7 @@
       <c r="L56" s="33"/>
       <c r="M56" s="56"/>
     </row>
-    <row r="57" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:21" x14ac:dyDescent="0.25">
       <c r="H57" s="56"/>
       <c r="I57" s="33"/>
       <c r="J57" s="33"/>
@@ -6700,7 +6700,7 @@
       <c r="L57" s="33"/>
       <c r="M57" s="56"/>
     </row>
-    <row r="58" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:21" x14ac:dyDescent="0.25">
       <c r="H58" s="56"/>
       <c r="I58" s="33"/>
       <c r="J58" s="33"/>
@@ -6708,7 +6708,7 @@
       <c r="L58" s="33"/>
       <c r="M58" s="56"/>
     </row>
-    <row r="59" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:21" x14ac:dyDescent="0.25">
       <c r="H59" s="56"/>
       <c r="I59" s="33"/>
       <c r="J59" s="33"/>
@@ -6716,7 +6716,7 @@
       <c r="L59" s="33"/>
       <c r="M59" s="56"/>
     </row>
-    <row r="60" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:21" x14ac:dyDescent="0.25">
       <c r="H60" s="56"/>
       <c r="I60" s="33"/>
       <c r="J60" s="33"/>
@@ -6724,7 +6724,7 @@
       <c r="L60" s="33"/>
       <c r="M60" s="56"/>
     </row>
-    <row r="61" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:21" x14ac:dyDescent="0.25">
       <c r="H61" s="56"/>
       <c r="I61" s="33"/>
       <c r="J61" s="33"/>
@@ -6732,7 +6732,7 @@
       <c r="L61" s="33"/>
       <c r="M61" s="56"/>
     </row>
-    <row r="62" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:21" x14ac:dyDescent="0.25">
       <c r="H62" s="56"/>
       <c r="I62" s="33"/>
       <c r="J62" s="33"/>
@@ -6740,7 +6740,7 @@
       <c r="L62" s="33"/>
       <c r="M62" s="56"/>
     </row>
-    <row r="63" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:21" x14ac:dyDescent="0.25">
       <c r="H63" s="56"/>
       <c r="I63" s="33"/>
       <c r="J63" s="33"/>
@@ -6748,7 +6748,7 @@
       <c r="L63" s="57"/>
       <c r="M63" s="56"/>
     </row>
-    <row r="64" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:21" x14ac:dyDescent="0.25">
       <c r="H64" s="56"/>
       <c r="I64" s="33"/>
       <c r="J64" s="33"/>
@@ -6756,7 +6756,7 @@
       <c r="L64" s="57"/>
       <c r="M64" s="56"/>
     </row>
-    <row r="65" spans="8:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H65" s="56"/>
       <c r="I65" s="33"/>
       <c r="J65" s="33"/>
@@ -6764,7 +6764,7 @@
       <c r="L65" s="57"/>
       <c r="M65" s="56"/>
     </row>
-    <row r="66" spans="8:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H66" s="56"/>
       <c r="I66" s="33"/>
       <c r="J66" s="33"/>
@@ -6772,7 +6772,7 @@
       <c r="L66" s="57"/>
       <c r="M66" s="56"/>
     </row>
-    <row r="67" spans="8:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H67" s="56"/>
       <c r="I67" s="33"/>
       <c r="J67" s="33"/>
@@ -6780,7 +6780,7 @@
       <c r="L67" s="57"/>
       <c r="M67" s="56"/>
     </row>
-    <row r="68" spans="8:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H68" s="56"/>
       <c r="I68" s="33"/>
       <c r="J68" s="33"/>
@@ -6788,7 +6788,7 @@
       <c r="L68" s="57"/>
       <c r="M68" s="56"/>
     </row>
-    <row r="69" spans="8:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H69" s="56"/>
       <c r="I69" s="56"/>
       <c r="J69" s="56"/>
@@ -6813,19 +6813,19 @@
       <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="45" t="s">
         <v>197</v>
       </c>
       <c r="C3" s="46"/>
       <c r="D3" s="46"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B4" s="47" t="s">
         <v>0</v>
       </c>
@@ -6834,7 +6834,7 @@
       </c>
       <c r="D4" s="53"/>
     </row>
-    <row r="5" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="49" t="s">
         <v>135</v>
       </c>
@@ -6843,7 +6843,7 @@
       </c>
       <c r="D5" s="54"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:4" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B6" s="51" t="s">
         <v>88</v>
       </c>

--- a/VT_SHR_RCI_V01.xlsx
+++ b/VT_SHR_RCI_V01.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jactat\Documents\Models\TIMES-Shire\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_Models\~g2v_TIMES-Shire\Course_Calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -798,7 +798,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="238">
   <si>
     <t>CommName</t>
   </si>
@@ -1491,6 +1491,27 @@
   </si>
   <si>
     <t>Energy Balance (PJ)</t>
+  </si>
+  <si>
+    <t>j12 was 21</t>
+  </si>
+  <si>
+    <t>j18 was 25</t>
+  </si>
+  <si>
+    <t>027 was 145</t>
+  </si>
+  <si>
+    <t>030 was 18</t>
+  </si>
+  <si>
+    <t>n30 was 0.3</t>
+  </si>
+  <si>
+    <t>j15 was 21</t>
+  </si>
+  <si>
+    <t>e54 was 4, now 3.9</t>
   </si>
 </sst>
 </file>
@@ -1620,7 +1641,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1690,6 +1711,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1925,7 +1952,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2114,6 +2141,8 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4292,8 +4321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AD69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView tabSelected="1" topLeftCell="I7" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4337,6 +4366,23 @@
       <c r="B3" s="11" t="s">
         <v>35</v>
       </c>
+      <c r="J3" t="s">
+        <v>233</v>
+      </c>
+      <c r="L3" t="s">
+        <v>234</v>
+      </c>
+      <c r="M3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="4" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>231</v>
+      </c>
+      <c r="L4" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="5" spans="2:30" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" s="17" t="s">
@@ -4345,6 +4391,12 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
+      <c r="J5" t="s">
+        <v>232</v>
+      </c>
+      <c r="L5" t="s">
+        <v>236</v>
+      </c>
       <c r="R5" s="34"/>
       <c r="S5" s="35"/>
       <c r="T5" s="36"/>
@@ -4653,8 +4705,8 @@
       </c>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
-      <c r="J12" s="100">
-        <v>21</v>
+      <c r="J12" s="118">
+        <v>22</v>
       </c>
       <c r="K12" s="12">
         <v>100</v>
@@ -4678,7 +4730,7 @@
       </c>
       <c r="U12" s="101">
         <f>J12*SUM(V29)</f>
-        <v>19.370987999999997</v>
+        <v>20.293415999999997</v>
       </c>
       <c r="V12" s="33">
         <f t="shared" ref="V12:V18" si="1">E49</f>
@@ -4842,8 +4894,8 @@
       </c>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
-      <c r="J15" s="74">
-        <v>21</v>
+      <c r="J15" s="118">
+        <v>22</v>
       </c>
       <c r="K15" s="12">
         <v>100</v>
@@ -4867,9 +4919,9 @@
       </c>
       <c r="U15" s="57">
         <f>J15*SUM(V30)</f>
-        <v>17.284881599999999</v>
-      </c>
-      <c r="V15" s="33">
+        <v>21.2300352</v>
+      </c>
+      <c r="V15" s="119">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
@@ -5031,7 +5083,7 @@
       </c>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
-      <c r="J18" s="100">
+      <c r="J18" s="118">
         <v>25</v>
       </c>
       <c r="K18" s="12">
@@ -5056,7 +5108,7 @@
       </c>
       <c r="U18" s="57">
         <f>J18*SUM(V35)</f>
-        <v>4.2573600000000003</v>
+        <v>23.651999999999997</v>
       </c>
       <c r="V18" s="33">
         <f t="shared" si="1"/>
@@ -5437,7 +5489,7 @@
       </c>
       <c r="AB24" s="93">
         <f>SUM(X25:X26,X29:X30)+V13/J13+V16/J16</f>
-        <v>6.0249900003864099</v>
+        <v>6.0693375003864105</v>
       </c>
       <c r="AC24" s="94">
         <f>T51</f>
@@ -5569,14 +5621,14 @@
         <v>218</v>
       </c>
       <c r="V26" s="93">
-        <f t="shared" ref="V23:V30" si="4">O23*L23*N23</f>
+        <f t="shared" ref="V26:V28" si="4">O23*L23*N23</f>
         <v>2.6963280000000003</v>
       </c>
       <c r="W26" s="33" t="s">
         <v>219</v>
       </c>
       <c r="X26" s="93">
-        <f t="shared" ref="X24:X30" si="5">V26/J23</f>
+        <f t="shared" ref="X26:X30" si="5">V26/J23</f>
         <v>0.86978322580645173</v>
       </c>
       <c r="Y26" s="33" t="str">
@@ -5623,8 +5675,8 @@
       <c r="N27" s="100">
         <v>0.18</v>
       </c>
-      <c r="O27" s="100">
-        <v>145</v>
+      <c r="O27" s="118">
+        <v>170</v>
       </c>
       <c r="P27" s="12"/>
       <c r="S27" s="34" t="s">
@@ -5824,11 +5876,11 @@
         <v>3.1536000000000002E-2</v>
       </c>
       <c r="M30" s="30"/>
-      <c r="N30" s="74">
+      <c r="N30" s="118">
         <v>0.3</v>
       </c>
-      <c r="O30" s="74">
-        <v>18</v>
+      <c r="O30" s="118">
+        <v>100</v>
       </c>
       <c r="P30" s="30"/>
       <c r="S30" s="34" t="s">
@@ -5842,14 +5894,14 @@
       </c>
       <c r="V30" s="93">
         <f>O27*L27*N27</f>
-        <v>0.82308959999999998</v>
+        <v>0.96500160000000001</v>
       </c>
       <c r="W30" s="33" t="s">
         <v>219</v>
       </c>
       <c r="X30" s="93">
         <f t="shared" si="5"/>
-        <v>0.25721549999999999</v>
+        <v>0.30156299999999997</v>
       </c>
       <c r="Y30" s="33" t="str">
         <f>D27</f>
@@ -6078,7 +6130,7 @@
       </c>
       <c r="AB34" s="93">
         <f>SUM(X33,X35)</f>
-        <v>0.47609187096774203</v>
+        <v>0.72634529032258066</v>
       </c>
       <c r="AC34" s="94">
         <f>U51</f>
@@ -6126,14 +6178,14 @@
       </c>
       <c r="V35" s="93">
         <f>O30*L30*N30</f>
-        <v>0.17029440000000001</v>
+        <v>0.94607999999999992</v>
       </c>
       <c r="W35" s="33" t="s">
         <v>219</v>
       </c>
       <c r="X35" s="93">
         <f>V35/J30</f>
-        <v>5.4933677419354843E-2</v>
+        <v>0.30518709677419353</v>
       </c>
       <c r="Y35" s="33" t="str">
         <f t="shared" si="6"/>

--- a/VT_SHR_RCI_V01.xlsx
+++ b/VT_SHR_RCI_V01.xlsx
@@ -798,7 +798,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="214">
   <si>
     <t>CommName</t>
   </si>
@@ -1440,78 +1440,6 @@
   </si>
   <si>
     <t>Commercial cooling technology - AC</t>
-  </si>
-  <si>
-    <t>GIT</t>
-  </si>
-  <si>
-    <t>Residential</t>
-  </si>
-  <si>
-    <t>Energy Balance</t>
-  </si>
-  <si>
-    <t>DB</t>
-  </si>
-  <si>
-    <t>ACT</t>
-  </si>
-  <si>
-    <t>CONS</t>
-  </si>
-  <si>
-    <t>Biomass</t>
-  </si>
-  <si>
-    <t>MB</t>
-  </si>
-  <si>
-    <t>Electricity</t>
-  </si>
-  <si>
-    <t>DH</t>
-  </si>
-  <si>
-    <t>Commercial</t>
-  </si>
-  <si>
-    <t>Heating</t>
-  </si>
-  <si>
-    <t>Cooling</t>
-  </si>
-  <si>
-    <t>DEMAND</t>
-  </si>
-  <si>
-    <t>Production of Mm2</t>
-  </si>
-  <si>
-    <t>District heating</t>
-  </si>
-  <si>
-    <t>Energy Balance (PJ)</t>
-  </si>
-  <si>
-    <t>j12 was 21</t>
-  </si>
-  <si>
-    <t>j18 was 25</t>
-  </si>
-  <si>
-    <t>027 was 145</t>
-  </si>
-  <si>
-    <t>030 was 18</t>
-  </si>
-  <si>
-    <t>n30 was 0.3</t>
-  </si>
-  <si>
-    <t>j15 was 21</t>
-  </si>
-  <si>
-    <t>e54 was 4, now 3.9</t>
   </si>
 </sst>
 </file>
@@ -1522,7 +1450,7 @@
     <numFmt numFmtId="164" formatCode="0.0;\-0.0;0"/>
     <numFmt numFmtId="165" formatCode="\Te\x\t"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1628,20 +1556,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="14">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1698,30 +1614,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1778,170 +1676,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1952,7 +1686,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2044,9 +1778,6 @@
     <xf numFmtId="0" fontId="17" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="5" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5"/>
@@ -2095,54 +1826,13 @@
     <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2164,246 +1854,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>136071</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>693963</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>108856</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10708821" y="9171214"/>
-          <a:ext cx="3088821" cy="1088571"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>e48=e49=e50</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>e41=e42=e53</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>e54=e55</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>721178</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>27214</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>870858</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>217714</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="27159857" y="7089321"/>
-          <a:ext cx="5851072" cy="1673679"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400"/>
-            <a:t>My suggestion for the exercise:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400"/>
-            <a:t>1. Remove</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t> the capacity in field O20 and let them find it</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t>2. Remove the eff in field j14 and let them find it</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1400"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400"/>
-            <a:t>You</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t> can do 1. and after that 2. or you can do it in the same time. But, if yiu do it in the same time, be aware that there is no unique solution.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1400"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1400"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400"/>
-            <a:t>PS:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t> Everything changed from your version is marked in red</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1400"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2924,669 +2374,669 @@
       <c r="C4" s="17"/>
     </row>
     <row r="6" spans="2:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
     </row>
     <row r="7" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
     </row>
     <row r="8" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="63" t="s">
+      <c r="C8" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="62" t="s">
+      <c r="D8" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="62" t="s">
+      <c r="E8" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="64" t="s">
+      <c r="F8" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="64" t="s">
+      <c r="G8" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="64" t="s">
+      <c r="H8" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="64" t="s">
+      <c r="I8" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="64" t="s">
+      <c r="J8" s="63" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="66" t="s">
+      <c r="C9" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="65" t="s">
+      <c r="D9" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="65" t="s">
+      <c r="E9" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="65" t="s">
+      <c r="F9" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="65" t="s">
+      <c r="G9" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="65" t="s">
+      <c r="H9" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="65" t="s">
+      <c r="I9" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="65" t="s">
+      <c r="J9" s="64" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67" t="s">
+      <c r="C10" s="66"/>
+      <c r="D10" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="E10" s="67" t="s">
+      <c r="E10" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="F10" s="67" t="s">
+      <c r="F10" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="67"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67" t="s">
+      <c r="B11" s="66"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="E11" s="67" t="s">
+      <c r="E11" s="66" t="s">
         <v>138</v>
       </c>
-      <c r="F11" s="67" t="s">
+      <c r="F11" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="67"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67" t="s">
+      <c r="B12" s="66"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66" t="s">
         <v>143</v>
       </c>
-      <c r="E12" s="67" t="s">
+      <c r="E12" s="66" t="s">
         <v>144</v>
       </c>
-      <c r="F12" s="67" t="s">
+      <c r="F12" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="67"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67" t="s">
+      <c r="B13" s="66"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66" t="s">
         <v>141</v>
       </c>
-      <c r="E13" s="67" t="s">
+      <c r="E13" s="66" t="s">
         <v>139</v>
       </c>
-      <c r="F13" s="67" t="s">
+      <c r="F13" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="67"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67" t="s">
+      <c r="B14" s="66"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66" t="s">
         <v>142</v>
       </c>
-      <c r="E14" s="67" t="s">
+      <c r="E14" s="66" t="s">
         <v>140</v>
       </c>
-      <c r="F14" s="67" t="s">
+      <c r="F14" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="67"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67" t="s">
+      <c r="B15" s="66"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66" t="s">
         <v>188</v>
       </c>
-      <c r="E15" s="67" t="s">
+      <c r="E15" s="66" t="s">
         <v>145</v>
       </c>
-      <c r="F15" s="67" t="s">
+      <c r="F15" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="67"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="67"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67" t="s">
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66" t="s">
         <v>209</v>
       </c>
-      <c r="E16" s="67" t="s">
+      <c r="E16" s="66" t="s">
         <v>207</v>
       </c>
-      <c r="F16" s="67" t="s">
+      <c r="F16" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="67"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67" t="s">
+      <c r="B17" s="66"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66" t="s">
         <v>210</v>
       </c>
-      <c r="E17" s="67" t="s">
+      <c r="E17" s="66" t="s">
         <v>208</v>
       </c>
-      <c r="F17" s="67" t="s">
+      <c r="F17" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="67"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="68"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="69" t="s">
+      <c r="B18" s="67"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="68" t="s">
+      <c r="E18" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="F18" s="68" t="s">
+      <c r="F18" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="G18" s="68"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="68"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="67" t="s">
+      <c r="B19" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="67"/>
-      <c r="D19" s="70" t="s">
+      <c r="C19" s="66"/>
+      <c r="D19" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="67" t="s">
+      <c r="E19" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="F19" s="67" t="s">
+      <c r="F19" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="67"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="66"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="67"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="70" t="s">
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="E20" s="67" t="s">
+      <c r="E20" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="F20" s="67" t="s">
+      <c r="F20" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="67"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="70" t="s">
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="E21" s="67" t="s">
+      <c r="E21" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="F21" s="67" t="s">
+      <c r="F21" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67" t="s">
+      <c r="G21" s="66"/>
+      <c r="H21" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="I21" s="67"/>
-      <c r="J21" s="67" t="s">
+      <c r="I21" s="66"/>
+      <c r="J21" s="66" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="67"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="70" t="s">
+      <c r="B22" s="66"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="69" t="s">
         <v>146</v>
       </c>
-      <c r="E22" s="67" t="s">
+      <c r="E22" s="66" t="s">
         <v>147</v>
       </c>
-      <c r="F22" s="67" t="s">
+      <c r="F22" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67" t="s">
+      <c r="G22" s="66"/>
+      <c r="H22" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="I22" s="67"/>
-      <c r="J22" s="67" t="s">
+      <c r="I22" s="66"/>
+      <c r="J22" s="66" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="67"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="70" t="s">
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="69" t="s">
         <v>148</v>
       </c>
-      <c r="E23" s="67" t="s">
+      <c r="E23" s="66" t="s">
         <v>150</v>
       </c>
-      <c r="F23" s="67" t="s">
+      <c r="F23" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67" t="s">
+      <c r="G23" s="66"/>
+      <c r="H23" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="I23" s="67"/>
-      <c r="J23" s="67"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="66"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B24" s="67"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="70" t="s">
+      <c r="B24" s="66"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="69" t="s">
         <v>149</v>
       </c>
-      <c r="E24" s="67" t="s">
+      <c r="E24" s="66" t="s">
         <v>151</v>
       </c>
-      <c r="F24" s="67" t="s">
+      <c r="F24" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67" t="s">
+      <c r="G24" s="66"/>
+      <c r="H24" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="I24" s="67"/>
-      <c r="J24" s="67"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="66"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="67"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="70" t="s">
+      <c r="B25" s="66"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="E25" s="67" t="s">
+      <c r="E25" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="F25" s="67" t="s">
+      <c r="F25" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67" t="s">
+      <c r="G25" s="66"/>
+      <c r="H25" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="I25" s="67"/>
-      <c r="J25" s="67"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="66"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="67"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="70" t="s">
+      <c r="B26" s="66"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="69" t="s">
         <v>152</v>
       </c>
-      <c r="E26" s="67" t="s">
+      <c r="E26" s="66" t="s">
         <v>154</v>
       </c>
-      <c r="F26" s="67" t="s">
+      <c r="F26" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="G26" s="67"/>
-      <c r="H26" s="67" t="s">
+      <c r="G26" s="66"/>
+      <c r="H26" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="I26" s="67"/>
-      <c r="J26" s="67"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="66"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="67"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="67" t="s">
+      <c r="B27" s="66"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="66" t="s">
         <v>153</v>
       </c>
-      <c r="E27" s="67" t="s">
+      <c r="E27" s="66" t="s">
         <v>155</v>
       </c>
-      <c r="F27" s="67" t="s">
+      <c r="F27" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67" t="s">
+      <c r="G27" s="66"/>
+      <c r="H27" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="I27" s="67"/>
-      <c r="J27" s="67"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="66"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="67"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="67" t="s">
+      <c r="B28" s="66"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="66" t="s">
         <v>156</v>
       </c>
-      <c r="E28" s="67" t="s">
+      <c r="E28" s="66" t="s">
         <v>157</v>
       </c>
-      <c r="F28" s="67" t="s">
+      <c r="F28" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="G28" s="67"/>
-      <c r="H28" s="67" t="s">
+      <c r="G28" s="66"/>
+      <c r="H28" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="I28" s="67"/>
-      <c r="J28" s="67"/>
+      <c r="I28" s="66"/>
+      <c r="J28" s="66"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="67"/>
-      <c r="C29" s="67"/>
-      <c r="D29" s="67" t="s">
+      <c r="B29" s="66"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="66" t="s">
         <v>187</v>
       </c>
-      <c r="E29" s="67" t="s">
+      <c r="E29" s="66" t="s">
         <v>158</v>
       </c>
-      <c r="F29" s="67" t="s">
+      <c r="F29" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="G29" s="67"/>
-      <c r="H29" s="67" t="s">
+      <c r="G29" s="66"/>
+      <c r="H29" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="I29" s="67"/>
-      <c r="J29" s="67"/>
+      <c r="I29" s="66"/>
+      <c r="J29" s="66"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B30" s="67"/>
-      <c r="C30" s="67"/>
-      <c r="D30" s="70" t="s">
+      <c r="B30" s="66"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="E30" s="67" t="s">
+      <c r="E30" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="F30" s="67" t="s">
+      <c r="F30" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="G30" s="67"/>
-      <c r="H30" s="67" t="s">
+      <c r="G30" s="66"/>
+      <c r="H30" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="I30" s="67"/>
-      <c r="J30" s="67" t="s">
+      <c r="I30" s="66"/>
+      <c r="J30" s="66" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="67"/>
-      <c r="C31" s="67"/>
-      <c r="D31" s="70" t="s">
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="E31" s="67" t="s">
+      <c r="E31" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="F31" s="67" t="s">
+      <c r="F31" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="G31" s="67"/>
-      <c r="H31" s="67" t="s">
+      <c r="G31" s="66"/>
+      <c r="H31" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="I31" s="67"/>
-      <c r="J31" s="67"/>
+      <c r="I31" s="66"/>
+      <c r="J31" s="66"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="67"/>
-      <c r="C32" s="67"/>
-      <c r="D32" s="70" t="s">
+      <c r="B32" s="66"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="E32" s="67" t="s">
+      <c r="E32" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="F32" s="67" t="s">
+      <c r="F32" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="G32" s="67"/>
-      <c r="H32" s="67" t="s">
+      <c r="G32" s="66"/>
+      <c r="H32" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="I32" s="67"/>
-      <c r="J32" s="67"/>
+      <c r="I32" s="66"/>
+      <c r="J32" s="66"/>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B33" s="67"/>
-      <c r="C33" s="67"/>
-      <c r="D33" s="70" t="s">
+      <c r="B33" s="66"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="E33" s="67" t="s">
+      <c r="E33" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="F33" s="67" t="s">
+      <c r="F33" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="G33" s="67"/>
-      <c r="H33" s="67" t="s">
+      <c r="G33" s="66"/>
+      <c r="H33" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="I33" s="67"/>
-      <c r="J33" s="67"/>
+      <c r="I33" s="66"/>
+      <c r="J33" s="66"/>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B34" s="67"/>
-      <c r="C34" s="67"/>
-      <c r="D34" s="70" t="s">
+      <c r="B34" s="66"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="E34" s="67" t="s">
+      <c r="E34" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="F34" s="67" t="s">
+      <c r="F34" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="G34" s="67"/>
-      <c r="H34" s="67" t="s">
+      <c r="G34" s="66"/>
+      <c r="H34" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="I34" s="67"/>
-      <c r="J34" s="67"/>
-      <c r="L34" s="56"/>
-      <c r="M34" s="56"/>
-      <c r="N34" s="56"/>
-      <c r="O34" s="56"/>
-      <c r="P34" s="56"/>
-      <c r="Q34" s="56"/>
-      <c r="R34" s="56"/>
-      <c r="S34" s="56"/>
+      <c r="I34" s="66"/>
+      <c r="J34" s="66"/>
+      <c r="L34" s="55"/>
+      <c r="M34" s="55"/>
+      <c r="N34" s="55"/>
+      <c r="O34" s="55"/>
+      <c r="P34" s="55"/>
+      <c r="Q34" s="55"/>
+      <c r="R34" s="55"/>
+      <c r="S34" s="55"/>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B35" s="67"/>
-      <c r="C35" s="67"/>
-      <c r="D35" s="70" t="s">
+      <c r="B35" s="66"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="E35" s="67" t="s">
+      <c r="E35" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="F35" s="67" t="s">
+      <c r="F35" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="G35" s="67"/>
-      <c r="H35" s="67" t="s">
+      <c r="G35" s="66"/>
+      <c r="H35" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="I35" s="67"/>
-      <c r="J35" s="67" t="s">
+      <c r="I35" s="66"/>
+      <c r="J35" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="L35" s="56"/>
-      <c r="M35" s="56"/>
-      <c r="N35" s="56"/>
-      <c r="O35" s="56"/>
-      <c r="P35" s="56"/>
-      <c r="Q35" s="56"/>
-      <c r="R35" s="56"/>
-      <c r="S35" s="56"/>
+      <c r="L35" s="55"/>
+      <c r="M35" s="55"/>
+      <c r="N35" s="55"/>
+      <c r="O35" s="55"/>
+      <c r="P35" s="55"/>
+      <c r="Q35" s="55"/>
+      <c r="R35" s="55"/>
+      <c r="S35" s="55"/>
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B36" s="67"/>
-      <c r="C36" s="67"/>
-      <c r="D36" s="67" t="s">
+      <c r="B36" s="66"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="66" t="s">
         <v>203</v>
       </c>
-      <c r="E36" s="67" t="s">
+      <c r="E36" s="66" t="s">
         <v>204</v>
       </c>
-      <c r="F36" s="67" t="s">
+      <c r="F36" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="G36" s="67"/>
-      <c r="H36" s="67" t="s">
+      <c r="G36" s="66"/>
+      <c r="H36" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="I36" s="67"/>
-      <c r="J36" s="67"/>
+      <c r="I36" s="66"/>
+      <c r="J36" s="66"/>
       <c r="L36" s="31"/>
       <c r="M36" s="31"/>
       <c r="N36" s="31"/>
       <c r="O36" s="31"/>
       <c r="P36" s="31"/>
-      <c r="Q36" s="56"/>
-      <c r="R36" s="56"/>
-      <c r="S36" s="56"/>
+      <c r="Q36" s="55"/>
+      <c r="R36" s="55"/>
+      <c r="S36" s="55"/>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B37" s="71" t="s">
+      <c r="B37" s="70" t="s">
         <v>87</v>
       </c>
-      <c r="C37" s="71"/>
-      <c r="D37" s="72" t="s">
+      <c r="C37" s="70"/>
+      <c r="D37" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="E37" s="71" t="s">
+      <c r="E37" s="70" t="s">
         <v>89</v>
       </c>
-      <c r="F37" s="71" t="s">
+      <c r="F37" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="G37" s="71"/>
-      <c r="H37" s="71"/>
-      <c r="I37" s="71"/>
-      <c r="J37" s="71"/>
+      <c r="G37" s="70"/>
+      <c r="H37" s="70"/>
+      <c r="I37" s="70"/>
+      <c r="J37" s="70"/>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B38" s="67"/>
-      <c r="C38" s="67"/>
-      <c r="D38" s="70" t="s">
+      <c r="B38" s="66"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="E38" s="67" t="s">
+      <c r="E38" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="F38" s="67" t="s">
+      <c r="F38" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="G38" s="67"/>
-      <c r="H38" s="67"/>
-      <c r="I38" s="67"/>
-      <c r="J38" s="67"/>
+      <c r="G38" s="66"/>
+      <c r="H38" s="66"/>
+      <c r="I38" s="66"/>
+      <c r="J38" s="66"/>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B39" s="67"/>
-      <c r="C39" s="67"/>
-      <c r="D39" s="70" t="s">
+      <c r="B39" s="66"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="E39" s="67" t="s">
+      <c r="E39" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="F39" s="67" t="s">
+      <c r="F39" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="G39" s="67"/>
-      <c r="H39" s="67"/>
-      <c r="I39" s="67"/>
-      <c r="J39" s="67"/>
+      <c r="G39" s="66"/>
+      <c r="H39" s="66"/>
+      <c r="I39" s="66"/>
+      <c r="J39" s="66"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -3632,681 +3082,681 @@
     </row>
     <row r="5" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
     </row>
     <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
     </row>
     <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="63" t="s">
+      <c r="D7" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="63" t="s">
+      <c r="E7" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="63" t="s">
+      <c r="F7" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="63" t="s">
+      <c r="G7" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="63" t="s">
+      <c r="H7" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="63" t="s">
+      <c r="I7" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="63" t="s">
+      <c r="J7" s="62" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="66" t="s">
+      <c r="D8" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="66" t="s">
+      <c r="E8" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="66" t="s">
+      <c r="F8" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="66" t="s">
+      <c r="G8" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="66" t="s">
+      <c r="H8" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="I8" s="66" t="s">
+      <c r="I8" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="J8" s="66" t="s">
+      <c r="J8" s="65" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="C9" s="70"/>
-      <c r="D9" s="67" t="s">
+      <c r="C9" s="69"/>
+      <c r="D9" s="66" t="s">
         <v>165</v>
       </c>
-      <c r="E9" s="67" t="s">
+      <c r="E9" s="66" t="s">
         <v>159</v>
       </c>
-      <c r="F9" s="70" t="s">
+      <c r="F9" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="70" t="s">
+      <c r="G9" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="70"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="67" t="s">
+      <c r="B10" s="69"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="66" t="s">
         <v>166</v>
       </c>
-      <c r="E10" s="67" t="s">
+      <c r="E10" s="66" t="s">
         <v>160</v>
       </c>
-      <c r="F10" s="70" t="s">
+      <c r="F10" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="G10" s="70" t="s">
+      <c r="G10" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="70"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="67" t="s">
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="66" t="s">
         <v>167</v>
       </c>
-      <c r="E11" s="67" t="s">
+      <c r="E11" s="66" t="s">
         <v>161</v>
       </c>
-      <c r="F11" s="70" t="s">
+      <c r="F11" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="70" t="s">
+      <c r="G11" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="69"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="70"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="67" t="s">
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="66" t="s">
         <v>168</v>
       </c>
-      <c r="E12" s="67" t="s">
+      <c r="E12" s="66" t="s">
         <v>162</v>
       </c>
-      <c r="F12" s="70" t="s">
+      <c r="F12" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="G12" s="70" t="s">
+      <c r="G12" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="69"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="67" t="s">
+      <c r="B13" s="69"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="66" t="s">
         <v>169</v>
       </c>
-      <c r="E13" s="67" t="s">
+      <c r="E13" s="66" t="s">
         <v>163</v>
       </c>
-      <c r="F13" s="70" t="s">
+      <c r="F13" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="70" t="s">
+      <c r="G13" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="69"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="70"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="67" t="s">
+      <c r="B14" s="69"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="66" t="s">
         <v>170</v>
       </c>
-      <c r="E14" s="67" t="s">
+      <c r="E14" s="66" t="s">
         <v>164</v>
       </c>
-      <c r="F14" s="70" t="s">
+      <c r="F14" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="G14" s="70" t="s">
+      <c r="G14" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="70"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="67" t="s">
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="E15" s="67" t="s">
+      <c r="E15" s="66" t="s">
         <v>211</v>
       </c>
-      <c r="F15" s="70" t="s">
+      <c r="F15" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="G15" s="70" t="s">
+      <c r="G15" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="70"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="67" t="s">
+      <c r="B16" s="69"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="66" t="s">
         <v>172</v>
       </c>
-      <c r="E16" s="67" t="s">
+      <c r="E16" s="66" t="s">
         <v>212</v>
       </c>
-      <c r="F16" s="70" t="s">
+      <c r="F16" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="70" t="s">
+      <c r="G16" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="70"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="69"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="70"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="67" t="s">
+      <c r="B17" s="69"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="66" t="s">
         <v>205</v>
       </c>
-      <c r="E17" s="67" t="s">
+      <c r="E17" s="66" t="s">
         <v>206</v>
       </c>
-      <c r="F17" s="67" t="s">
+      <c r="F17" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="G17" s="67" t="s">
+      <c r="G17" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="70"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="69"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="72" t="s">
+      <c r="B18" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="72"/>
-      <c r="D18" s="71" t="s">
+      <c r="C18" s="71"/>
+      <c r="D18" s="70" t="s">
         <v>175</v>
       </c>
-      <c r="E18" s="71" t="s">
+      <c r="E18" s="70" t="s">
         <v>178</v>
       </c>
-      <c r="F18" s="72" t="s">
+      <c r="F18" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="G18" s="72" t="s">
+      <c r="G18" s="71" t="s">
         <v>99</v>
       </c>
-      <c r="H18" s="72" t="s">
+      <c r="H18" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="I18" s="72"/>
-      <c r="J18" s="72"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="71"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="70"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70" t="s">
+      <c r="B19" s="69"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69" t="s">
         <v>176</v>
       </c>
-      <c r="E19" s="67" t="s">
+      <c r="E19" s="66" t="s">
         <v>177</v>
       </c>
-      <c r="F19" s="70" t="s">
+      <c r="F19" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="G19" s="70" t="s">
+      <c r="G19" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="H19" s="70" t="s">
+      <c r="H19" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="I19" s="70"/>
-      <c r="J19" s="70"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="69"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="70"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="70" t="s">
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69" t="s">
         <v>179</v>
       </c>
-      <c r="E20" s="70" t="s">
+      <c r="E20" s="69" t="s">
         <v>181</v>
       </c>
-      <c r="F20" s="70" t="s">
+      <c r="F20" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="G20" s="70" t="s">
+      <c r="G20" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="H20" s="70" t="s">
+      <c r="H20" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="I20" s="70"/>
-      <c r="J20" s="70"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="69"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="70"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="70" t="s">
+      <c r="B21" s="69"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="69" t="s">
         <v>180</v>
       </c>
-      <c r="E21" s="70" t="s">
+      <c r="E21" s="69" t="s">
         <v>182</v>
       </c>
-      <c r="F21" s="70" t="s">
+      <c r="F21" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="G21" s="70" t="s">
+      <c r="G21" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="H21" s="70" t="s">
+      <c r="H21" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="I21" s="70"/>
-      <c r="J21" s="70"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="69"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="70"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="70" t="s">
+      <c r="B22" s="69"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="69" t="s">
         <v>185</v>
       </c>
-      <c r="E22" s="70" t="s">
+      <c r="E22" s="69" t="s">
         <v>183</v>
       </c>
-      <c r="F22" s="70" t="s">
+      <c r="F22" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="G22" s="70" t="s">
+      <c r="G22" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="H22" s="70" t="s">
+      <c r="H22" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="I22" s="70"/>
-      <c r="J22" s="70"/>
+      <c r="I22" s="69"/>
+      <c r="J22" s="69"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="70"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="70" t="s">
+      <c r="B23" s="69"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69" t="s">
         <v>186</v>
       </c>
-      <c r="E23" s="70" t="s">
+      <c r="E23" s="69" t="s">
         <v>184</v>
       </c>
-      <c r="F23" s="70" t="s">
+      <c r="F23" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="G23" s="70" t="s">
+      <c r="G23" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="H23" s="70" t="s">
+      <c r="H23" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="I23" s="70"/>
-      <c r="J23" s="70"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="70"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="70" t="s">
+      <c r="B24" s="69"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69" t="s">
         <v>189</v>
       </c>
-      <c r="E24" s="67" t="s">
+      <c r="E24" s="66" t="s">
         <v>191</v>
       </c>
-      <c r="F24" s="70" t="s">
+      <c r="F24" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="G24" s="70" t="s">
+      <c r="G24" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="H24" s="70" t="s">
+      <c r="H24" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="I24" s="70"/>
-      <c r="J24" s="70"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="70"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70" t="s">
+      <c r="B25" s="69"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69" t="s">
         <v>190</v>
       </c>
-      <c r="E25" s="67" t="s">
+      <c r="E25" s="66" t="s">
         <v>192</v>
       </c>
-      <c r="F25" s="70" t="s">
+      <c r="F25" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="G25" s="70" t="s">
+      <c r="G25" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="H25" s="70" t="s">
+      <c r="H25" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="I25" s="70"/>
-      <c r="J25" s="70"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="70"/>
-      <c r="C26" s="70"/>
-      <c r="D26" s="70" t="s">
+      <c r="B26" s="69"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="E26" s="70" t="s">
+      <c r="E26" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="F26" s="70" t="s">
+      <c r="F26" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="G26" s="70" t="s">
+      <c r="G26" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="H26" s="70" t="s">
+      <c r="H26" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="I26" s="70"/>
-      <c r="J26" s="70"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="70"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70" t="s">
+      <c r="B27" s="69"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69" t="s">
         <v>102</v>
       </c>
-      <c r="E27" s="70" t="s">
+      <c r="E27" s="69" t="s">
         <v>103</v>
       </c>
-      <c r="F27" s="70" t="s">
+      <c r="F27" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="G27" s="70" t="s">
+      <c r="G27" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="H27" s="70" t="s">
+      <c r="H27" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="I27" s="70"/>
-      <c r="J27" s="70"/>
+      <c r="I27" s="69"/>
+      <c r="J27" s="69"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="70"/>
-      <c r="C28" s="70"/>
-      <c r="D28" s="67" t="s">
+      <c r="B28" s="69"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="66" t="s">
         <v>193</v>
       </c>
-      <c r="E28" s="67" t="s">
+      <c r="E28" s="66" t="s">
         <v>213</v>
       </c>
-      <c r="F28" s="70" t="s">
+      <c r="F28" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="G28" s="70" t="s">
+      <c r="G28" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="H28" s="70" t="s">
+      <c r="H28" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="I28" s="70"/>
-      <c r="J28" s="70"/>
+      <c r="I28" s="69"/>
+      <c r="J28" s="69"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="70"/>
-      <c r="C29" s="70"/>
-      <c r="D29" s="70" t="s">
+      <c r="B29" s="69"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="69" t="s">
         <v>104</v>
       </c>
-      <c r="E29" s="70" t="s">
+      <c r="E29" s="69" t="s">
         <v>105</v>
       </c>
-      <c r="F29" s="70" t="s">
+      <c r="F29" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="G29" s="70" t="s">
+      <c r="G29" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="H29" s="70"/>
-      <c r="I29" s="70"/>
-      <c r="J29" s="70"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="69"/>
+      <c r="J29" s="69"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="72"/>
-      <c r="C30" s="72"/>
-      <c r="D30" s="72" t="s">
+      <c r="B30" s="71"/>
+      <c r="C30" s="71"/>
+      <c r="D30" s="71" t="s">
         <v>199</v>
       </c>
-      <c r="E30" s="71" t="s">
+      <c r="E30" s="70" t="s">
         <v>200</v>
       </c>
-      <c r="F30" s="72" t="s">
+      <c r="F30" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="G30" s="72" t="s">
+      <c r="G30" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="H30" s="72" t="s">
+      <c r="H30" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="I30" s="72"/>
-      <c r="J30" s="72"/>
+      <c r="I30" s="71"/>
+      <c r="J30" s="71"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="70"/>
-      <c r="C31" s="70"/>
-      <c r="D31" s="70" t="s">
+      <c r="B31" s="69"/>
+      <c r="C31" s="69"/>
+      <c r="D31" s="69" t="s">
         <v>107</v>
       </c>
-      <c r="E31" s="70" t="s">
+      <c r="E31" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="F31" s="70" t="s">
+      <c r="F31" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="G31" s="70" t="s">
+      <c r="G31" s="69" t="s">
         <v>106</v>
       </c>
-      <c r="H31" s="70" t="s">
+      <c r="H31" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="I31" s="70"/>
-      <c r="J31" s="70"/>
+      <c r="I31" s="69"/>
+      <c r="J31" s="69"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="70"/>
-      <c r="C32" s="70"/>
-      <c r="D32" s="70" t="s">
+      <c r="B32" s="69"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="E32" s="70" t="s">
+      <c r="E32" s="69" t="s">
         <v>110</v>
       </c>
-      <c r="F32" s="70" t="s">
+      <c r="F32" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="G32" s="70" t="s">
+      <c r="G32" s="69" t="s">
         <v>106</v>
       </c>
-      <c r="H32" s="70" t="s">
+      <c r="H32" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="I32" s="70"/>
-      <c r="J32" s="70"/>
+      <c r="I32" s="69"/>
+      <c r="J32" s="69"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="70"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="70" t="s">
+      <c r="B33" s="69"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="69" t="s">
         <v>174</v>
       </c>
-      <c r="E33" s="67" t="s">
+      <c r="E33" s="66" t="s">
         <v>173</v>
       </c>
-      <c r="F33" s="70" t="s">
+      <c r="F33" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="G33" s="70" t="s">
+      <c r="G33" s="69" t="s">
         <v>106</v>
       </c>
-      <c r="H33" s="70" t="s">
+      <c r="H33" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="I33" s="70"/>
-      <c r="J33" s="70"/>
+      <c r="I33" s="69"/>
+      <c r="J33" s="69"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B34" s="70"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="70" t="s">
+      <c r="B34" s="69"/>
+      <c r="C34" s="69"/>
+      <c r="D34" s="69" t="s">
         <v>111</v>
       </c>
-      <c r="E34" s="70" t="s">
+      <c r="E34" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="F34" s="70" t="s">
+      <c r="F34" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="G34" s="70" t="s">
+      <c r="G34" s="69" t="s">
         <v>106</v>
       </c>
-      <c r="H34" s="70" t="s">
+      <c r="H34" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="I34" s="70"/>
-      <c r="J34" s="70"/>
+      <c r="I34" s="69"/>
+      <c r="J34" s="69"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B35" s="70"/>
-      <c r="C35" s="70"/>
-      <c r="D35" s="70" t="s">
+      <c r="B35" s="69"/>
+      <c r="C35" s="69"/>
+      <c r="D35" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="E35" s="70" t="s">
+      <c r="E35" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="F35" s="70" t="s">
+      <c r="F35" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="G35" s="70" t="s">
+      <c r="G35" s="69" t="s">
         <v>106</v>
       </c>
-      <c r="H35" s="70" t="s">
+      <c r="H35" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="I35" s="70"/>
-      <c r="J35" s="70"/>
+      <c r="I35" s="69"/>
+      <c r="J35" s="69"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B36" s="70"/>
-      <c r="C36" s="70"/>
-      <c r="D36" s="70" t="s">
+      <c r="B36" s="69"/>
+      <c r="C36" s="69"/>
+      <c r="D36" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="E36" s="70" t="s">
+      <c r="E36" s="69" t="s">
         <v>116</v>
       </c>
-      <c r="F36" s="70" t="s">
+      <c r="F36" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="G36" s="70" t="s">
+      <c r="G36" s="69" t="s">
         <v>106</v>
       </c>
-      <c r="H36" s="70" t="s">
+      <c r="H36" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="I36" s="70"/>
-      <c r="J36" s="70"/>
+      <c r="I36" s="69"/>
+      <c r="J36" s="69"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B37" s="70"/>
-      <c r="C37" s="70"/>
-      <c r="D37" s="70" t="s">
+      <c r="B37" s="69"/>
+      <c r="C37" s="69"/>
+      <c r="D37" s="69" t="s">
         <v>117</v>
       </c>
-      <c r="E37" s="70" t="s">
+      <c r="E37" s="69" t="s">
         <v>118</v>
       </c>
-      <c r="F37" s="70" t="s">
+      <c r="F37" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="G37" s="70" t="s">
+      <c r="G37" s="69" t="s">
         <v>106</v>
       </c>
-      <c r="H37" s="70" t="s">
+      <c r="H37" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="I37" s="70"/>
-      <c r="J37" s="70"/>
+      <c r="I37" s="69"/>
+      <c r="J37" s="69"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -4321,8 +3771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AD69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I7" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4331,7 +3781,7 @@
     <col min="2" max="2" width="15.5546875" customWidth="1"/>
     <col min="3" max="3" width="69.88671875" customWidth="1"/>
     <col min="4" max="4" width="31.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.88671875" customWidth="1"/>
     <col min="8" max="9" width="13.88671875" customWidth="1"/>
@@ -4343,7 +3793,7 @@
     <col min="16" max="16" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15.5546875" customWidth="1"/>
-    <col min="19" max="19" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.109375" customWidth="1"/>
     <col min="20" max="20" width="38.88671875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="18.44140625" customWidth="1"/>
     <col min="22" max="22" width="11.109375" bestFit="1" customWidth="1"/>
@@ -4366,23 +3816,6 @@
       <c r="B3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="J3" t="s">
-        <v>233</v>
-      </c>
-      <c r="L3" t="s">
-        <v>234</v>
-      </c>
-      <c r="M3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="4" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="J4" t="s">
-        <v>231</v>
-      </c>
-      <c r="L4" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="5" spans="2:30" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" s="17" t="s">
@@ -4391,12 +3824,6 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="J5" t="s">
-        <v>232</v>
-      </c>
-      <c r="L5" t="s">
-        <v>236</v>
-      </c>
       <c r="R5" s="34"/>
       <c r="S5" s="35"/>
       <c r="T5" s="36"/>
@@ -4465,7 +3892,7 @@
       <c r="AC7" s="23"/>
       <c r="AD7" s="20"/>
     </row>
-    <row r="8" spans="2:30" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:30" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="27" t="s">
         <v>1</v>
       </c>
@@ -4581,7 +4008,7 @@
       <c r="AC9" s="32"/>
       <c r="AD9" s="32"/>
     </row>
-    <row r="10" spans="2:30" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:30" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="29" t="s">
         <v>135</v>
       </c>
@@ -4600,24 +4027,6 @@
       <c r="O10" s="29"/>
       <c r="P10" s="29"/>
       <c r="R10" s="32"/>
-      <c r="S10" s="32"/>
-      <c r="T10" s="78" t="s">
-        <v>215</v>
-      </c>
-      <c r="U10" s="32" t="s">
-        <v>228</v>
-      </c>
-      <c r="V10" s="32" t="s">
-        <v>227</v>
-      </c>
-      <c r="W10" s="32"/>
-      <c r="X10" s="32"/>
-      <c r="Y10" s="32"/>
-      <c r="Z10" s="32"/>
-      <c r="AA10" s="32"/>
-      <c r="AB10" s="32"/>
-      <c r="AC10" s="32"/>
-      <c r="AD10" s="32"/>
     </row>
     <row r="11" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="str">
@@ -4642,45 +4051,24 @@
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
-      <c r="J11" s="74">
+      <c r="J11" s="76">
         <v>2.31</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="76">
         <v>100</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L11" s="76">
         <v>1</v>
       </c>
-      <c r="M11" s="12">
+      <c r="M11" s="76">
         <v>1</v>
       </c>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12">
+      <c r="N11" s="76"/>
+      <c r="O11" s="76">
         <v>20</v>
       </c>
       <c r="P11" s="12"/>
       <c r="R11" s="33"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="79" t="str">
-        <f>C48</f>
-        <v>Residential heating Demand - Detached</v>
-      </c>
-      <c r="U11" s="101">
-        <f>J11*SUM(V23,V25,V27)</f>
-        <v>19.596155040000003</v>
-      </c>
-      <c r="V11" s="80">
-        <f>E48</f>
-        <v>19</v>
-      </c>
-      <c r="W11" s="80"/>
-      <c r="X11" s="80"/>
-      <c r="Y11" s="80"/>
-      <c r="Z11" s="80"/>
-      <c r="AA11" s="80"/>
-      <c r="AB11" s="80"/>
-      <c r="AC11" s="81"/>
-      <c r="AD11" s="33"/>
     </row>
     <row r="12" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="str">
@@ -4705,45 +4093,24 @@
       </c>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
-      <c r="J12" s="118">
+      <c r="J12" s="76">
         <v>22</v>
       </c>
-      <c r="K12" s="12">
+      <c r="K12" s="76">
         <v>100</v>
       </c>
-      <c r="L12" s="12">
+      <c r="L12" s="76">
         <v>1</v>
       </c>
-      <c r="M12" s="12">
+      <c r="M12" s="76">
         <v>1</v>
       </c>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12">
+      <c r="N12" s="76"/>
+      <c r="O12" s="76">
         <v>20</v>
       </c>
       <c r="P12" s="12"/>
       <c r="R12" s="33"/>
-      <c r="S12" s="33"/>
-      <c r="T12" s="82" t="str">
-        <f t="shared" ref="T12:T18" si="0">C49</f>
-        <v>Residential cooling Demand - Detached</v>
-      </c>
-      <c r="U12" s="101">
-        <f>J12*SUM(V29)</f>
-        <v>20.293415999999997</v>
-      </c>
-      <c r="V12" s="33">
-        <f t="shared" ref="V12:V18" si="1">E49</f>
-        <v>19</v>
-      </c>
-      <c r="W12" s="33"/>
-      <c r="X12" s="33"/>
-      <c r="Y12" s="33"/>
-      <c r="Z12" s="33"/>
-      <c r="AA12" s="33"/>
-      <c r="AB12" s="33"/>
-      <c r="AC12" s="83"/>
-      <c r="AD12" s="33"/>
     </row>
     <row r="13" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="str">
@@ -4768,45 +4135,24 @@
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
-      <c r="J13" s="74">
+      <c r="J13" s="76">
         <v>9.8000000000000007</v>
       </c>
-      <c r="K13" s="12">
+      <c r="K13" s="76">
         <v>100</v>
       </c>
-      <c r="L13" s="12">
+      <c r="L13" s="76">
         <v>1</v>
       </c>
-      <c r="M13" s="12">
+      <c r="M13" s="76">
         <v>1</v>
       </c>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12">
+      <c r="N13" s="76"/>
+      <c r="O13" s="76">
         <v>20</v>
       </c>
       <c r="P13" s="12"/>
       <c r="R13" s="33"/>
-      <c r="S13" s="33"/>
-      <c r="T13" s="82" t="str">
-        <f t="shared" si="0"/>
-        <v>Residential electricity Demand - Detached</v>
-      </c>
-      <c r="U13" s="84">
-        <f>V13</f>
-        <v>19</v>
-      </c>
-      <c r="V13" s="33">
-        <f>E50</f>
-        <v>19</v>
-      </c>
-      <c r="W13" s="33"/>
-      <c r="X13" s="33"/>
-      <c r="Y13" s="33"/>
-      <c r="Z13" s="33"/>
-      <c r="AA13" s="33"/>
-      <c r="AB13" s="33"/>
-      <c r="AC13" s="83"/>
-      <c r="AD13" s="33"/>
     </row>
     <row r="14" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="str">
@@ -4831,45 +4177,24 @@
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
-      <c r="J14" s="74">
-        <v>2.1</v>
-      </c>
-      <c r="K14" s="12">
+      <c r="J14" s="79">
+        <v>2.0365199999999999</v>
+      </c>
+      <c r="K14" s="76">
         <v>100</v>
       </c>
-      <c r="L14" s="12">
+      <c r="L14" s="76">
         <v>1</v>
       </c>
-      <c r="M14" s="12">
+      <c r="M14" s="76">
         <v>1</v>
       </c>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12">
+      <c r="N14" s="76"/>
+      <c r="O14" s="76">
         <v>20</v>
       </c>
       <c r="P14" s="12"/>
       <c r="R14" s="33"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="82" t="str">
-        <f t="shared" si="0"/>
-        <v>Residential heating Demand - Multistorey</v>
-      </c>
-      <c r="U14" s="101">
-        <f>J14*SUM(V24,V26,V28)</f>
-        <v>17.529916320000002</v>
-      </c>
-      <c r="V14" s="33">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="W14" s="33"/>
-      <c r="X14" s="33"/>
-      <c r="Y14" s="33"/>
-      <c r="Z14" s="33"/>
-      <c r="AA14" s="33"/>
-      <c r="AB14" s="33"/>
-      <c r="AC14" s="83"/>
-      <c r="AD14" s="33"/>
     </row>
     <row r="15" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="str">
@@ -4894,47 +4219,26 @@
       </c>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
-      <c r="J15" s="118">
+      <c r="J15" s="76">
         <v>22</v>
       </c>
-      <c r="K15" s="12">
+      <c r="K15" s="76">
         <v>100</v>
       </c>
-      <c r="L15" s="12">
+      <c r="L15" s="76">
         <v>1</v>
       </c>
-      <c r="M15" s="12">
+      <c r="M15" s="76">
         <v>1</v>
       </c>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12">
+      <c r="N15" s="76"/>
+      <c r="O15" s="76">
         <v>20</v>
       </c>
       <c r="P15" s="12"/>
       <c r="R15" s="33"/>
-      <c r="S15" s="33"/>
-      <c r="T15" s="82" t="str">
-        <f t="shared" si="0"/>
-        <v>Residential cooling Demand - Multistorey</v>
-      </c>
-      <c r="U15" s="57">
-        <f>J15*SUM(V30)</f>
-        <v>21.2300352</v>
-      </c>
-      <c r="V15" s="119">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="W15" s="33"/>
-      <c r="X15" s="33"/>
-      <c r="Y15" s="33"/>
-      <c r="Z15" s="33"/>
-      <c r="AA15" s="33"/>
-      <c r="AB15" s="33"/>
-      <c r="AC15" s="83"/>
-      <c r="AD15" s="33"/>
-    </row>
-    <row r="16" spans="2:30" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="str">
         <f>SEC_Processes!D14</f>
         <v>REDMB</v>
@@ -4957,47 +4261,26 @@
       </c>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
-      <c r="J16" s="74">
+      <c r="J16" s="76">
         <v>9.1999999999999993</v>
       </c>
-      <c r="K16" s="12">
+      <c r="K16" s="76">
         <v>100</v>
       </c>
-      <c r="L16" s="12">
+      <c r="L16" s="76">
         <v>1</v>
       </c>
-      <c r="M16" s="12">
+      <c r="M16" s="76">
         <v>1</v>
       </c>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12">
+      <c r="N16" s="76"/>
+      <c r="O16" s="76">
         <v>20</v>
       </c>
       <c r="P16" s="12"/>
       <c r="R16" s="34"/>
-      <c r="S16" s="34"/>
-      <c r="T16" s="82" t="str">
-        <f t="shared" si="0"/>
-        <v>Residential electricity Demand - Multistorey</v>
-      </c>
-      <c r="U16" s="84">
-        <f>V16</f>
-        <v>17</v>
-      </c>
-      <c r="V16" s="88">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="W16" s="34"/>
-      <c r="X16" s="34"/>
-      <c r="Y16" s="34"/>
-      <c r="Z16" s="34"/>
-      <c r="AA16" s="34"/>
-      <c r="AB16" s="34"/>
-      <c r="AC16" s="85"/>
-      <c r="AD16" s="34"/>
-    </row>
-    <row r="17" spans="2:30" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="str">
         <f>SEC_Processes!D15</f>
         <v>CHDRB</v>
@@ -5020,47 +4303,26 @@
       </c>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
-      <c r="J17" s="100">
+      <c r="J17" s="76">
         <v>2</v>
       </c>
-      <c r="K17" s="12">
+      <c r="K17" s="76">
         <v>100</v>
       </c>
-      <c r="L17" s="12">
+      <c r="L17" s="76">
         <v>1</v>
       </c>
-      <c r="M17" s="12">
+      <c r="M17" s="76">
         <v>1</v>
       </c>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12">
+      <c r="N17" s="76"/>
+      <c r="O17" s="76">
         <v>20</v>
       </c>
       <c r="P17" s="12"/>
       <c r="R17" s="34"/>
-      <c r="S17" s="34"/>
-      <c r="T17" s="82" t="str">
-        <f t="shared" si="0"/>
-        <v>Commercial heating Demand</v>
-      </c>
-      <c r="U17" s="107">
-        <f>J17*SUM(V33:V34)</f>
-        <v>4.2258240000000011</v>
-      </c>
-      <c r="V17" s="33">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="W17" s="34"/>
-      <c r="X17" s="34"/>
-      <c r="Y17" s="34"/>
-      <c r="Z17" s="34"/>
-      <c r="AA17" s="34"/>
-      <c r="AB17" s="34"/>
-      <c r="AC17" s="85"/>
-      <c r="AD17" s="34"/>
-    </row>
-    <row r="18" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="str">
         <f>SEC_Processes!D16</f>
         <v>CCDRB</v>
@@ -5083,47 +4345,26 @@
       </c>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
-      <c r="J18" s="118">
+      <c r="J18" s="76">
         <v>25</v>
       </c>
-      <c r="K18" s="12">
+      <c r="K18" s="76">
         <v>100</v>
       </c>
-      <c r="L18" s="12">
+      <c r="L18" s="76">
         <v>1</v>
       </c>
-      <c r="M18" s="12">
+      <c r="M18" s="76">
         <v>1</v>
       </c>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12">
+      <c r="N18" s="76"/>
+      <c r="O18" s="76">
         <v>20</v>
       </c>
       <c r="P18" s="12"/>
       <c r="R18" s="34"/>
-      <c r="S18" s="34"/>
-      <c r="T18" s="82" t="str">
-        <f t="shared" si="0"/>
-        <v>Commercial cooling Demand</v>
-      </c>
-      <c r="U18" s="57">
-        <f>J18*SUM(V35)</f>
-        <v>23.651999999999997</v>
-      </c>
-      <c r="V18" s="33">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="W18" s="34"/>
-      <c r="X18" s="34"/>
-      <c r="Y18" s="34"/>
-      <c r="Z18" s="34"/>
-      <c r="AA18" s="34"/>
-      <c r="AB18" s="34"/>
-      <c r="AC18" s="85"/>
-      <c r="AD18" s="34"/>
-    </row>
-    <row r="19" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="str">
         <f>SEC_Processes!D17</f>
         <v>IPPDT</v>
@@ -5146,91 +4387,67 @@
       </c>
       <c r="H19" s="12"/>
       <c r="I19" s="25"/>
-      <c r="J19" s="74">
+      <c r="J19" s="76">
         <v>176</v>
       </c>
-      <c r="K19" s="12">
+      <c r="K19" s="76">
         <v>100</v>
       </c>
-      <c r="L19" s="12">
+      <c r="L19" s="76">
         <v>1</v>
       </c>
-      <c r="M19" s="12">
+      <c r="M19" s="76">
         <v>1</v>
       </c>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30">
+      <c r="N19" s="77"/>
+      <c r="O19" s="77">
         <v>20</v>
       </c>
       <c r="P19" s="30"/>
       <c r="R19" s="34"/>
-      <c r="S19" s="34"/>
-      <c r="T19" s="106"/>
-      <c r="U19" s="33"/>
-      <c r="V19" s="33"/>
-      <c r="W19" s="34"/>
-      <c r="X19" s="34"/>
-      <c r="Y19" s="34"/>
-      <c r="Z19" s="34"/>
-      <c r="AA19" s="34"/>
-      <c r="AB19" s="34"/>
-      <c r="AC19" s="85"/>
-      <c r="AD19" s="34"/>
-    </row>
-    <row r="20" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B20" s="44" t="str">
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B20" s="43" t="str">
         <f>SEC_Processes!D18</f>
         <v>RHTDBWPEBE1</v>
       </c>
-      <c r="C20" s="44" t="str">
+      <c r="C20" s="43" t="str">
         <f>SEC_Processes!E18</f>
         <v>Residential heating technology detached buildings - wood - existing 1</v>
       </c>
-      <c r="D20" s="44" t="str">
+      <c r="D20" s="43" t="str">
         <f>SEC_Comm!D20</f>
         <v>RESWPE</v>
       </c>
-      <c r="E20" s="44" t="str">
+      <c r="E20" s="43" t="str">
         <f>SEC_Comm!D26</f>
         <v>RESHBDB</v>
       </c>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
       <c r="I20" s="12"/>
-      <c r="J20" s="75">
+      <c r="J20" s="78">
         <v>0.87</v>
       </c>
-      <c r="K20" s="44">
+      <c r="K20" s="78">
         <v>20</v>
       </c>
-      <c r="L20" s="44">
+      <c r="L20" s="78">
         <f>8760*3.6/1000000</f>
         <v>3.1536000000000002E-2</v>
       </c>
-      <c r="M20" s="44"/>
-      <c r="N20" s="75">
+      <c r="M20" s="78"/>
+      <c r="N20" s="78">
         <v>0.2</v>
       </c>
-      <c r="O20" s="117">
-        <v>420</v>
-      </c>
-      <c r="P20" s="44"/>
+      <c r="O20" s="73">
+        <v>379.1</v>
+      </c>
+      <c r="P20" s="43"/>
       <c r="R20" s="34"/>
-      <c r="S20" s="34"/>
-      <c r="T20" s="82"/>
-      <c r="U20" s="33"/>
-      <c r="V20" s="33"/>
-      <c r="W20" s="34"/>
-      <c r="X20" s="34"/>
-      <c r="Y20" s="34"/>
-      <c r="Z20" s="34"/>
-      <c r="AA20" s="34"/>
-      <c r="AB20" s="34"/>
-      <c r="AC20" s="85"/>
-      <c r="AD20" s="34"/>
-    </row>
-    <row r="21" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="str">
         <f>SEC_Processes!D19</f>
         <v>RHTMBWPEBE1</v>
@@ -5251,42 +4468,27 @@
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
-      <c r="J21" s="74">
+      <c r="J21" s="76">
         <f>J20</f>
         <v>0.87</v>
       </c>
-      <c r="K21" s="12">
+      <c r="K21" s="76">
         <v>20</v>
       </c>
-      <c r="L21" s="12">
-        <f t="shared" ref="L21:L30" si="2">8760*3.6/1000000</f>
+      <c r="L21" s="76">
+        <f t="shared" ref="L21:L30" si="0">8760*3.6/1000000</f>
         <v>3.1536000000000002E-2</v>
       </c>
-      <c r="M21" s="12"/>
-      <c r="N21" s="74">
+      <c r="M21" s="76"/>
+      <c r="N21" s="76">
         <v>0.24</v>
       </c>
-      <c r="O21" s="100">
+      <c r="O21" s="76">
         <v>380</v>
       </c>
       <c r="P21" s="12"/>
-      <c r="R21" s="77" t="s">
-        <v>214</v>
-      </c>
-      <c r="S21" s="34"/>
-      <c r="T21" s="82"/>
-      <c r="U21" s="33"/>
-      <c r="V21" s="33"/>
-      <c r="W21" s="34"/>
-      <c r="X21" s="34"/>
-      <c r="Y21" s="34"/>
-      <c r="Z21" s="34"/>
-      <c r="AA21" s="34"/>
-      <c r="AB21" s="34"/>
-      <c r="AC21" s="85"/>
-      <c r="AD21" s="34"/>
-    </row>
-    <row r="22" spans="2:30" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="str">
         <f>SEC_Processes!D20</f>
         <v>RHTDBLCHXE2</v>
@@ -5307,41 +4509,27 @@
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
-      <c r="J22" s="74">
+      <c r="J22" s="76">
         <v>3.1</v>
       </c>
-      <c r="K22" s="12">
+      <c r="K22" s="76">
         <v>20</v>
       </c>
-      <c r="L22" s="12">
-        <f t="shared" si="2"/>
+      <c r="L22" s="76">
+        <f t="shared" si="0"/>
         <v>3.1536000000000002E-2</v>
       </c>
-      <c r="M22" s="12"/>
-      <c r="N22" s="74">
+      <c r="M22" s="76"/>
+      <c r="N22" s="76">
         <v>0.16</v>
       </c>
-      <c r="O22" s="100">
+      <c r="O22" s="76">
         <v>500</v>
       </c>
       <c r="P22" s="12"/>
       <c r="R22" s="34"/>
-      <c r="S22" s="34"/>
-      <c r="T22" s="87"/>
-      <c r="U22" s="88"/>
-      <c r="V22" s="88"/>
-      <c r="W22" s="88"/>
-      <c r="X22" s="89"/>
-      <c r="Y22" s="88"/>
-      <c r="Z22" s="90"/>
-      <c r="AA22" s="90"/>
-      <c r="AB22" s="90"/>
-      <c r="AC22" s="91" t="s">
-        <v>216</v>
-      </c>
-      <c r="AD22" s="34"/>
-    </row>
-    <row r="23" spans="2:30" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="str">
         <f>SEC_Processes!D21</f>
         <v>RHTMBLCHXE2</v>
@@ -5362,65 +4550,28 @@
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
-      <c r="J23" s="74">
+      <c r="J23" s="76">
         <f>J22</f>
         <v>3.1</v>
       </c>
-      <c r="K23" s="12">
+      <c r="K23" s="76">
         <v>20</v>
       </c>
-      <c r="L23" s="12">
-        <f t="shared" si="2"/>
+      <c r="L23" s="76">
+        <f t="shared" si="0"/>
         <v>3.1536000000000002E-2</v>
       </c>
-      <c r="M23" s="12"/>
-      <c r="N23" s="74">
+      <c r="M23" s="76"/>
+      <c r="N23" s="76">
         <v>0.19</v>
       </c>
-      <c r="O23" s="100">
+      <c r="O23" s="76">
         <v>450</v>
       </c>
       <c r="P23" s="12"/>
       <c r="R23" s="34"/>
-      <c r="S23" s="34" t="s">
-        <v>225</v>
-      </c>
-      <c r="T23" s="92" t="s">
-        <v>217</v>
-      </c>
-      <c r="U23" s="33" t="s">
-        <v>218</v>
-      </c>
-      <c r="V23" s="93">
-        <f>O20*L20*N20</f>
-        <v>2.6490240000000003</v>
-      </c>
-      <c r="W23" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="X23" s="93">
-        <f>V23/J20</f>
-        <v>3.0448551724137936</v>
-      </c>
-      <c r="Y23" s="33" t="str">
-        <f>D20</f>
-        <v>RESWPE</v>
-      </c>
-      <c r="Z23" s="34"/>
-      <c r="AA23" s="33" t="s">
-        <v>220</v>
-      </c>
-      <c r="AB23" s="93">
-        <f>SUM(X23:X24)</f>
-        <v>6.3506979310344835</v>
-      </c>
-      <c r="AC23" s="94">
-        <f>T52</f>
-        <v>6.3</v>
-      </c>
-      <c r="AD23" s="34"/>
-    </row>
-    <row r="24" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="str">
         <f>SEC_Processes!D22</f>
         <v>RHTDBDHE1</v>
@@ -5441,62 +4592,26 @@
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
-      <c r="J24" s="74">
+      <c r="J24" s="76">
         <v>0.96</v>
       </c>
-      <c r="K24" s="12">
+      <c r="K24" s="76">
         <v>20</v>
       </c>
-      <c r="L24" s="12">
-        <f t="shared" si="2"/>
+      <c r="L24" s="76">
+        <f t="shared" si="0"/>
         <v>3.1536000000000002E-2</v>
       </c>
-      <c r="M24" s="12"/>
-      <c r="N24" s="74">
+      <c r="M24" s="76"/>
+      <c r="N24" s="76">
         <v>0.21</v>
       </c>
-      <c r="O24" s="100">
+      <c r="O24" s="76">
         <v>500</v>
       </c>
       <c r="P24" s="12"/>
-      <c r="S24" s="34" t="s">
-        <v>225</v>
-      </c>
-      <c r="T24" s="92" t="s">
-        <v>221</v>
-      </c>
-      <c r="U24" s="33" t="s">
-        <v>218</v>
-      </c>
-      <c r="V24" s="93">
-        <f>O21*L21*N21</f>
-        <v>2.8760832000000001</v>
-      </c>
-      <c r="W24" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="X24" s="93">
-        <f>V24/J21</f>
-        <v>3.3058427586206895</v>
-      </c>
-      <c r="Y24" s="33" t="str">
-        <f t="shared" ref="Y24:Y26" si="3">D21</f>
-        <v>RESWPE</v>
-      </c>
-      <c r="Z24" s="34"/>
-      <c r="AA24" s="33" t="s">
-        <v>222</v>
-      </c>
-      <c r="AB24" s="93">
-        <f>SUM(X25:X26,X29:X30)+V13/J13+V16/J16</f>
-        <v>6.0693375003864105</v>
-      </c>
-      <c r="AC24" s="94">
-        <f>T51</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="str">
         <f>SEC_Processes!D23</f>
         <v>RHTMBDHE1</v>
@@ -5517,62 +4632,26 @@
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
-      <c r="J25" s="74">
+      <c r="J25" s="76">
         <v>0.98</v>
       </c>
-      <c r="K25" s="12">
+      <c r="K25" s="76">
         <v>20</v>
       </c>
-      <c r="L25" s="12">
-        <f t="shared" si="2"/>
+      <c r="L25" s="76">
+        <f t="shared" si="0"/>
         <v>3.1536000000000002E-2</v>
       </c>
-      <c r="M25" s="12"/>
-      <c r="N25" s="74">
+      <c r="M25" s="76"/>
+      <c r="N25" s="76">
         <v>0.22</v>
       </c>
-      <c r="O25" s="100">
+      <c r="O25" s="76">
         <v>400</v>
       </c>
       <c r="P25" s="12"/>
-      <c r="S25" s="34" t="s">
-        <v>225</v>
-      </c>
-      <c r="T25" s="92" t="s">
-        <v>217</v>
-      </c>
-      <c r="U25" s="33" t="s">
-        <v>218</v>
-      </c>
-      <c r="V25" s="93">
-        <f>O22*L22*N22</f>
-        <v>2.5228800000000002</v>
-      </c>
-      <c r="W25" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="X25" s="93">
-        <f>V25/J22</f>
-        <v>0.8138322580645162</v>
-      </c>
-      <c r="Y25" s="33" t="str">
-        <f t="shared" si="3"/>
-        <v>RESELCH</v>
-      </c>
-      <c r="Z25" s="34"/>
-      <c r="AA25" s="33" t="s">
-        <v>223</v>
-      </c>
-      <c r="AB25" s="96">
-        <f>SUM(X27:X28)</f>
-        <v>6.2810540816326537</v>
-      </c>
-      <c r="AC25" s="94">
-        <f>T53</f>
-        <v>6.3</v>
-      </c>
-    </row>
-    <row r="26" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B26" s="12" t="str">
         <f>SEC_Processes!D24</f>
         <v>RCTDBAC</v>
@@ -5593,54 +4672,26 @@
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
-      <c r="J26" s="74">
+      <c r="J26" s="76">
         <v>3.1</v>
       </c>
-      <c r="K26" s="12">
+      <c r="K26" s="76">
         <v>20</v>
       </c>
-      <c r="L26" s="12">
-        <f t="shared" si="2"/>
+      <c r="L26" s="76">
+        <f t="shared" si="0"/>
         <v>3.1536000000000002E-2</v>
       </c>
-      <c r="M26" s="12"/>
-      <c r="N26" s="100">
+      <c r="M26" s="76"/>
+      <c r="N26" s="76">
         <v>0.15</v>
       </c>
-      <c r="O26" s="100">
+      <c r="O26" s="76">
         <v>195</v>
       </c>
       <c r="P26" s="12"/>
-      <c r="S26" s="34" t="s">
-        <v>225</v>
-      </c>
-      <c r="T26" s="92" t="s">
-        <v>221</v>
-      </c>
-      <c r="U26" s="33" t="s">
-        <v>218</v>
-      </c>
-      <c r="V26" s="93">
-        <f t="shared" ref="V26:V28" si="4">O23*L23*N23</f>
-        <v>2.6963280000000003</v>
-      </c>
-      <c r="W26" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="X26" s="93">
-        <f t="shared" ref="X26:X30" si="5">V26/J23</f>
-        <v>0.86978322580645173</v>
-      </c>
-      <c r="Y26" s="33" t="str">
-        <f t="shared" si="3"/>
-        <v>RESELCH</v>
-      </c>
-      <c r="Z26" s="34"/>
-      <c r="AA26" s="33"/>
-      <c r="AB26" s="93"/>
-      <c r="AC26" s="94"/>
-    </row>
-    <row r="27" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="str">
         <f>SEC_Processes!D25</f>
         <v>RCTMBAC</v>
@@ -5661,54 +4712,26 @@
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
-      <c r="J27" s="74">
+      <c r="J27" s="76">
         <v>3.2</v>
       </c>
-      <c r="K27" s="12">
+      <c r="K27" s="76">
         <v>20</v>
       </c>
-      <c r="L27" s="12">
-        <f t="shared" si="2"/>
+      <c r="L27" s="76">
+        <f t="shared" si="0"/>
         <v>3.1536000000000002E-2</v>
       </c>
-      <c r="M27" s="12"/>
-      <c r="N27" s="100">
+      <c r="M27" s="76"/>
+      <c r="N27" s="76">
         <v>0.18</v>
       </c>
-      <c r="O27" s="118">
+      <c r="O27" s="76">
         <v>170</v>
       </c>
       <c r="P27" s="12"/>
-      <c r="S27" s="34" t="s">
-        <v>225</v>
-      </c>
-      <c r="T27" s="92" t="s">
-        <v>217</v>
-      </c>
-      <c r="U27" s="33" t="s">
-        <v>218</v>
-      </c>
-      <c r="V27" s="93">
-        <f t="shared" si="4"/>
-        <v>3.31128</v>
-      </c>
-      <c r="W27" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="X27" s="93">
-        <f t="shared" si="5"/>
-        <v>3.4492500000000001</v>
-      </c>
-      <c r="Y27" s="33" t="str">
-        <f>D24</f>
-        <v>RESDH</v>
-      </c>
-      <c r="Z27" s="95"/>
-      <c r="AA27" s="33"/>
-      <c r="AB27" s="96"/>
-      <c r="AC27" s="94"/>
-    </row>
-    <row r="28" spans="2:30" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="str">
         <f>SEC_Processes!D26</f>
         <v>CHTLCHXE2</v>
@@ -5729,52 +4752,27 @@
       <c r="G28" s="30"/>
       <c r="H28" s="30"/>
       <c r="I28" s="12"/>
-      <c r="J28" s="76">
+      <c r="J28" s="77">
         <f>J23</f>
         <v>3.1</v>
       </c>
-      <c r="K28" s="30">
+      <c r="K28" s="77">
         <v>20</v>
       </c>
-      <c r="L28" s="12">
-        <f t="shared" si="2"/>
+      <c r="L28" s="76">
+        <f t="shared" si="0"/>
         <v>3.1536000000000002E-2</v>
       </c>
-      <c r="M28" s="30"/>
-      <c r="N28" s="74">
+      <c r="M28" s="77"/>
+      <c r="N28" s="76">
         <v>0.23</v>
       </c>
-      <c r="O28" s="74">
+      <c r="O28" s="76">
         <v>180</v>
       </c>
       <c r="P28" s="30"/>
-      <c r="S28" s="34" t="s">
-        <v>225</v>
-      </c>
-      <c r="T28" s="92" t="s">
-        <v>221</v>
-      </c>
-      <c r="U28" s="33" t="s">
-        <v>218</v>
-      </c>
-      <c r="V28" s="93">
-        <f t="shared" si="4"/>
-        <v>2.7751679999999999</v>
-      </c>
-      <c r="W28" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="X28" s="93">
-        <f t="shared" si="5"/>
-        <v>2.8318040816326531</v>
-      </c>
-      <c r="Y28" s="33" t="str">
-        <f>D25</f>
-        <v>RESDH</v>
-      </c>
-      <c r="Z28" s="95"/>
-    </row>
-    <row r="29" spans="2:30" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="str">
         <f>SEC_Processes!D27</f>
         <v>CHTHCEBE1</v>
@@ -5795,55 +4793,27 @@
       <c r="G29" s="30"/>
       <c r="H29" s="30"/>
       <c r="I29" s="30"/>
-      <c r="J29" s="76">
+      <c r="J29" s="77">
         <f>J25</f>
         <v>0.98</v>
       </c>
-      <c r="K29" s="30">
+      <c r="K29" s="77">
         <v>20</v>
       </c>
-      <c r="L29" s="12">
-        <f t="shared" si="2"/>
+      <c r="L29" s="76">
+        <f t="shared" si="0"/>
         <v>3.1536000000000002E-2</v>
       </c>
-      <c r="M29" s="30"/>
-      <c r="N29" s="74">
+      <c r="M29" s="77"/>
+      <c r="N29" s="76">
         <v>0.16</v>
       </c>
-      <c r="O29" s="74">
+      <c r="O29" s="76">
         <v>160</v>
       </c>
       <c r="P29" s="30"/>
-      <c r="S29" s="34" t="s">
-        <v>226</v>
-      </c>
-      <c r="T29" s="102" t="s">
-        <v>217</v>
-      </c>
-      <c r="U29" s="86" t="s">
-        <v>218</v>
-      </c>
-      <c r="V29" s="103">
-        <f>O26*L26*N26</f>
-        <v>0.92242799999999991</v>
-      </c>
-      <c r="W29" s="86" t="s">
-        <v>219</v>
-      </c>
-      <c r="X29" s="103">
-        <f t="shared" si="5"/>
-        <v>0.29755741935483865</v>
-      </c>
-      <c r="Y29" s="86" t="str">
-        <f>D26</f>
-        <v>RESELCH</v>
-      </c>
-      <c r="Z29" s="104"/>
-      <c r="AA29" s="104"/>
-      <c r="AB29" s="104"/>
-      <c r="AC29" s="105"/>
-    </row>
-    <row r="30" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="str">
         <f>SEC_Processes!D28</f>
         <v>CCTRBAC</v>
@@ -5864,55 +4834,27 @@
       <c r="G30" s="30"/>
       <c r="H30" s="30"/>
       <c r="I30" s="30"/>
-      <c r="J30" s="74">
+      <c r="J30" s="76">
         <f>J26</f>
         <v>3.1</v>
       </c>
-      <c r="K30" s="30">
+      <c r="K30" s="77">
         <v>20</v>
       </c>
-      <c r="L30" s="12">
-        <f t="shared" si="2"/>
+      <c r="L30" s="76">
+        <f t="shared" si="0"/>
         <v>3.1536000000000002E-2</v>
       </c>
-      <c r="M30" s="30"/>
-      <c r="N30" s="118">
+      <c r="M30" s="77"/>
+      <c r="N30" s="76">
         <v>0.3</v>
       </c>
-      <c r="O30" s="118">
+      <c r="O30" s="76">
         <v>100</v>
       </c>
       <c r="P30" s="30"/>
-      <c r="S30" s="34" t="s">
-        <v>226</v>
-      </c>
-      <c r="T30" s="92" t="s">
-        <v>221</v>
-      </c>
-      <c r="U30" s="33" t="s">
-        <v>218</v>
-      </c>
-      <c r="V30" s="93">
-        <f>O27*L27*N27</f>
-        <v>0.96500160000000001</v>
-      </c>
-      <c r="W30" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="X30" s="93">
-        <f t="shared" si="5"/>
-        <v>0.30156299999999997</v>
-      </c>
-      <c r="Y30" s="33" t="str">
-        <f>D27</f>
-        <v>RESELCH</v>
-      </c>
-      <c r="Z30" s="95"/>
-      <c r="AA30" s="95"/>
-      <c r="AB30" s="95"/>
-      <c r="AC30" s="97"/>
-    </row>
-    <row r="31" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31" s="30" t="str">
         <f>SEC_Processes!D29</f>
         <v>IPPT</v>
@@ -5933,78 +4875,58 @@
       <c r="G31" s="30"/>
       <c r="H31" s="30"/>
       <c r="I31" s="30"/>
-      <c r="J31" s="76">
+      <c r="J31" s="77">
         <v>9.8000000000000007</v>
       </c>
-      <c r="K31" s="30">
+      <c r="K31" s="77">
         <v>20</v>
       </c>
-      <c r="L31" s="30">
+      <c r="L31" s="77">
         <v>1</v>
       </c>
-      <c r="M31" s="30"/>
-      <c r="N31" s="30">
+      <c r="M31" s="77"/>
+      <c r="N31" s="77">
         <v>1</v>
       </c>
-      <c r="O31" s="76">
+      <c r="O31" s="77">
         <v>8973</v>
       </c>
       <c r="P31" s="30"/>
-      <c r="T31" s="92"/>
-      <c r="U31" s="33"/>
-      <c r="W31" s="33"/>
-      <c r="X31" s="93"/>
-      <c r="Z31" s="95"/>
-      <c r="AA31" s="95"/>
-      <c r="AB31" s="95"/>
-      <c r="AC31" s="97"/>
-    </row>
-    <row r="32" spans="2:30" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="44" t="str">
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B32" s="43" t="str">
         <f>SEC_Processes!D30</f>
         <v>FT-RESNGA</v>
       </c>
-      <c r="C32" s="44" t="str">
+      <c r="C32" s="43" t="str">
         <f>SEC_Processes!E30</f>
         <v>Fuel Technology Natural Gas RES</v>
       </c>
-      <c r="D32" s="44" t="s">
+      <c r="D32" s="43" t="s">
         <v>201</v>
       </c>
-      <c r="E32" s="44" t="s">
+      <c r="E32" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44">
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43">
         <v>1</v>
       </c>
-      <c r="K32" s="44">
+      <c r="K32" s="43">
         <v>50</v>
       </c>
-      <c r="L32" s="44"/>
-      <c r="M32" s="44"/>
-      <c r="N32" s="44"/>
-      <c r="O32" s="44"/>
-      <c r="P32" s="44">
+      <c r="L32" s="43"/>
+      <c r="M32" s="43"/>
+      <c r="N32" s="43"/>
+      <c r="O32" s="43"/>
+      <c r="P32" s="43">
         <v>1000</v>
       </c>
-      <c r="T32" s="98"/>
-      <c r="U32" s="90"/>
-      <c r="V32" s="89"/>
-      <c r="W32" s="90"/>
-      <c r="X32" s="99"/>
-      <c r="Y32" s="88"/>
-      <c r="Z32" s="90"/>
-      <c r="AA32" s="90"/>
-      <c r="AB32" s="90"/>
-      <c r="AC32" s="91" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="33" spans="2:29" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B33" s="30" t="str">
         <f>SEC_Processes!D31</f>
         <v>FT-RESWPE</v>
@@ -6037,38 +4959,6 @@
       <c r="P33" s="30">
         <v>1000</v>
       </c>
-      <c r="T33" s="92" t="s">
-        <v>224</v>
-      </c>
-      <c r="U33" s="33" t="s">
-        <v>218</v>
-      </c>
-      <c r="V33" s="93">
-        <f>O28*L28*N28</f>
-        <v>1.3055904000000003</v>
-      </c>
-      <c r="W33" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="X33" s="93">
-        <f>V33/J28</f>
-        <v>0.42115819354838718</v>
-      </c>
-      <c r="Y33" s="33" t="str">
-        <f>D28</f>
-        <v>COMELCH</v>
-      </c>
-      <c r="Z33" s="34"/>
-      <c r="AA33" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="AB33">
-        <v>0</v>
-      </c>
-      <c r="AC33">
-        <f>U52</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="34" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="str">
@@ -6103,39 +4993,6 @@
       <c r="P34" s="12">
         <v>1000</v>
       </c>
-      <c r="T34" s="92" t="s">
-        <v>224</v>
-      </c>
-      <c r="U34" s="33" t="s">
-        <v>218</v>
-      </c>
-      <c r="V34" s="93">
-        <f>O29*L29*N29</f>
-        <v>0.80732160000000008</v>
-      </c>
-      <c r="W34" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="X34" s="93">
-        <f>V34/J29</f>
-        <v>0.8237975510204083</v>
-      </c>
-      <c r="Y34" s="33" t="str">
-        <f t="shared" ref="Y34:Y35" si="6">D29</f>
-        <v>COMDH</v>
-      </c>
-      <c r="Z34" s="34"/>
-      <c r="AA34" s="33" t="s">
-        <v>222</v>
-      </c>
-      <c r="AB34" s="93">
-        <f>SUM(X33,X35)</f>
-        <v>0.72634529032258066</v>
-      </c>
-      <c r="AC34" s="94">
-        <f>U51</f>
-        <v>0.5</v>
-      </c>
     </row>
     <row r="35" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B35" s="12" t="str">
@@ -6170,41 +5027,8 @@
       <c r="P35" s="12">
         <v>1000</v>
       </c>
-      <c r="T35" s="92" t="s">
-        <v>224</v>
-      </c>
-      <c r="U35" s="33" t="s">
-        <v>218</v>
-      </c>
-      <c r="V35" s="93">
-        <f>O30*L30*N30</f>
-        <v>0.94607999999999992</v>
-      </c>
-      <c r="W35" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="X35" s="93">
-        <f>V35/J30</f>
-        <v>0.30518709677419353</v>
-      </c>
-      <c r="Y35" s="33" t="str">
-        <f t="shared" si="6"/>
-        <v>COMELCH</v>
-      </c>
-      <c r="Z35" s="34"/>
-      <c r="AA35" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="AB35" s="93">
-        <f>SUM(X34)</f>
-        <v>0.8237975510204083</v>
-      </c>
-      <c r="AC35" s="94">
-        <f>U53</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="36" spans="2:29" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="str">
         <f>SEC_Processes!D34</f>
         <v>FT-RESHE</v>
@@ -6237,18 +5061,8 @@
       <c r="P36" s="12">
         <v>1000</v>
       </c>
-      <c r="T36" s="92"/>
-      <c r="U36" s="33"/>
-      <c r="V36" s="93"/>
-      <c r="W36" s="33"/>
-      <c r="X36" s="93"/>
-      <c r="Y36" s="33"/>
-      <c r="Z36" s="34"/>
-      <c r="AA36" s="33"/>
-      <c r="AB36" s="93"/>
-      <c r="AC36" s="115"/>
-    </row>
-    <row r="37" spans="2:29" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B37" s="12" t="str">
         <f>SEC_Processes!D35</f>
         <v>FT-COMELCH</v>
@@ -6281,16 +5095,6 @@
       <c r="P37" s="12">
         <v>1000</v>
       </c>
-      <c r="T37" s="109"/>
-      <c r="U37" s="86"/>
-      <c r="V37" s="103"/>
-      <c r="W37" s="86"/>
-      <c r="X37" s="103"/>
-      <c r="Y37" s="86"/>
-      <c r="Z37" s="104"/>
-      <c r="AA37" s="86"/>
-      <c r="AB37" s="103"/>
-      <c r="AC37" s="103"/>
     </row>
     <row r="38" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B38" s="12" t="str">
@@ -6325,16 +5129,6 @@
       <c r="P38" s="12">
         <v>1000</v>
       </c>
-      <c r="T38" s="116"/>
-      <c r="U38" s="33"/>
-      <c r="V38" s="93"/>
-      <c r="W38" s="33"/>
-      <c r="X38" s="93"/>
-      <c r="Y38" s="33"/>
-      <c r="Z38" s="95"/>
-      <c r="AA38" s="33"/>
-      <c r="AB38" s="93"/>
-      <c r="AC38" s="93"/>
     </row>
     <row r="39" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B39" s="12" t="str">
@@ -6369,81 +5163,24 @@
       <c r="P39" s="12">
         <v>1000</v>
       </c>
-      <c r="T39" s="116"/>
-      <c r="U39" s="33"/>
-      <c r="V39" s="93"/>
-      <c r="W39" s="33"/>
-      <c r="X39" s="93"/>
-      <c r="Y39" s="33"/>
-      <c r="Z39" s="95"/>
-      <c r="AA39" s="95"/>
-      <c r="AB39" s="95"/>
-      <c r="AC39" s="95"/>
     </row>
     <row r="40" spans="2:29" x14ac:dyDescent="0.25">
       <c r="E40" s="31"/>
       <c r="F40" s="31"/>
-      <c r="T40" s="116"/>
-      <c r="U40" s="33"/>
-      <c r="V40" s="93"/>
-      <c r="W40" s="33"/>
-      <c r="X40" s="93"/>
-      <c r="Y40" s="33"/>
-      <c r="Z40" s="95"/>
-      <c r="AA40" s="95"/>
-      <c r="AB40" s="95"/>
-      <c r="AC40" s="95"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="T41" s="116"/>
-      <c r="U41" s="33"/>
-      <c r="V41" s="93"/>
-      <c r="W41" s="33"/>
-      <c r="X41" s="93"/>
-      <c r="Y41" s="33"/>
-      <c r="Z41" s="95"/>
-      <c r="AA41" s="95"/>
-      <c r="AB41" s="95"/>
-      <c r="AC41" s="95"/>
     </row>
     <row r="42" spans="2:29" ht="24.6" x14ac:dyDescent="0.4">
       <c r="B42" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="T42" s="116"/>
-      <c r="U42" s="33"/>
-      <c r="V42" s="93"/>
-      <c r="W42" s="33"/>
-      <c r="X42" s="93"/>
-      <c r="Y42" s="33"/>
-      <c r="Z42" s="95"/>
-      <c r="AA42" s="95"/>
-      <c r="AB42" s="95"/>
-      <c r="AC42" s="95"/>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="T43" s="116"/>
-      <c r="U43" s="33"/>
-      <c r="V43" s="93"/>
-      <c r="W43" s="33"/>
-      <c r="X43" s="93"/>
-      <c r="Y43" s="33"/>
-      <c r="Z43" s="95"/>
-      <c r="AA43" s="95"/>
-      <c r="AB43" s="95"/>
-      <c r="AC43" s="95"/>
     </row>
     <row r="44" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="T44" s="116"/>
-      <c r="U44" s="95"/>
-      <c r="V44" s="93"/>
-      <c r="W44" s="95"/>
-      <c r="X44" s="93"/>
+      <c r="W44" s="75"/>
+      <c r="X44" s="74"/>
       <c r="Y44" s="33"/>
-      <c r="Z44" s="95"/>
-      <c r="AA44" s="95"/>
-      <c r="AB44" s="95"/>
-      <c r="AC44" s="95"/>
+      <c r="Z44" s="75"/>
+      <c r="AA44" s="75"/>
+      <c r="AB44" s="75"/>
+      <c r="AC44" s="75"/>
     </row>
     <row r="45" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B45" s="16" t="s">
@@ -6463,7 +5200,7 @@
       <c r="E46" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="F46" s="43"/>
+      <c r="F46" s="33"/>
     </row>
     <row r="47" spans="2:29" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="13" t="s">
@@ -6478,15 +5215,15 @@
       <c r="E47" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F47" s="29"/>
-      <c r="H47" s="56"/>
-      <c r="I47" s="56"/>
-      <c r="J47" s="56"/>
-      <c r="K47" s="56"/>
-      <c r="L47" s="56"/>
-      <c r="M47" s="56"/>
-    </row>
-    <row r="48" spans="2:29" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="F47" s="33"/>
+      <c r="H47" s="55"/>
+      <c r="I47" s="55"/>
+      <c r="J47" s="55"/>
+      <c r="K47" s="55"/>
+      <c r="L47" s="55"/>
+      <c r="M47" s="55"/>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B48" s="12" t="str">
         <f>SEC_Comm!D10</f>
         <v>RHD</v>
@@ -6499,21 +5236,18 @@
         <f>SEC_Comm!F10</f>
         <v>Mm2</v>
       </c>
-      <c r="E48" s="74">
+      <c r="E48" s="76">
         <v>19</v>
       </c>
-      <c r="F48" s="12"/>
-      <c r="H48" s="56"/>
+      <c r="F48" s="33"/>
+      <c r="H48" s="55"/>
       <c r="I48" s="33"/>
       <c r="J48" s="33"/>
       <c r="K48" s="33"/>
       <c r="L48" s="33"/>
-      <c r="M48" s="56"/>
-      <c r="S48" s="11" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="49" spans="2:21" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M48" s="55"/>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" s="12" t="str">
         <f>SEC_Comm!D11</f>
         <v>RCD</v>
@@ -6526,19 +5260,19 @@
         <f>SEC_Comm!F11</f>
         <v>Mm2</v>
       </c>
-      <c r="E49" s="74">
+      <c r="E49" s="76">
         <f>E48</f>
         <v>19</v>
       </c>
-      <c r="F49" s="12"/>
-      <c r="H49" s="56"/>
+      <c r="F49" s="33"/>
+      <c r="H49" s="55"/>
       <c r="I49" s="33"/>
       <c r="J49" s="33"/>
       <c r="K49" s="33"/>
       <c r="L49" s="33"/>
-      <c r="M49" s="56"/>
-    </row>
-    <row r="50" spans="2:21" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="M49" s="55"/>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" s="12" t="str">
         <f>SEC_Comm!D12</f>
         <v>RED</v>
@@ -6551,26 +5285,19 @@
         <f>SEC_Comm!F12</f>
         <v>Mm2</v>
       </c>
-      <c r="E50" s="100">
+      <c r="E50" s="76">
         <f>E49</f>
         <v>19</v>
       </c>
-      <c r="F50" s="12"/>
-      <c r="H50" s="56"/>
+      <c r="F50" s="33"/>
+      <c r="H50" s="55"/>
       <c r="I50" s="33"/>
       <c r="J50" s="33"/>
       <c r="K50" s="33"/>
       <c r="L50" s="33"/>
-      <c r="M50" s="56"/>
-      <c r="S50" s="108"/>
-      <c r="T50" s="109" t="s">
-        <v>215</v>
-      </c>
-      <c r="U50" s="110" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="51" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="M50" s="55"/>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" s="12" t="str">
         <f>SEC_Comm!D13</f>
         <v>RHM</v>
@@ -6583,27 +5310,18 @@
         <f>SEC_Comm!F13</f>
         <v>Mm2</v>
       </c>
-      <c r="E51" s="74">
+      <c r="E51" s="76">
         <v>17</v>
       </c>
-      <c r="F51" s="12"/>
-      <c r="H51" s="56"/>
+      <c r="F51" s="33"/>
+      <c r="H51" s="55"/>
       <c r="I51" s="33"/>
       <c r="J51" s="33"/>
       <c r="K51" s="33"/>
       <c r="L51" s="33"/>
-      <c r="M51" s="56"/>
-      <c r="S51" s="111" t="s">
-        <v>222</v>
-      </c>
-      <c r="T51" s="95">
-        <v>6</v>
-      </c>
-      <c r="U51" s="112">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="52" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="M51" s="55"/>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" s="12" t="str">
         <f>SEC_Comm!D14</f>
         <v>RCM</v>
@@ -6616,28 +5334,19 @@
         <f>SEC_Comm!F14</f>
         <v>Mm2</v>
       </c>
-      <c r="E52" s="100">
+      <c r="E52" s="76">
         <f>E51</f>
         <v>17</v>
       </c>
-      <c r="F52" s="12"/>
-      <c r="H52" s="56"/>
+      <c r="F52" s="33"/>
+      <c r="H52" s="55"/>
       <c r="I52" s="33"/>
       <c r="J52" s="33"/>
       <c r="K52" s="33"/>
       <c r="L52" s="33"/>
-      <c r="M52" s="56"/>
-      <c r="S52" s="111" t="s">
-        <v>220</v>
-      </c>
-      <c r="T52" s="95">
-        <v>6.3</v>
-      </c>
-      <c r="U52" s="112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:21" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M52" s="55"/>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" s="12" t="str">
         <f>SEC_Comm!D15</f>
         <v>REM</v>
@@ -6650,28 +5359,19 @@
         <f>SEC_Comm!F15</f>
         <v>Mm2</v>
       </c>
-      <c r="E53" s="100">
+      <c r="E53" s="76">
         <f>E52</f>
         <v>17</v>
       </c>
-      <c r="F53" s="12"/>
-      <c r="H53" s="56"/>
+      <c r="F53" s="33"/>
+      <c r="H53" s="55"/>
       <c r="I53" s="33"/>
       <c r="J53" s="33"/>
       <c r="K53" s="33"/>
       <c r="L53" s="33"/>
-      <c r="M53" s="56"/>
-      <c r="S53" s="113" t="s">
-        <v>229</v>
-      </c>
-      <c r="T53" s="90">
-        <v>6.3</v>
-      </c>
-      <c r="U53" s="114">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="54" spans="2:21" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="M53" s="55"/>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" s="12" t="str">
         <f>SEC_Comm!D16</f>
         <v>CH</v>
@@ -6684,18 +5384,18 @@
         <f>SEC_Comm!F16</f>
         <v>Mm2</v>
       </c>
-      <c r="E54" s="74">
+      <c r="E54" s="76">
         <v>4</v>
       </c>
-      <c r="F54" s="12"/>
-      <c r="H54" s="56"/>
+      <c r="F54" s="33"/>
+      <c r="H54" s="55"/>
       <c r="I54" s="33"/>
       <c r="J54" s="33"/>
       <c r="K54" s="33"/>
       <c r="L54" s="33"/>
-      <c r="M54" s="56"/>
-    </row>
-    <row r="55" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="M54" s="55"/>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" s="12" t="str">
         <f>SEC_Comm!D17</f>
         <v>CC</v>
@@ -6708,19 +5408,19 @@
         <f>SEC_Comm!F17</f>
         <v>Mm2</v>
       </c>
-      <c r="E55" s="100">
+      <c r="E55" s="76">
         <f>E54</f>
         <v>4</v>
       </c>
-      <c r="F55" s="12"/>
-      <c r="H55" s="56"/>
+      <c r="F55" s="33"/>
+      <c r="H55" s="55"/>
       <c r="I55" s="33"/>
       <c r="J55" s="33"/>
       <c r="K55" s="33"/>
       <c r="L55" s="33"/>
-      <c r="M55" s="56"/>
-    </row>
-    <row r="56" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="M55" s="55"/>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56" s="12" t="str">
         <f>SEC_Comm!D18</f>
         <v>IPP</v>
@@ -6733,127 +5433,126 @@
         <f>SEC_Comm!F18</f>
         <v>kt</v>
       </c>
-      <c r="E56" s="74">
+      <c r="E56" s="76">
         <v>7</v>
       </c>
-      <c r="F56" s="12"/>
-      <c r="H56" s="56"/>
+      <c r="F56" s="33"/>
+      <c r="H56" s="55"/>
       <c r="I56" s="33"/>
       <c r="J56" s="33"/>
       <c r="K56" s="33"/>
       <c r="L56" s="33"/>
-      <c r="M56" s="56"/>
-    </row>
-    <row r="57" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="H57" s="56"/>
+      <c r="M56" s="55"/>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H57" s="55"/>
       <c r="I57" s="33"/>
       <c r="J57" s="33"/>
       <c r="K57" s="33"/>
       <c r="L57" s="33"/>
-      <c r="M57" s="56"/>
-    </row>
-    <row r="58" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="H58" s="56"/>
+      <c r="M57" s="55"/>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H58" s="55"/>
       <c r="I58" s="33"/>
       <c r="J58" s="33"/>
       <c r="K58" s="33"/>
       <c r="L58" s="33"/>
-      <c r="M58" s="56"/>
-    </row>
-    <row r="59" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="H59" s="56"/>
+      <c r="M58" s="55"/>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H59" s="55"/>
       <c r="I59" s="33"/>
       <c r="J59" s="33"/>
       <c r="K59" s="33"/>
       <c r="L59" s="33"/>
-      <c r="M59" s="56"/>
-    </row>
-    <row r="60" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="H60" s="56"/>
+      <c r="M59" s="55"/>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H60" s="55"/>
       <c r="I60" s="33"/>
       <c r="J60" s="33"/>
       <c r="K60" s="33"/>
       <c r="L60" s="33"/>
-      <c r="M60" s="56"/>
-    </row>
-    <row r="61" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="H61" s="56"/>
+      <c r="M60" s="55"/>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H61" s="55"/>
       <c r="I61" s="33"/>
       <c r="J61" s="33"/>
       <c r="K61" s="33"/>
       <c r="L61" s="33"/>
-      <c r="M61" s="56"/>
-    </row>
-    <row r="62" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="H62" s="56"/>
+      <c r="M61" s="55"/>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H62" s="55"/>
       <c r="I62" s="33"/>
       <c r="J62" s="33"/>
       <c r="K62" s="33"/>
       <c r="L62" s="33"/>
-      <c r="M62" s="56"/>
-    </row>
-    <row r="63" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="H63" s="56"/>
+      <c r="M62" s="55"/>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H63" s="55"/>
       <c r="I63" s="33"/>
       <c r="J63" s="33"/>
       <c r="K63" s="33"/>
-      <c r="L63" s="57"/>
-      <c r="M63" s="56"/>
-    </row>
-    <row r="64" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="H64" s="56"/>
+      <c r="L63" s="56"/>
+      <c r="M63" s="55"/>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H64" s="55"/>
       <c r="I64" s="33"/>
       <c r="J64" s="33"/>
       <c r="K64" s="33"/>
-      <c r="L64" s="57"/>
-      <c r="M64" s="56"/>
+      <c r="L64" s="56"/>
+      <c r="M64" s="55"/>
     </row>
     <row r="65" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H65" s="56"/>
+      <c r="H65" s="55"/>
       <c r="I65" s="33"/>
       <c r="J65" s="33"/>
       <c r="K65" s="33"/>
-      <c r="L65" s="57"/>
-      <c r="M65" s="56"/>
+      <c r="L65" s="56"/>
+      <c r="M65" s="55"/>
     </row>
     <row r="66" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H66" s="56"/>
+      <c r="H66" s="55"/>
       <c r="I66" s="33"/>
       <c r="J66" s="33"/>
       <c r="K66" s="33"/>
-      <c r="L66" s="57"/>
-      <c r="M66" s="56"/>
+      <c r="L66" s="56"/>
+      <c r="M66" s="55"/>
     </row>
     <row r="67" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H67" s="56"/>
+      <c r="H67" s="55"/>
       <c r="I67" s="33"/>
       <c r="J67" s="33"/>
       <c r="K67" s="33"/>
-      <c r="L67" s="57"/>
-      <c r="M67" s="56"/>
+      <c r="L67" s="56"/>
+      <c r="M67" s="55"/>
     </row>
     <row r="68" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H68" s="56"/>
+      <c r="H68" s="55"/>
       <c r="I68" s="33"/>
       <c r="J68" s="33"/>
       <c r="K68" s="33"/>
-      <c r="L68" s="57"/>
-      <c r="M68" s="56"/>
+      <c r="L68" s="56"/>
+      <c r="M68" s="55"/>
     </row>
     <row r="69" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H69" s="56"/>
-      <c r="I69" s="56"/>
-      <c r="J69" s="56"/>
-      <c r="K69" s="56"/>
-      <c r="L69" s="56"/>
-      <c r="M69" s="56"/>
+      <c r="H69" s="55"/>
+      <c r="I69" s="55"/>
+      <c r="J69" s="55"/>
+      <c r="K69" s="55"/>
+      <c r="L69" s="55"/>
+      <c r="M69" s="55"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6871,38 +5570,38 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="44" t="s">
         <v>197</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
     </row>
     <row r="4" spans="2:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="53"/>
+      <c r="D4" s="52"/>
     </row>
     <row r="5" spans="2:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="49" t="s">
         <v>198</v>
       </c>
-      <c r="D5" s="54"/>
+      <c r="D5" s="53"/>
     </row>
     <row r="6" spans="2:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="52">
+      <c r="C6" s="51">
         <v>56.97</v>
       </c>
-      <c r="D6" s="55"/>
+      <c r="D6" s="54"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/VT_SHR_RCI_V01.xlsx
+++ b/VT_SHR_RCI_V01.xlsx
@@ -3771,8 +3771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AD69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4177,9 +4177,7 @@
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
-      <c r="J14" s="79">
-        <v>2.0365199999999999</v>
-      </c>
+      <c r="J14" s="79"/>
       <c r="K14" s="76">
         <v>100</v>
       </c>
@@ -4441,9 +4439,7 @@
       <c r="N20" s="78">
         <v>0.2</v>
       </c>
-      <c r="O20" s="73">
-        <v>379.1</v>
-      </c>
+      <c r="O20" s="73"/>
       <c r="P20" s="43"/>
       <c r="R20" s="34"/>
     </row>
